--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17866FC-863C-5B42-B629-64CA92F90922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF5929-43FF-DB41-B693-83C76B83C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
   <si>
     <t>Ad</t>
   </si>
@@ -1085,12 +1085,6 @@
   </si>
   <si>
     <t>Hmw2</t>
-  </si>
-  <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>****</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1442,8 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" activeCellId="1" sqref="C64 C63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1667,7 +1661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1681,7 +1675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1695,7 +1689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1777,11 +1771,11 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1795,7 +1789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1845,7 +1839,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2488,7 +2482,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2502,7 +2496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -2565,11 +2559,11 @@
       <c r="C86" t="s">
         <v>256</v>
       </c>
-      <c r="E86" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -2591,7 +2585,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -2602,7 +2596,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -2616,7 +2610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -2627,7 +2621,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -2638,7 +2632,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -2680,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>284</v>
       </c>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DF5929-43FF-DB41-B693-83C76B83C240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86E240-F605-2149-9C3B-DFB33FC91CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1442,8 +1442,8 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2828,6 +2828,9 @@
       <c r="C108" t="s">
         <v>322</v>
       </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86E240-F605-2149-9C3B-DFB33FC91CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FCE10-03CD-654C-9F00-FAF450240B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1442,8 +1442,8 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2781,6 +2781,9 @@
       <c r="C104" t="s">
         <v>310</v>
       </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8FCE10-03CD-654C-9F00-FAF450240B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E295F5-45E0-6249-9748-875952E8881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="358">
   <si>
     <t>Ad</t>
   </si>
@@ -1081,17 +1081,26 @@
     <t>zynpylmz321@gmail.com</t>
   </si>
   <si>
-    <t>Hmw1</t>
-  </si>
-  <si>
-    <t>Hmw2</t>
+    <t>Vize (% 20 )</t>
+  </si>
+  <si>
+    <t>Ödev 1 (% 10 )</t>
+  </si>
+  <si>
+    <t>Ödev 2 (% 10 )</t>
+  </si>
+  <si>
+    <t>Proje (% 30 )</t>
+  </si>
+  <si>
+    <t>Final (% 30 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1114,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1132,9 +1148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,11 +1458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1453,9 +1472,11 @@
     <col min="3" max="3" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,14 +1486,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1497,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1507,8 +1537,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1532,8 +1565,11 @@
       <c r="D6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1579,8 +1615,11 @@
       <c r="D10">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1607,8 +1646,11 @@
       <c r="D12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1619,7 +1661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1632,8 +1674,11 @@
       <c r="D14">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1647,7 +1692,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1660,8 +1705,11 @@
       <c r="D16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1674,8 +1722,11 @@
       <c r="D17">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1688,8 +1739,11 @@
       <c r="D18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1702,8 +1756,11 @@
       <c r="D19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1717,7 +1774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1739,7 +1796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1750,7 +1807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1761,7 +1818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1774,8 +1831,11 @@
       <c r="D25">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1788,8 +1848,11 @@
       <c r="D26">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1802,8 +1865,11 @@
       <c r="D27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1817,7 +1883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1828,7 +1894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1839,7 +1905,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1853,7 +1919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1866,8 +1932,11 @@
       <c r="D32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1880,8 +1949,11 @@
       <c r="D33">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1892,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1906,7 +1978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1919,8 +1991,11 @@
       <c r="D36">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1933,8 +2008,11 @@
       <c r="D37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -1945,7 +2023,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -1959,7 +2037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1972,8 +2050,11 @@
       <c r="D40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1984,7 +2065,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1998,7 +2079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2009,7 +2090,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -2022,8 +2103,11 @@
       <c r="D44">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2037,7 +2121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -2051,7 +2135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -2064,8 +2148,11 @@
       <c r="D47">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -2076,7 +2163,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2087,7 +2174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="D50">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2115,7 +2205,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -2126,7 +2216,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -2137,7 +2227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -2151,7 +2241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2161,8 +2251,11 @@
       <c r="C55" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2175,8 +2268,11 @@
       <c r="D56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2189,8 +2285,11 @@
       <c r="D57">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2201,7 +2300,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2215,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2229,7 +2328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2240,7 +2339,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2250,8 +2349,11 @@
       <c r="C62" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2264,8 +2366,11 @@
       <c r="D63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2276,7 +2381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2287,7 +2392,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2301,7 +2406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2314,8 +2419,11 @@
       <c r="D67">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -2328,8 +2436,11 @@
       <c r="D68">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -2339,8 +2450,11 @@
       <c r="C69" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -2353,8 +2467,11 @@
       <c r="D70">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -2367,8 +2484,11 @@
       <c r="D71">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -2379,7 +2499,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -2392,8 +2512,11 @@
       <c r="D73">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -2407,7 +2530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -2420,8 +2543,11 @@
       <c r="D75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -2435,7 +2561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -2446,7 +2572,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -2456,8 +2582,11 @@
       <c r="C78" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -2470,8 +2599,11 @@
       <c r="D79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -2482,7 +2614,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2496,7 +2628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -2509,8 +2641,11 @@
       <c r="D82">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -2523,8 +2658,11 @@
       <c r="D83">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -2535,7 +2673,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -2549,7 +2687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -2562,8 +2700,11 @@
       <c r="D86">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -2574,7 +2715,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -2585,7 +2726,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -2595,8 +2736,11 @@
       <c r="C89" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -2610,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -2621,7 +2765,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -2632,7 +2776,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -2645,8 +2789,11 @@
       <c r="D93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -2660,7 +2807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -2673,8 +2820,11 @@
       <c r="D95">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -2684,8 +2834,11 @@
       <c r="C96" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -2698,8 +2851,11 @@
       <c r="D97">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -2709,8 +2865,11 @@
       <c r="C98" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>293</v>
       </c>
@@ -2721,7 +2880,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -2732,7 +2891,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -2746,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -2757,7 +2916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -2771,7 +2930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -2785,7 +2944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -2795,8 +2954,11 @@
       <c r="C105" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -2810,7 +2972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -2821,7 +2983,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -2834,8 +2996,11 @@
       <c r="D108">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -2845,8 +3010,11 @@
       <c r="C109" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -2859,8 +3027,11 @@
       <c r="D110">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>329</v>
       </c>
@@ -2871,7 +3042,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -2884,8 +3055,11 @@
       <c r="D112">
         <v>90</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -2898,8 +3072,11 @@
       <c r="D113">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>338</v>
       </c>
@@ -2910,7 +3087,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>341</v>
       </c>
@@ -2921,7 +3098,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>344</v>
       </c>
@@ -2932,7 +3109,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -2945,8 +3122,11 @@
       <c r="D117">
         <v>75</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>350</v>
       </c>
@@ -2958,6 +3138,9 @@
       </c>
       <c r="D118">
         <v>100</v>
+      </c>
+      <c r="E118">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E295F5-45E0-6249-9748-875952E8881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE036A0-EC31-BB46-A81C-1C3DE969FA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,8 +1461,8 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2510,7 +2510,7 @@
         <v>217</v>
       </c>
       <c r="D73">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>70</v>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE036A0-EC31-BB46-A81C-1C3DE969FA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D362454-609F-7044-B20B-EAB1AC4DF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1461,8 +1461,8 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1515,6 +1515,9 @@
       <c r="D2">
         <v>70</v>
       </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1526,6 +1529,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1551,6 +1557,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1590,6 +1599,9 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1601,6 +1613,9 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
+      <c r="E9">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1632,6 +1647,9 @@
       <c r="D11">
         <v>100</v>
       </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1660,6 +1678,9 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1691,6 +1712,9 @@
       <c r="D15">
         <v>90</v>
       </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1773,6 +1797,9 @@
       <c r="D20">
         <v>90</v>
       </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1784,6 +1811,9 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1817,6 +1847,9 @@
       <c r="C24" t="s">
         <v>71</v>
       </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1882,6 +1915,9 @@
       <c r="D28">
         <v>100</v>
       </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1918,6 +1954,9 @@
       <c r="D31">
         <v>70</v>
       </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1963,6 +2002,9 @@
       <c r="C34" t="s">
         <v>100</v>
       </c>
+      <c r="E34">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1977,6 +2019,9 @@
       <c r="D35">
         <v>90</v>
       </c>
+      <c r="E35">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -2022,6 +2067,9 @@
       <c r="C38" t="s">
         <v>112</v>
       </c>
+      <c r="E38">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2036,6 +2084,9 @@
       <c r="D39">
         <v>30</v>
       </c>
+      <c r="E39">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2064,6 +2115,9 @@
       <c r="C41" t="s">
         <v>121</v>
       </c>
+      <c r="E41">
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2078,6 +2132,9 @@
       <c r="D42">
         <v>80</v>
       </c>
+      <c r="E42">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2089,6 +2146,9 @@
       <c r="C43" t="s">
         <v>127</v>
       </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -2120,6 +2180,9 @@
       <c r="D45">
         <v>80</v>
       </c>
+      <c r="E45">
+        <v>95</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2134,6 +2197,9 @@
       <c r="D46">
         <v>85</v>
       </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2162,6 +2228,9 @@
       <c r="C48" t="s">
         <v>142</v>
       </c>
+      <c r="E48">
+        <v>95</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -2173,6 +2242,9 @@
       <c r="C49" t="s">
         <v>145</v>
       </c>
+      <c r="E49">
+        <v>95</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -2204,6 +2276,9 @@
       <c r="D51">
         <v>85</v>
       </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2215,6 +2290,9 @@
       <c r="C52" t="s">
         <v>154</v>
       </c>
+      <c r="E52">
+        <v>85</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2226,6 +2304,9 @@
       <c r="C53" t="s">
         <v>157</v>
       </c>
+      <c r="E53">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2240,6 +2321,9 @@
       <c r="D54">
         <v>80</v>
       </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2313,6 +2397,9 @@
       <c r="D59">
         <v>100</v>
       </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2327,6 +2414,9 @@
       <c r="D60">
         <v>100</v>
       </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -2338,6 +2428,9 @@
       <c r="C61" t="s">
         <v>181</v>
       </c>
+      <c r="E61">
+        <v>35</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -2380,6 +2473,9 @@
       <c r="C64" t="s">
         <v>190</v>
       </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -2391,6 +2487,9 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
+      <c r="E65">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2405,6 +2504,9 @@
       <c r="D66">
         <v>90</v>
       </c>
+      <c r="E66">
+        <v>85</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -2498,6 +2600,9 @@
       <c r="C72" t="s">
         <v>214</v>
       </c>
+      <c r="E72">
+        <v>90</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2529,6 +2634,9 @@
       <c r="D74">
         <v>80</v>
       </c>
+      <c r="E74">
+        <v>95</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -2560,6 +2668,9 @@
       <c r="D76">
         <v>70</v>
       </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -2613,6 +2724,9 @@
       <c r="C80" t="s">
         <v>238</v>
       </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -2627,6 +2741,9 @@
       <c r="D81">
         <v>100</v>
       </c>
+      <c r="E81">
+        <v>70</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -2686,6 +2803,9 @@
       <c r="D85">
         <v>70</v>
       </c>
+      <c r="E85">
+        <v>95</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -2714,6 +2834,9 @@
       <c r="C87" t="s">
         <v>259</v>
       </c>
+      <c r="E87">
+        <v>55</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -2725,6 +2848,9 @@
       <c r="C88" t="s">
         <v>262</v>
       </c>
+      <c r="E88">
+        <v>60</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -2753,6 +2879,9 @@
       <c r="D90">
         <v>30</v>
       </c>
+      <c r="E90">
+        <v>75</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -2764,6 +2893,9 @@
       <c r="C91" t="s">
         <v>271</v>
       </c>
+      <c r="E91">
+        <v>55</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -2775,6 +2907,9 @@
       <c r="C92" t="s">
         <v>274</v>
       </c>
+      <c r="E92">
+        <v>35</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -2806,6 +2941,9 @@
       <c r="D94">
         <v>100</v>
       </c>
+      <c r="E94">
+        <v>90</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -2890,6 +3028,9 @@
       <c r="C100" t="s">
         <v>298</v>
       </c>
+      <c r="E100">
+        <v>95</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -2904,6 +3045,9 @@
       <c r="D101">
         <v>30</v>
       </c>
+      <c r="E101">
+        <v>85</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -2915,6 +3059,9 @@
       <c r="C102" t="s">
         <v>304</v>
       </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -2929,6 +3076,9 @@
       <c r="D103">
         <v>30</v>
       </c>
+      <c r="E103">
+        <v>85</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -2943,6 +3093,9 @@
       <c r="D104">
         <v>100</v>
       </c>
+      <c r="E104">
+        <v>75</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -2971,6 +3124,9 @@
       <c r="D106">
         <v>50</v>
       </c>
+      <c r="E106">
+        <v>70</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -2982,6 +3138,9 @@
       <c r="C107" t="s">
         <v>319</v>
       </c>
+      <c r="E107">
+        <v>85</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -3041,6 +3200,9 @@
       <c r="C111" t="s">
         <v>331</v>
       </c>
+      <c r="E111">
+        <v>60</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -3086,6 +3248,9 @@
       <c r="C114" t="s">
         <v>340</v>
       </c>
+      <c r="E114">
+        <v>45</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -3097,6 +3262,9 @@
       <c r="C115" t="s">
         <v>343</v>
       </c>
+      <c r="E115">
+        <v>70</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -3107,6 +3275,9 @@
       </c>
       <c r="C116" t="s">
         <v>346</v>
+      </c>
+      <c r="E116">
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D362454-609F-7044-B20B-EAB1AC4DF8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C65EA-EAE2-C142-BA7A-F440473899A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="359">
   <si>
     <t>Ad</t>
   </si>
@@ -1094,6 +1107,9 @@
   </si>
   <si>
     <t>Final (% 30 )</t>
+  </si>
+  <si>
+    <t>RESULT</t>
   </si>
 </sst>
 </file>
@@ -1458,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1492,7 @@
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,8 +1517,11 @@
       <c r="H1" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1537,15 @@
       <c r="E2">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>95</v>
+      </c>
+      <c r="I2">
+        <f>D2*0.1+E2*0.2+F2*0.1+G2*0.3+H20*0.3</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1532,8 +1558,15 @@
       <c r="E3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">D3*0.1+E3*0.2+F3*0.1+G3*0.3+H21*0.3</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1546,8 +1579,12 @@
       <c r="E4">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1560,8 +1597,15 @@
       <c r="E5">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1577,8 +1621,12 @@
       <c r="E6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1588,8 +1636,12 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1602,8 +1654,12 @@
       <c r="E8">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1672,12 @@
       <c r="E9">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1633,8 +1693,12 @@
       <c r="E10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1650,8 +1714,12 @@
       <c r="E11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1667,8 +1735,12 @@
       <c r="E12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1681,8 +1753,12 @@
       <c r="E13">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1698,8 +1774,12 @@
       <c r="E14">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1715,8 +1795,12 @@
       <c r="E15">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1732,8 +1816,12 @@
       <c r="E16">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1749,8 +1837,15 @@
       <c r="E17">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1766,8 +1861,15 @@
       <c r="E18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1783,8 +1885,12 @@
       <c r="E19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1800,8 +1906,15 @@
       <c r="E20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1814,8 +1927,12 @@
       <c r="E21">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1825,8 +1942,12 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1836,8 +1957,12 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1850,8 +1975,12 @@
       <c r="E24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1867,8 +1996,15 @@
       <c r="E25">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1884,8 +2020,12 @@
       <c r="E26">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1901,8 +2041,12 @@
       <c r="E27">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1918,8 +2062,12 @@
       <c r="E28">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1929,8 +2077,12 @@
       <c r="C29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1940,8 +2092,12 @@
       <c r="C30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1957,8 +2113,12 @@
       <c r="E31">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1974,8 +2134,12 @@
       <c r="E32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1991,8 +2155,15 @@
       <c r="E33">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -2005,8 +2176,12 @@
       <c r="E34">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -2022,8 +2197,12 @@
       <c r="E35">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2039,8 +2218,12 @@
       <c r="E36">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2056,8 +2239,15 @@
       <c r="E37">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2070,8 +2260,12 @@
       <c r="E38">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2087,8 +2281,12 @@
       <c r="E39">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2104,8 +2302,15 @@
       <c r="E40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2118,8 +2323,12 @@
       <c r="E41">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -2135,8 +2344,12 @@
       <c r="E42">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2149,8 +2362,12 @@
       <c r="E43">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -2166,8 +2383,12 @@
       <c r="E44">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2183,8 +2404,12 @@
       <c r="E45">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -2200,8 +2425,12 @@
       <c r="E46">
         <v>80</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -2217,8 +2446,12 @@
       <c r="E47">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -2231,8 +2464,12 @@
       <c r="E48">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2245,8 +2482,12 @@
       <c r="E49">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -2262,8 +2503,15 @@
       <c r="E50">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>90</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2279,8 +2527,15 @@
       <c r="E51">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>80</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -2293,8 +2548,12 @@
       <c r="E52">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -2307,8 +2566,12 @@
       <c r="E53">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -2324,8 +2587,12 @@
       <c r="E54">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2338,8 +2605,15 @@
       <c r="E55">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>55</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2355,8 +2629,15 @@
       <c r="E56">
         <v>75</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2372,8 +2653,12 @@
       <c r="E57">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2383,8 +2668,12 @@
       <c r="C58" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2400,8 +2689,12 @@
       <c r="E59">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2417,8 +2710,12 @@
       <c r="E60">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2431,8 +2728,12 @@
       <c r="E61">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2445,8 +2746,15 @@
       <c r="E62">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2462,8 +2770,15 @@
       <c r="E63">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>95</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2476,8 +2791,12 @@
       <c r="E64">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2490,8 +2809,12 @@
       <c r="E65">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2507,8 +2830,12 @@
       <c r="E66">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2524,8 +2851,15 @@
       <c r="E67">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>90</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I118" si="1">D67*0.1+E67*0.2+F67*0.1+G67*0.3+H85*0.3</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -2541,8 +2875,12 @@
       <c r="E68">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -2555,8 +2893,12 @@
       <c r="E69">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -2572,8 +2914,15 @@
       <c r="E70">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -2589,8 +2938,12 @@
       <c r="E71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -2603,8 +2956,12 @@
       <c r="E72">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -2620,8 +2977,12 @@
       <c r="E73">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -2637,8 +2998,12 @@
       <c r="E74">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -2654,8 +3019,12 @@
       <c r="E75">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -2671,8 +3040,12 @@
       <c r="E76">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -2682,8 +3055,12 @@
       <c r="C77" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -2696,8 +3073,12 @@
       <c r="E78">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -2713,8 +3094,15 @@
       <c r="E79">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -2727,8 +3115,12 @@
       <c r="E80">
         <v>40</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2744,8 +3136,12 @@
       <c r="E81">
         <v>70</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -2761,8 +3157,12 @@
       <c r="E82">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -2778,8 +3178,12 @@
       <c r="E83">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -2789,8 +3193,12 @@
       <c r="C84" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -2806,8 +3214,12 @@
       <c r="E85">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -2823,8 +3235,15 @@
       <c r="E86">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -2837,8 +3256,12 @@
       <c r="E87">
         <v>55</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -2851,8 +3274,12 @@
       <c r="E88">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -2865,8 +3292,15 @@
       <c r="E89">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>95</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -2882,8 +3316,12 @@
       <c r="E90">
         <v>75</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -2896,8 +3334,12 @@
       <c r="E91">
         <v>55</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -2910,8 +3352,12 @@
       <c r="E92">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -2927,8 +3373,12 @@
       <c r="E93">
         <v>65</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -2944,8 +3394,15 @@
       <c r="E94">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>90</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -2961,8 +3418,15 @@
       <c r="E95">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -2975,8 +3439,12 @@
       <c r="E96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -2992,8 +3460,12 @@
       <c r="E97">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -3006,8 +3478,12 @@
       <c r="E98">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>293</v>
       </c>
@@ -3017,8 +3493,12 @@
       <c r="C99" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -3031,8 +3511,12 @@
       <c r="E100">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3048,8 +3532,12 @@
       <c r="E101">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -3062,8 +3550,12 @@
       <c r="E102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -3079,8 +3571,15 @@
       <c r="E103">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>85</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -3096,8 +3595,12 @@
       <c r="E104">
         <v>75</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -3110,8 +3613,12 @@
       <c r="E105">
         <v>65</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -3127,8 +3634,15 @@
       <c r="E106">
         <v>70</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -3141,8 +3655,12 @@
       <c r="E107">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -3158,8 +3676,15 @@
       <c r="E108">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -3172,8 +3697,12 @@
       <c r="E109">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -3189,8 +3718,12 @@
       <c r="E110">
         <v>75</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>329</v>
       </c>
@@ -3203,8 +3736,12 @@
       <c r="E111">
         <v>60</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -3220,8 +3757,12 @@
       <c r="E112">
         <v>70</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -3237,8 +3778,12 @@
       <c r="E113">
         <v>80</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>338</v>
       </c>
@@ -3251,8 +3796,12 @@
       <c r="E114">
         <v>45</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>341</v>
       </c>
@@ -3265,8 +3814,12 @@
       <c r="E115">
         <v>70</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>344</v>
       </c>
@@ -3279,8 +3832,12 @@
       <c r="E116">
         <v>90</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -3296,8 +3853,12 @@
       <c r="E117">
         <v>70</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>350</v>
       </c>
@@ -3312,6 +3873,13 @@
       </c>
       <c r="E118">
         <v>95</v>
+      </c>
+      <c r="F118">
+        <v>90</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C65EA-EAE2-C142-BA7A-F440473899A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8BC03-8F82-184B-8A27-88568A2C5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,9 +995,6 @@
     <t>erkmen197@gmail.com</t>
   </si>
   <si>
-    <t>şevval nur özmen</t>
-  </si>
-  <si>
     <t>bsm_snozmen</t>
   </si>
   <si>
@@ -1110,6 +1107,9 @@
   </si>
   <si>
     <t>RESULT</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1476,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1503,22 +1503,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,9 +1621,12 @@
       <c r="E6">
         <v>90</v>
       </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1693,9 +1696,12 @@
       <c r="E10">
         <v>90</v>
       </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1714,9 +1720,12 @@
       <c r="E11">
         <v>90</v>
       </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1735,9 +1744,12 @@
       <c r="E12">
         <v>80</v>
       </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1774,9 +1786,12 @@
       <c r="E14">
         <v>85</v>
       </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1816,9 +1831,12 @@
       <c r="E16">
         <v>65</v>
       </c>
+      <c r="F16">
+        <v>95</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,9 +1903,12 @@
       <c r="E19">
         <v>60</v>
       </c>
+      <c r="F19">
+        <v>95</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,9 +1996,12 @@
       <c r="E24">
         <v>75</v>
       </c>
+      <c r="F24">
+        <v>80</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,9 +2044,12 @@
       <c r="E26">
         <v>70</v>
       </c>
+      <c r="F26">
+        <v>85</v>
+      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2041,9 +2068,12 @@
       <c r="E27">
         <v>75</v>
       </c>
+      <c r="F27">
+        <v>95</v>
+      </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2062,9 +2092,12 @@
       <c r="E28">
         <v>60</v>
       </c>
+      <c r="F28">
+        <v>85</v>
+      </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2113,9 +2146,12 @@
       <c r="E31">
         <v>70</v>
       </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2134,9 +2170,12 @@
       <c r="E32">
         <v>65</v>
       </c>
+      <c r="F32">
+        <v>95</v>
+      </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2176,9 +2215,12 @@
       <c r="E34">
         <v>75</v>
       </c>
+      <c r="F34">
+        <v>80</v>
+      </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2197,9 +2239,12 @@
       <c r="E35">
         <v>85</v>
       </c>
+      <c r="F35">
+        <v>85</v>
+      </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2218,9 +2263,12 @@
       <c r="E36">
         <v>70</v>
       </c>
+      <c r="F36">
+        <v>80</v>
+      </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2281,9 +2329,12 @@
       <c r="E39">
         <v>85</v>
       </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2344,9 +2395,12 @@
       <c r="E42">
         <v>85</v>
       </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2383,9 +2437,12 @@
       <c r="E44">
         <v>90</v>
       </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2404,9 +2461,12 @@
       <c r="E45">
         <v>95</v>
       </c>
+      <c r="F45">
+        <v>85</v>
+      </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2425,9 +2485,12 @@
       <c r="E46">
         <v>80</v>
       </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2446,9 +2509,12 @@
       <c r="E47">
         <v>75</v>
       </c>
+      <c r="F47">
+        <v>95</v>
+      </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2548,9 +2614,12 @@
       <c r="E52">
         <v>85</v>
       </c>
+      <c r="F52">
+        <v>85</v>
+      </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2653,9 +2722,12 @@
       <c r="E57">
         <v>75</v>
       </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2689,9 +2761,12 @@
       <c r="E59">
         <v>90</v>
       </c>
+      <c r="F59">
+        <v>85</v>
+      </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2791,9 +2866,12 @@
       <c r="E64">
         <v>80</v>
       </c>
+      <c r="F64">
+        <v>85</v>
+      </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2875,9 +2953,12 @@
       <c r="E68">
         <v>65</v>
       </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,9 +2974,12 @@
       <c r="E69">
         <v>60</v>
       </c>
+      <c r="F69">
+        <v>95</v>
+      </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2938,9 +3022,12 @@
       <c r="E71">
         <v>70</v>
       </c>
+      <c r="F71">
+        <v>90</v>
+      </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2956,9 +3043,12 @@
       <c r="E72">
         <v>90</v>
       </c>
+      <c r="F72">
+        <v>85</v>
+      </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2977,9 +3067,12 @@
       <c r="E73">
         <v>70</v>
       </c>
+      <c r="F73">
+        <v>95</v>
+      </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2998,9 +3091,12 @@
       <c r="E74">
         <v>95</v>
       </c>
+      <c r="F74">
+        <v>80</v>
+      </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,9 +3115,12 @@
       <c r="E75">
         <v>80</v>
       </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
       <c r="I75">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3040,9 +3139,12 @@
       <c r="E76">
         <v>80</v>
       </c>
+      <c r="F76">
+        <v>90</v>
+      </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3136,9 +3238,12 @@
       <c r="E81">
         <v>70</v>
       </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,9 +3262,12 @@
       <c r="E82">
         <v>65</v>
       </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
       <c r="I82">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3178,9 +3286,12 @@
       <c r="E83">
         <v>75</v>
       </c>
+      <c r="F83">
+        <v>95</v>
+      </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>23.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3316,9 +3427,12 @@
       <c r="E90">
         <v>75</v>
       </c>
+      <c r="F90">
+        <v>75</v>
+      </c>
       <c r="I90">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3334,9 +3448,12 @@
       <c r="E91">
         <v>55</v>
       </c>
+      <c r="F91">
+        <v>85</v>
+      </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3373,9 +3490,12 @@
       <c r="E93">
         <v>65</v>
       </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
       <c r="I93">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3460,9 +3580,12 @@
       <c r="E97">
         <v>75</v>
       </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3478,9 +3601,12 @@
       <c r="E98">
         <v>60</v>
       </c>
+      <c r="F98">
+        <v>85</v>
+      </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3595,9 +3721,12 @@
       <c r="E104">
         <v>75</v>
       </c>
+      <c r="F104">
+        <v>85</v>
+      </c>
       <c r="I104">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3655,20 +3784,23 @@
       <c r="E107">
         <v>85</v>
       </c>
+      <c r="F107">
+        <v>75</v>
+      </c>
       <c r="I107">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" t="s">
         <v>320</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>321</v>
-      </c>
-      <c r="C108" t="s">
-        <v>322</v>
       </c>
       <c r="D108">
         <v>100</v>
@@ -3686,31 +3818,34 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
         <v>323</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>324</v>
-      </c>
-      <c r="C109" t="s">
-        <v>325</v>
       </c>
       <c r="E109">
         <v>70</v>
       </c>
+      <c r="F109">
+        <v>95</v>
+      </c>
       <c r="I109">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" t="s">
         <v>326</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>327</v>
-      </c>
-      <c r="C110" t="s">
-        <v>328</v>
       </c>
       <c r="D110">
         <v>90</v>
@@ -3718,38 +3853,44 @@
       <c r="E110">
         <v>75</v>
       </c>
+      <c r="F110">
+        <v>85</v>
+      </c>
       <c r="I110">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" t="s">
         <v>329</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>330</v>
-      </c>
-      <c r="C111" t="s">
-        <v>331</v>
       </c>
       <c r="E111">
         <v>60</v>
       </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
       <c r="I111">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" t="s">
         <v>332</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>333</v>
-      </c>
-      <c r="C112" t="s">
-        <v>334</v>
       </c>
       <c r="D112">
         <v>90</v>
@@ -3757,20 +3898,23 @@
       <c r="E112">
         <v>70</v>
       </c>
+      <c r="F112">
+        <v>85</v>
+      </c>
       <c r="I112">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" t="s">
         <v>335</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>336</v>
-      </c>
-      <c r="C113" t="s">
-        <v>337</v>
       </c>
       <c r="D113">
         <v>100</v>
@@ -3785,13 +3929,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" t="s">
         <v>338</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>339</v>
-      </c>
-      <c r="C114" t="s">
-        <v>340</v>
       </c>
       <c r="E114">
         <v>45</v>
@@ -3803,31 +3947,34 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" t="s">
         <v>341</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>342</v>
-      </c>
-      <c r="C115" t="s">
-        <v>343</v>
       </c>
       <c r="E115">
         <v>70</v>
       </c>
+      <c r="F115">
+        <v>80</v>
+      </c>
       <c r="I115">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" t="s">
         <v>344</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>345</v>
-      </c>
-      <c r="C116" t="s">
-        <v>346</v>
       </c>
       <c r="E116">
         <v>90</v>
@@ -3839,13 +3986,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" t="s">
         <v>347</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>348</v>
-      </c>
-      <c r="C117" t="s">
-        <v>349</v>
       </c>
       <c r="D117">
         <v>75</v>
@@ -3853,20 +4000,23 @@
       <c r="E117">
         <v>70</v>
       </c>
+      <c r="F117">
+        <v>90</v>
+      </c>
       <c r="I117">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" t="s">
         <v>350</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>351</v>
-      </c>
-      <c r="C118" t="s">
-        <v>352</v>
       </c>
       <c r="D118">
         <v>100</v>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA8BC03-8F82-184B-8A27-88568A2C5B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A251342-0F14-B94F-B4AB-E2BD147BB20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1476,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2908,9 +2908,12 @@
       <c r="E66">
         <v>85</v>
       </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A251342-0F14-B94F-B4AB-E2BD147BB20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AD5AC-5667-FB48-AA60-D317CB0C9FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="360">
   <si>
     <t>Ad</t>
   </si>
@@ -1109,7 +1109,10 @@
     <t>RESULT</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Total Vize</t>
+  </si>
+  <si>
+    <t>şevval özmen</t>
   </si>
 </sst>
 </file>
@@ -1474,11 +1477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K70" sqref="K70"/>
+      <selection pane="topRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1490,9 +1493,10 @@
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1524,11 @@
       <c r="I1" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1544,8 +1551,12 @@
         <f>D2*0.1+E2*0.2+F2*0.1+G2*0.3+H20*0.3</f>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <f>(I2/40)*100</f>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1565,8 +1576,12 @@
         <f t="shared" ref="I3:I66" si="0">D3*0.1+E3*0.2+F3*0.1+G3*0.3+H21*0.3</f>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">(I3/40)*100</f>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1583,8 +1598,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1604,8 +1623,12 @@
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>61.250000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1628,8 +1651,12 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1643,8 +1670,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1661,8 +1692,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1714,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1703,8 +1742,12 @@
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1727,8 +1770,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1751,8 +1798,12 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1769,8 +1820,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1793,8 +1848,12 @@
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1814,8 +1873,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1838,8 +1901,12 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1862,8 +1929,12 @@
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1886,8 +1957,12 @@
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1910,8 +1985,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1934,8 +2013,12 @@
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1952,8 +2035,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1967,8 +2054,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1982,8 +2073,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2003,8 +2098,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -2027,8 +2126,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2051,8 +2154,12 @@
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2075,8 +2182,12 @@
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2099,8 +2210,12 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2114,8 +2229,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2129,8 +2248,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -2153,8 +2276,12 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2177,8 +2304,12 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2201,8 +2332,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -2222,8 +2357,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -2246,8 +2385,12 @@
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -2270,8 +2413,12 @@
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2294,8 +2441,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2312,8 +2463,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -2336,8 +2491,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -2360,8 +2519,12 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2378,8 +2541,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -2402,8 +2569,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2420,8 +2591,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -2444,8 +2619,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -2468,8 +2647,12 @@
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -2492,8 +2675,12 @@
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -2516,8 +2703,12 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -2534,8 +2725,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2552,8 +2747,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -2576,8 +2775,12 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2600,8 +2803,12 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -2621,8 +2828,12 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>63.749999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -2639,8 +2850,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -2660,8 +2875,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2681,8 +2900,12 @@
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2705,8 +2928,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2729,8 +2956,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2744,8 +2975,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2768,8 +3003,12 @@
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2789,8 +3028,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>57.499999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2807,8 +3050,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2828,8 +3075,12 @@
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2852,8 +3103,12 @@
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2873,8 +3128,12 @@
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>61.250000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2891,8 +3150,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2915,8 +3178,12 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2936,11 +3203,15 @@
         <v>90</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I118" si="1">D67*0.1+E67*0.2+F67*0.1+G67*0.3+H85*0.3</f>
+        <f t="shared" ref="I67:I118" si="2">D67*0.1+E67*0.2+F67*0.1+G67*0.3+H85*0.3</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <f t="shared" ref="K67:K127" si="3">(I67/40)*100</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -2960,11 +3231,15 @@
         <v>90</v>
       </c>
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -2981,11 +3256,15 @@
         <v>95</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -3005,11 +3284,15 @@
         <v>100</v>
       </c>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -3029,11 +3312,15 @@
         <v>90</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -3050,11 +3337,15 @@
         <v>85</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3074,11 +3365,15 @@
         <v>95</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -3098,11 +3393,15 @@
         <v>80</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -3122,11 +3421,15 @@
         <v>100</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -3146,11 +3449,15 @@
         <v>90</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -3161,11 +3468,15 @@
         <v>229</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -3179,11 +3490,15 @@
         <v>60</v>
       </c>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -3203,11 +3518,15 @@
         <v>100</v>
       </c>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -3221,11 +3540,15 @@
         <v>40</v>
       </c>
       <c r="I80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -3245,11 +3568,15 @@
         <v>80</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -3269,11 +3596,15 @@
         <v>100</v>
       </c>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -3293,11 +3624,15 @@
         <v>95</v>
       </c>
       <c r="I83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -3308,11 +3643,15 @@
         <v>250</v>
       </c>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -3329,11 +3668,15 @@
         <v>95</v>
       </c>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -3353,11 +3696,15 @@
         <v>85</v>
       </c>
       <c r="I86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>257</v>
       </c>
@@ -3371,11 +3718,15 @@
         <v>55</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <f t="shared" si="3"/>
+        <v>27.500000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -3389,11 +3740,15 @@
         <v>60</v>
       </c>
       <c r="I88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>263</v>
       </c>
@@ -3410,11 +3765,15 @@
         <v>95</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <f t="shared" si="3"/>
+        <v>63.749999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -3434,11 +3793,15 @@
         <v>75</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <f t="shared" si="3"/>
+        <v>63.749999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -3455,11 +3818,15 @@
         <v>85</v>
       </c>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <f t="shared" si="3"/>
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>272</v>
       </c>
@@ -3473,11 +3840,15 @@
         <v>35</v>
       </c>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -3497,11 +3868,15 @@
         <v>90</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>278</v>
       </c>
@@ -3521,11 +3896,15 @@
         <v>90</v>
       </c>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>281</v>
       </c>
@@ -3545,11 +3924,15 @@
         <v>100</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -3563,11 +3946,15 @@
         <v>50</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>287</v>
       </c>
@@ -3587,11 +3974,15 @@
         <v>100</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>290</v>
       </c>
@@ -3608,11 +3999,15 @@
         <v>85</v>
       </c>
       <c r="I98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <f t="shared" si="3"/>
+        <v>51.249999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>293</v>
       </c>
@@ -3623,11 +4018,15 @@
         <v>295</v>
       </c>
       <c r="I99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -3641,11 +4040,15 @@
         <v>95</v>
       </c>
       <c r="I100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3662,11 +4065,15 @@
         <v>85</v>
       </c>
       <c r="I101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -3680,11 +4087,15 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -3704,11 +4115,15 @@
         <v>85</v>
       </c>
       <c r="I103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <f t="shared" si="3"/>
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -3728,11 +4143,15 @@
         <v>85</v>
       </c>
       <c r="I104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <f t="shared" si="3"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -3746,11 +4165,15 @@
         <v>65</v>
       </c>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <f t="shared" si="3"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -3770,11 +4193,15 @@
         <v>85</v>
       </c>
       <c r="I106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <f t="shared" si="3"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -3791,13 +4218,17 @@
         <v>75</v>
       </c>
       <c r="I107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <f t="shared" si="3"/>
+        <v>61.250000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B108" t="s">
         <v>320</v>
@@ -3815,11 +4246,15 @@
         <v>100</v>
       </c>
       <c r="I108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -3836,11 +4271,15 @@
         <v>95</v>
       </c>
       <c r="I109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <f t="shared" si="3"/>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -3860,11 +4299,15 @@
         <v>85</v>
       </c>
       <c r="I110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>328</v>
       </c>
@@ -3881,11 +4324,15 @@
         <v>100</v>
       </c>
       <c r="I111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <f t="shared" si="3"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>331</v>
       </c>
@@ -3905,11 +4352,15 @@
         <v>85</v>
       </c>
       <c r="I112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <f t="shared" si="3"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>334</v>
       </c>
@@ -3925,12 +4376,19 @@
       <c r="E113">
         <v>80</v>
       </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
       <c r="I113">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>337</v>
       </c>
@@ -3944,11 +4402,15 @@
         <v>45</v>
       </c>
       <c r="I114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>340</v>
       </c>
@@ -3965,11 +4427,15 @@
         <v>80</v>
       </c>
       <c r="I115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <f t="shared" si="3"/>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>343</v>
       </c>
@@ -3983,11 +4449,15 @@
         <v>90</v>
       </c>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>346</v>
       </c>
@@ -4007,11 +4477,15 @@
         <v>90</v>
       </c>
       <c r="I117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <f t="shared" si="3"/>
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>349</v>
       </c>
@@ -4031,8 +4505,12 @@
         <v>90</v>
       </c>
       <c r="I118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AD5AC-5667-FB48-AA60-D317CB0C9FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6BA8F-7027-4E42-B3ED-4B09E136277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14140" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1479,9 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1613,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
       <c r="E5">
         <v>75</v>
       </c>
@@ -1621,11 +1624,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>31</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>61.250000000000007</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,16 +1710,22 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
       <c r="E9">
         <v>85</v>
       </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,13 +1878,16 @@
       <c r="E15">
         <v>85</v>
       </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31.5</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,6 +2359,9 @@
       <c r="C34" t="s">
         <v>100</v>
       </c>
+      <c r="D34">
+        <v>55</v>
+      </c>
       <c r="E34">
         <v>75</v>
       </c>
@@ -2355,11 +2370,11 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28.5</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>57.499999999999993</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2740,16 +2755,22 @@
       <c r="C49" t="s">
         <v>145</v>
       </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
       <c r="E49">
         <v>95</v>
       </c>
+      <c r="F49">
+        <v>55</v>
+      </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2843,16 +2864,22 @@
       <c r="C53" t="s">
         <v>157</v>
       </c>
+      <c r="D53">
+        <v>55</v>
+      </c>
       <c r="E53">
         <v>65</v>
       </c>
+      <c r="F53">
+        <v>55</v>
+      </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>32.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2871,13 +2898,16 @@
       <c r="E54">
         <v>70</v>
       </c>
+      <c r="F54">
+        <v>60</v>
+      </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>55.000000000000007</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3024,13 +3054,16 @@
       <c r="E60">
         <v>65</v>
       </c>
+      <c r="F60">
+        <v>55</v>
+      </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28.5</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>57.499999999999993</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3118,6 +3151,9 @@
       <c r="C64" t="s">
         <v>190</v>
       </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
       <c r="E64">
         <v>80</v>
       </c>
@@ -3207,7 +3243,7 @@
         <v>33</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K127" si="3">(I67/40)*100</f>
+        <f t="shared" ref="K67:K118" si="3">(I67/40)*100</f>
         <v>82.5</v>
       </c>
     </row>
@@ -4036,16 +4072,22 @@
       <c r="C100" t="s">
         <v>298</v>
       </c>
+      <c r="D100">
+        <v>55</v>
+      </c>
       <c r="E100">
         <v>95</v>
       </c>
+      <c r="F100">
+        <v>55</v>
+      </c>
       <c r="I100">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K100">
         <f t="shared" si="3"/>
-        <v>47.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
@@ -4064,13 +4106,16 @@
       <c r="E101">
         <v>85</v>
       </c>
+      <c r="F101">
+        <v>55</v>
+      </c>
       <c r="I101">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25.5</v>
       </c>
       <c r="K101">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>63.749999999999993</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6BA8F-7027-4E42-B3ED-4B09E136277C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5D632-B460-5147-AE8C-39BDC54CD268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4460" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1479,9 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1566,6 +1566,9 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
       <c r="E3">
         <v>70</v>
       </c>
@@ -1574,11 +1577,11 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">D3*0.1+E3*0.2+F3*0.1+G3*0.3+H21*0.3</f>
-        <v>23.5</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" si="1">(I3/40)*100</f>
-        <v>58.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,16 +1825,22 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
       <c r="E13">
         <v>85</v>
       </c>
+      <c r="F13">
+        <v>55</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,16 +2049,22 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
       <c r="E21">
         <v>80</v>
       </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26.5</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2474,13 +2489,16 @@
       <c r="E38">
         <v>95</v>
       </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2733,16 +2751,22 @@
       <c r="C48" t="s">
         <v>142</v>
       </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
       <c r="E48">
         <v>95</v>
       </c>
+      <c r="F48">
+        <v>60</v>
+      </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3179,16 +3203,22 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
+      <c r="D65">
+        <v>50</v>
+      </c>
       <c r="E65">
         <v>80</v>
       </c>
+      <c r="F65">
+        <v>55</v>
+      </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26.5</v>
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3703,13 +3733,16 @@
       <c r="E85">
         <v>95</v>
       </c>
+      <c r="F85">
+        <v>70</v>
+      </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K85">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3750,16 +3783,22 @@
       <c r="C87" t="s">
         <v>259</v>
       </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
       <c r="E87">
         <v>55</v>
       </c>
+      <c r="F87">
+        <v>45</v>
+      </c>
       <c r="I87">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="K87">
         <f t="shared" si="3"/>
-        <v>27.500000000000004</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3794,6 +3833,9 @@
       <c r="C89" t="s">
         <v>265</v>
       </c>
+      <c r="D89">
+        <v>50</v>
+      </c>
       <c r="E89">
         <v>80</v>
       </c>
@@ -3802,11 +3844,11 @@
       </c>
       <c r="I89">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
       <c r="K89">
         <f t="shared" si="3"/>
-        <v>63.749999999999993</v>
+        <v>76.25</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4309,6 +4351,9 @@
       <c r="C109" t="s">
         <v>324</v>
       </c>
+      <c r="D109">
+        <v>60</v>
+      </c>
       <c r="E109">
         <v>70</v>
       </c>
@@ -4317,11 +4362,11 @@
       </c>
       <c r="I109">
         <f t="shared" si="2"/>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="K109">
         <f t="shared" si="3"/>
-        <v>58.75</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5D632-B460-5147-AE8C-39BDC54CD268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B59A98-5A9E-6743-87B2-93D55B67B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1479,9 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3100,16 +3100,22 @@
       <c r="C61" t="s">
         <v>181</v>
       </c>
+      <c r="D61">
+        <v>55</v>
+      </c>
       <c r="E61">
         <v>35</v>
       </c>
+      <c r="F61">
+        <v>55</v>
+      </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3889,6 +3895,9 @@
       <c r="C91" t="s">
         <v>271</v>
       </c>
+      <c r="D91">
+        <v>55</v>
+      </c>
       <c r="E91">
         <v>55</v>
       </c>
@@ -3897,11 +3906,11 @@
       </c>
       <c r="I91">
         <f t="shared" si="2"/>
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="K91">
         <f t="shared" si="3"/>
-        <v>48.75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -4069,6 +4078,9 @@
       </c>
       <c r="C98" t="s">
         <v>292</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
       </c>
       <c r="E98">
         <v>60</v>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B59A98-5A9E-6743-87B2-93D55B67B676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEFA3BD-99F1-8343-900A-B110446770A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="12"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="384">
   <si>
     <t>Ad</t>
   </si>
@@ -287,21 +289,6 @@
     <t>makan4154@gmail.com</t>
   </si>
   <si>
-    <t>Bayram Akgül</t>
-  </si>
-  <si>
-    <t>bayramakgul</t>
-  </si>
-  <si>
-    <t>bayramakgul@bartin.edu.tr</t>
-  </si>
-  <si>
-    <t>bayramakgul1</t>
-  </si>
-  <si>
-    <t>bayramakgul@gmail.com</t>
-  </si>
-  <si>
     <t>beyzanur baği</t>
   </si>
   <si>
@@ -1103,9 +1090,6 @@
     <t>Proje (% 30 )</t>
   </si>
   <si>
-    <t>Final (% 30 )</t>
-  </si>
-  <si>
     <t>RESULT</t>
   </si>
   <si>
@@ -1113,13 +1097,103 @@
   </si>
   <si>
     <t>şevval özmen</t>
+  </si>
+  <si>
+    <t>beyzanur bağki</t>
+  </si>
+  <si>
+    <t>hüseyin zurnacı</t>
+  </si>
+  <si>
+    <t>yusref rizayev</t>
+  </si>
+  <si>
+    <t>husam abdulrahem</t>
+  </si>
+  <si>
+    <t>ali ahdal</t>
+  </si>
+  <si>
+    <t>abdurrahman surur</t>
+  </si>
+  <si>
+    <t>tubpa toyoğlu</t>
+  </si>
+  <si>
+    <t>fatma tupğçe mukul</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>şükrü göktuğ</t>
+  </si>
+  <si>
+    <t>ali yedibela</t>
+  </si>
+  <si>
+    <t>melike taşdelen</t>
+  </si>
+  <si>
+    <t>şevval nur özmen</t>
+  </si>
+  <si>
+    <t>ibrahim eren sevinç</t>
+  </si>
+  <si>
+    <t>habip kesapera</t>
+  </si>
+  <si>
+    <t>alican altundal</t>
+  </si>
+  <si>
+    <t>muhammet furkan mercan</t>
+  </si>
+  <si>
+    <t>ahmet sırrı savaş</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anas </t>
+  </si>
+  <si>
+    <t>kamuran eren</t>
+  </si>
+  <si>
+    <t>Abdulrhman surur</t>
+  </si>
+  <si>
+    <t>barış gürkan polat</t>
+  </si>
+  <si>
+    <t>dikran 70 - furkan 40</t>
+  </si>
+  <si>
+    <t>Final + Proje (% 60)</t>
+  </si>
+  <si>
+    <t>Vize Toplam Notunuzun %40</t>
+  </si>
+  <si>
+    <t>Ders Başarı Notunuz</t>
+  </si>
+  <si>
+    <t>Final Toplam Notunuzun %60</t>
+  </si>
+  <si>
+    <t>alttaki ikisi de 50 puan üstünden hesaplanır toplamı final sınavı yerine geçer</t>
+  </si>
+  <si>
+    <t>Proje : 50 üstünden</t>
+  </si>
+  <si>
+    <t>Final : 50 üstünden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,8 +1215,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9E9E9E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,6 +1259,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7A7A7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1167,10 +1292,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,6 +1346,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C32C05-B4E7-34B7-0940-69797D1B02A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="3987800" cy="951496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1477,97 +1684,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="34" style="15" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2">
-        <v>95</v>
-      </c>
-      <c r="I2">
-        <f>D2*0.1+E2*0.2+F2*0.1+G2*0.3+H20*0.3</f>
-        <v>30.5</v>
-      </c>
-      <c r="K2">
-        <f>(I2/40)*100</f>
-        <v>76.25</v>
+      <c r="H2" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>70</v>
@@ -1575,690 +1777,903 @@
       <c r="F3">
         <v>95</v>
       </c>
+      <c r="G3" s="11">
+        <f>D3*0.25+E3*0.5+F3*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">D3*0.1+E3*0.2+F3*0.1+G3*0.3+H21*0.3</f>
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">(I3/40)*100</f>
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f>H3+I3</f>
+        <v>45</v>
+      </c>
+      <c r="K3" s="4">
+        <f>(G3*0.4)+(J3*0.6)</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>65</v>
       </c>
       <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>95</v>
+      </c>
+      <c r="G4" s="11">
+        <f>D4*0.25+E4*0.5+F4*0.25</f>
         <v>75</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J67" si="0">H4+I4</f>
+        <v>45</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K67" si="1">(G4*0.4)+(J4*0.6)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
-      <c r="F5">
-        <v>95</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>77.5</v>
+      <c r="G5" s="11">
+        <f>D5*0.25+E5*0.5+F5*0.25</f>
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>95</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>93.75</v>
+      <c r="G6" s="11">
+        <f>D6*0.25+E6*0.5+F6*0.25</f>
+        <v>77.5</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7" s="11">
+        <f>D7*0.25+E7*0.5+F7*0.25</f>
+        <v>93.75</v>
+      </c>
+      <c r="H7">
+        <v>47.5</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <f>D8*0.25+E8*0.5+F8*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
         <v>70</v>
+      </c>
+      <c r="G9" s="11">
+        <f>D9*0.25+E9*0.5+F9*0.25</f>
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>22.5</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="G10" s="11">
+        <f>D10*0.25+E10*0.5+F10*0.25</f>
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>42.5</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>91.25</v>
+        <v>23</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>65.5</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>67.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>90</v>
       </c>
       <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="G11" s="11">
+        <f>D11*0.25+E11*0.5+F11*0.25</f>
+        <v>91.25</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>63.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>80</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="11">
+        <f>D12*0.25+E12*0.5+F12*0.25</f>
+        <v>95</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E13">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>55</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="11">
+        <f>D13*0.25+E13*0.5+F13*0.25</f>
+        <v>77.5</v>
+      </c>
+      <c r="H13">
+        <v>37.5</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>53.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>85</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="G14" s="11">
+        <f>D14*0.25+E14*0.5+F14*0.25</f>
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>86.25</v>
+        <v>48</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>83.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>85</v>
       </c>
       <c r="F15">
-        <v>55</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>100</v>
+      </c>
+      <c r="G15" s="11">
+        <f>D15*0.25+E15*0.5+F15*0.25</f>
+        <v>86.25</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>95</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>55</v>
+      </c>
+      <c r="G16" s="11">
+        <f>D16*0.25+E16*0.5+F16*0.25</f>
+        <v>78.75</v>
+      </c>
+      <c r="H16">
+        <v>42.5</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="F17">
         <v>95</v>
       </c>
-      <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>88.75</v>
+      <c r="G17" s="11">
+        <f>D17*0.25+E17*0.5+F17*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18">
         <v>80</v>
       </c>
       <c r="F18">
-        <v>95</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G18" s="11">
+        <f>D18*0.25+E18*0.5+F18*0.25</f>
         <v>88.75</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>95</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>72.5</v>
+      <c r="G19" s="11">
+        <f>D19*0.25+E19*0.5+F19*0.25</f>
+        <v>88.75</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>95</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
+      <c r="G20" s="11">
+        <f>D20*0.25+E20*0.5+F20*0.25</f>
+        <v>72.5</v>
+      </c>
+      <c r="H20">
+        <v>45</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>95</v>
+      </c>
+      <c r="G21" s="11">
+        <f>D21*0.25+E21*0.5+F21*0.25</f>
         <v>68.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>80</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>66.25</v>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11">
+        <f>D22*0.25+E22*0.5+F22*0.25</f>
+        <v>66.25</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>31.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
+        <v>65</v>
+      </c>
+      <c r="G23" s="11">
+        <f>D23*0.25+E23*0.5+F23*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24">
-        <v>75</v>
-      </c>
-      <c r="F24">
-        <v>80</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>57.499999999999993</v>
+        <v>68</v>
+      </c>
+      <c r="G24" s="11">
+        <f>D24*0.25+E24*0.5+F24*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E25">
+        <v>75</v>
+      </c>
+      <c r="F25">
         <v>80</v>
       </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>87.5</v>
+      <c r="G25" s="11">
+        <f>D25*0.25+E25*0.5+F25*0.25</f>
+        <v>57.5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>90</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>85</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>78.75</v>
+        <v>100</v>
+      </c>
+      <c r="G26" s="11">
+        <f>D26*0.25+E26*0.5+F26*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="H26">
+        <v>42.5</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>60.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E27">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="G27" s="11">
+        <f>D27*0.25+E27*0.5+F27*0.25</f>
+        <v>78.75</v>
+      </c>
+      <c r="H27">
+        <v>37.5</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>86.25</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f>H27+I27</f>
+        <v>37.5</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>85</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>76.25</v>
+        <v>95</v>
+      </c>
+      <c r="G28" s="11">
+        <f>D28*0.25+E28*0.5+F28*0.25</f>
+        <v>86.25</v>
+      </c>
+      <c r="H28">
+        <v>45</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G29" s="11">
+        <f>D29*0.25+E29*0.5+F29*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H29">
+        <v>45</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2266,711 +2681,944 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>95</v>
+      </c>
+      <c r="G30" s="11">
+        <f>D30*0.25+E30*0.5+F30*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
       <c r="D31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F31">
         <v>95</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>30.5</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>76.25</v>
+      <c r="G31" s="11">
+        <f>D31*0.25+E31*0.5+F31*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
       <c r="D32">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>95</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>90</v>
+      </c>
+      <c r="G32" s="11">
+        <f>D32*0.25+E32*0.5+F32*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H32">
+        <v>42.5</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
       <c r="D33">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F33">
-        <v>90</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G33" s="11">
+        <f>D33*0.25+E33*0.5+F33*0.25</f>
+        <v>71.25</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
       <c r="D34">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F34">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="G34" s="11">
+        <f>D34*0.25+E34*0.5+F34*0.25</f>
+        <v>86.25</v>
+      </c>
+      <c r="H34">
+        <v>35</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>71.25</v>
+        <v>39</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>78.900000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
       <c r="D35">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E35">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>85</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>86.25</v>
+        <v>80</v>
+      </c>
+      <c r="G35" s="11">
+        <f>D35*0.25+E35*0.5+F35*0.25</f>
+        <v>73.75</v>
+      </c>
+      <c r="H35">
+        <v>37.5</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
       <c r="D36">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F36">
-        <v>80</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>73.75</v>
+        <v>100</v>
+      </c>
+      <c r="G36" s="11">
+        <f>D36*0.25+E36*0.5+F36*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H36">
+        <v>45</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
       <c r="E37">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F37">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="G37" s="11">
+        <f>D37*0.25+E37*0.5+F37*0.25</f>
+        <v>62.5</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>5</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
+      <c r="D38">
+        <v>30</v>
       </c>
       <c r="E38">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>100</v>
+      </c>
+      <c r="G38" s="11">
+        <f>D38*0.25+E38*0.5+F38*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="H38">
+        <v>37.5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>29</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>69.900000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
       <c r="D39">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F39">
         <v>100</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>75</v>
+      <c r="G39" s="11">
+        <f>D39*0.25+E39*0.5+F39*0.25</f>
+        <v>95</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
       <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="G40" s="11">
+        <f>D40*0.25+E40*0.5+F40*0.25</f>
+        <v>47.5</v>
+      </c>
+      <c r="H40">
+        <v>37.5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>30</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>59.5</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
+      <c r="D41">
+        <v>80</v>
       </c>
       <c r="E41">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41" s="11">
+        <f>D41*0.25+E41*0.5+F41*0.25</f>
+        <v>85</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>25</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42">
-        <v>80</v>
-      </c>
       <c r="E42">
-        <v>85</v>
-      </c>
-      <c r="F42">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="G42" s="11">
+        <f>D42*0.25+E42*0.5+F42*0.25</f>
+        <v>37.5</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
+      <c r="D43">
+        <v>90</v>
       </c>
       <c r="E43">
-        <v>75</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>90</v>
+      </c>
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43" s="11">
+        <f>D43*0.25+E43*0.5+F43*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
       <c r="D44">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F44">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="G44" s="11">
+        <f>D44*0.25+E44*0.5+F44*0.25</f>
+        <v>88.75</v>
+      </c>
+      <c r="H44">
+        <v>45</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>75.699999999999989</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
       <c r="D45">
+        <v>85</v>
+      </c>
+      <c r="E45">
         <v>80</v>
       </c>
-      <c r="E45">
-        <v>95</v>
-      </c>
       <c r="F45">
-        <v>85</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>35.5</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="1"/>
-        <v>88.75</v>
+        <v>100</v>
+      </c>
+      <c r="G45" s="11">
+        <f>D45*0.25+E45*0.5+F45*0.25</f>
+        <v>86.25</v>
+      </c>
+      <c r="H45">
+        <v>37.5</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
       <c r="D46">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E46">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>86.25</v>
+        <v>95</v>
+      </c>
+      <c r="G46" s="11">
+        <f>D46*0.25+E46*0.5+F46*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H46">
+        <v>37.5</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
       <c r="D47">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E47">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F47">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="G47" s="11">
+        <f>D47*0.25+E47*0.5+F47*0.25</f>
+        <v>77.5</v>
+      </c>
+      <c r="H47">
+        <v>22.5</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>15</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>53.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
       <c r="D48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E48">
         <v>95</v>
       </c>
       <c r="F48">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="G48" s="11">
+        <f>D48*0.25+E48*0.5+F48*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="H48">
+        <v>42.5</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="1"/>
-        <v>77.5</v>
+      <c r="J48" s="15">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
       <c r="D49">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E49">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F49">
-        <v>55</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="G49" s="11">
+        <f>D49*0.25+E49*0.5+F49*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="J49" s="15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
         <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
       </c>
       <c r="D50">
         <v>85</v>
       </c>
       <c r="E50">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F50">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G50" s="11">
+        <f>D50*0.25+E50*0.5+F50*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H50">
+        <v>45</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>19</v>
+      </c>
+      <c r="J50" s="15">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="1"/>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
       <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>85</v>
       </c>
-      <c r="E51">
-        <v>80</v>
-      </c>
       <c r="F51">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="G51" s="11">
+        <f>D51*0.25+E51*0.5+F51*0.25</f>
+        <v>63.75</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>43</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>66.3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
+      <c r="D52">
+        <v>55</v>
       </c>
       <c r="E52">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F52">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="G52" s="11">
+        <f>D52*0.25+E52*0.5+F52*0.25</f>
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>42.5</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="1"/>
-        <v>63.749999999999993</v>
+        <v>29</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="1"/>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>157</v>
-      </c>
       <c r="D53">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E53">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F53">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G53" s="11">
+        <f>D53*0.25+E53*0.5+F53*0.25</f>
+        <v>70</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="1"/>
+        <v>62.199999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
         <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54">
-        <v>80</v>
       </c>
       <c r="E54">
         <v>70</v>
       </c>
       <c r="F54">
-        <v>60</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G54" s="11">
+        <f>D54*0.25+E54*0.5+F54*0.25</f>
+        <v>48.75</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
+      <c r="D55">
+        <v>70</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F55">
-        <v>55</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>48.75</v>
+        <v>100</v>
+      </c>
+      <c r="G55" s="11">
+        <f>D55*0.25+E55*0.5+F55*0.25</f>
+        <v>80</v>
+      </c>
+      <c r="H55">
+        <v>44</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="1"/>
+        <v>58.4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
         <v>164</v>
       </c>
-      <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" t="s">
-        <v>166</v>
-      </c>
       <c r="D56">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>75</v>
@@ -2978,373 +3626,480 @@
       <c r="F56">
         <v>100</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="1"/>
-        <v>80</v>
+      <c r="G56" s="11">
+        <f>D56*0.25+E56*0.5+F56*0.25</f>
+        <v>85</v>
+      </c>
+      <c r="H56">
+        <v>45</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57">
-        <v>90</v>
-      </c>
-      <c r="E57">
-        <v>75</v>
-      </c>
-      <c r="F57">
-        <v>100</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="1"/>
-        <v>85</v>
+      <c r="G57" s="11">
+        <f>D57*0.25+E57*0.5+F57*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
         <v>170</v>
       </c>
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>85</v>
+      </c>
+      <c r="G58" s="11">
+        <f>D58*0.25+E58*0.5+F58*0.25</f>
+        <v>91.25</v>
+      </c>
+      <c r="H58">
+        <v>45</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="J58" s="15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="1"/>
+        <v>78.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
         <v>173</v>
-      </c>
-      <c r="B59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" t="s">
-        <v>175</v>
       </c>
       <c r="D59">
         <v>100</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F59">
-        <v>85</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
-        <v>91.25</v>
+        <v>55</v>
+      </c>
+      <c r="G59" s="11">
+        <f>D59*0.25+E59*0.5+F59*0.25</f>
+        <v>71.25</v>
+      </c>
+      <c r="H59">
+        <v>42.5</v>
+      </c>
+      <c r="J59" s="15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
         <v>176</v>
       </c>
-      <c r="B60" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" t="s">
-        <v>178</v>
-      </c>
       <c r="D60">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E60">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F60">
         <v>55</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>28.5</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>71.25</v>
+      <c r="G60" s="11">
+        <f>D60*0.25+E60*0.5+F60*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="H60">
+        <v>40</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
         <v>179</v>
       </c>
-      <c r="B61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61">
-        <v>55</v>
-      </c>
       <c r="E61">
+        <v>65</v>
+      </c>
+      <c r="F61">
+        <v>85</v>
+      </c>
+      <c r="G61" s="11">
+        <f>D61*0.25+E61*0.5+F61*0.25</f>
+        <v>53.75</v>
+      </c>
+      <c r="H61">
+        <v>22.5</v>
+      </c>
+      <c r="J61" s="15">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="1"/>
         <v>35</v>
-      </c>
-      <c r="F61">
-        <v>55</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
-        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
         <v>182</v>
       </c>
-      <c r="B62" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
+      <c r="D62">
+        <v>100</v>
       </c>
       <c r="E62">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F62">
-        <v>85</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>21.5</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="1"/>
-        <v>53.75</v>
+        <v>95</v>
+      </c>
+      <c r="G62" s="11">
+        <f>D62*0.25+E62*0.5+F62*0.25</f>
+        <v>83.75</v>
+      </c>
+      <c r="H62">
+        <v>45</v>
+      </c>
+      <c r="J62" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="1"/>
+        <v>60.5</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
         <v>185</v>
       </c>
-      <c r="B63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
       <c r="D63">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F63">
-        <v>95</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>33.5</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>83.75</v>
+        <v>85</v>
+      </c>
+      <c r="G63" s="11">
+        <f>D63*0.25+E63*0.5+F63*0.25</f>
+        <v>61.25</v>
+      </c>
+      <c r="H63">
+        <v>42.5</v>
+      </c>
+      <c r="J63" s="15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
         <v>188</v>
       </c>
-      <c r="B64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" t="s">
-        <v>190</v>
-      </c>
       <c r="D64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>80</v>
       </c>
       <c r="F64">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="G64" s="11">
+        <f>D64*0.25+E64*0.5+F64*0.25</f>
+        <v>66.25</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>61.250000000000007</v>
+        <v>11</v>
+      </c>
+      <c r="J64" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="1"/>
+        <v>33.1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
         <v>191</v>
       </c>
-      <c r="B65" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" t="s">
-        <v>193</v>
-      </c>
       <c r="D65">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F65">
-        <v>55</v>
+        <v>100</v>
+      </c>
+      <c r="G65" s="11">
+        <f>D65*0.25+E65*0.5+F65*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H65">
+        <v>45</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>66.25</v>
+        <v>34</v>
+      </c>
+      <c r="J65" s="15">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="1"/>
+        <v>83.4</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
         <v>194</v>
       </c>
-      <c r="B66" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>196</v>
-      </c>
       <c r="D66">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E66">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>100</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90</v>
+      </c>
+      <c r="G66" s="11">
+        <f>D66*0.25+E66*0.5+F66*0.25</f>
+        <v>82.5</v>
+      </c>
+      <c r="H66">
+        <v>45</v>
+      </c>
+      <c r="J66" s="15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
         <v>197</v>
       </c>
-      <c r="B67" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>199</v>
-      </c>
       <c r="D67">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E67">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F67">
         <v>90</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67:I118" si="2">D67*0.1+E67*0.2+F67*0.1+G67*0.3+H85*0.3</f>
-        <v>33</v>
-      </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K118" si="3">(I67/40)*100</f>
-        <v>82.5</v>
+      <c r="G67" s="11">
+        <f>D67*0.25+E67*0.5+F67*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H67">
+        <v>37.5</v>
+      </c>
+      <c r="J67" s="15">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
         <v>200</v>
       </c>
-      <c r="B68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68">
-        <v>85</v>
-      </c>
       <c r="E68">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>90</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="3"/>
-        <v>76.25</v>
+        <v>95</v>
+      </c>
+      <c r="G68" s="11">
+        <f>D68*0.25+E68*0.5+F68*0.25</f>
+        <v>53.75</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68" s="15">
+        <f t="shared" ref="J68:J117" si="2">H68+I68</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" ref="K68:K117" si="3">(G68*0.4)+(J68*0.6)</f>
+        <v>21.5</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
         <v>203</v>
       </c>
-      <c r="B69" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
+      <c r="D69">
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F69">
-        <v>95</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="2"/>
-        <v>21.5</v>
-      </c>
-      <c r="K69">
+        <v>100</v>
+      </c>
+      <c r="G69" s="11">
+        <f>D69*0.25+E69*0.5+F69*0.25</f>
+        <v>85</v>
+      </c>
+      <c r="H69">
+        <v>50</v>
+      </c>
+      <c r="J69" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K69" s="4">
         <f t="shared" si="3"/>
-        <v>53.75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
         <v>206</v>
-      </c>
-      <c r="B70" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
       </c>
       <c r="D70">
         <v>100</v>
@@ -3353,1269 +4108,3574 @@
         <v>70</v>
       </c>
       <c r="F70">
-        <v>100</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="G70" s="11">
+        <f>D70*0.25+E70*0.5+F70*0.25</f>
+        <v>82.5</v>
+      </c>
+      <c r="H70">
+        <v>22.5</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="K70" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
         <v>209</v>
       </c>
-      <c r="B71" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71">
-        <v>100</v>
-      </c>
       <c r="E71">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F71">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="G71" s="11">
+        <f>D71*0.25+E71*0.5+F71*0.25</f>
+        <v>66.25</v>
+      </c>
+      <c r="H71">
+        <v>42.5</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K71">
+        <v>9</v>
+      </c>
+      <c r="J71" s="15">
+        <f t="shared" si="2"/>
+        <v>51.5</v>
+      </c>
+      <c r="K71" s="4">
         <f t="shared" si="3"/>
-        <v>82.5</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
         <v>212</v>
       </c>
-      <c r="B72" t="s">
-        <v>213</v>
-      </c>
-      <c r="C72" t="s">
-        <v>214</v>
+      <c r="D72">
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F72">
-        <v>85</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="2"/>
-        <v>26.5</v>
-      </c>
-      <c r="K72">
+        <v>95</v>
+      </c>
+      <c r="G72" s="11">
+        <f>D72*0.25+E72*0.5+F72*0.25</f>
+        <v>83.75</v>
+      </c>
+      <c r="H72">
+        <v>45</v>
+      </c>
+      <c r="J72" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K72" s="4">
         <f t="shared" si="3"/>
-        <v>66.25</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" t="s">
-        <v>217</v>
-      </c>
       <c r="D73">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E73">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F73">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="G73" s="11">
+        <f>D73*0.25+E73*0.5+F73*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
-        <v>33.5</v>
-      </c>
-      <c r="K73">
+        <v>29</v>
+      </c>
+      <c r="J73" s="15">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="K73" s="4">
         <f t="shared" si="3"/>
-        <v>83.75</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
         <v>218</v>
       </c>
-      <c r="B74" t="s">
-        <v>219</v>
-      </c>
-      <c r="C74" t="s">
-        <v>220</v>
-      </c>
       <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
         <v>80</v>
       </c>
-      <c r="E74">
-        <v>95</v>
-      </c>
       <c r="F74">
-        <v>80</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K74">
+        <v>100</v>
+      </c>
+      <c r="G74" s="11">
+        <f>D74*0.25+E74*0.5+F74*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H74">
+        <v>45</v>
+      </c>
+      <c r="J74" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K74" s="4">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
         <v>221</v>
       </c>
-      <c r="B75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" t="s">
-        <v>223</v>
-      </c>
       <c r="D75">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E75">
         <v>80</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="G75" s="11">
+        <f>D75*0.25+E75*0.5+F75*0.25</f>
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>45</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K75">
+        <v>21</v>
+      </c>
+      <c r="J75" s="15">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="K75" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
         <v>224</v>
       </c>
-      <c r="B76" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" t="s">
-        <v>226</v>
-      </c>
-      <c r="D76">
-        <v>70</v>
-      </c>
-      <c r="E76">
-        <v>80</v>
-      </c>
-      <c r="F76">
-        <v>90</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K76">
+      <c r="G76" s="11">
+        <f>D76*0.25+E76*0.5+F76*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
         <v>227</v>
       </c>
-      <c r="B77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" t="s">
-        <v>229</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K77">
+      <c r="E77">
+        <v>60</v>
+      </c>
+      <c r="G77" s="11">
+        <f>D77*0.25+E77*0.5+F77*0.25</f>
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>70</v>
+      </c>
+      <c r="J77" s="15">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="K77" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
         <v>230</v>
       </c>
-      <c r="B78" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" t="s">
-        <v>232</v>
+      <c r="D78">
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>60</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K78">
+        <v>80</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78" s="11">
+        <f>D78*0.25+E78*0.5+F78*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H78">
+        <v>45</v>
+      </c>
+      <c r="J78" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K78" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79">
-        <v>100</v>
-      </c>
       <c r="E79">
-        <v>80</v>
-      </c>
-      <c r="F79">
-        <v>100</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K79">
+        <v>40</v>
+      </c>
+      <c r="G79" s="11">
+        <f>D79*0.25+E79*0.5+F79*0.25</f>
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
         <v>236</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
+        <v>70</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" s="11">
+        <f>D80*0.25+E80*0.5+F80*0.25</f>
+        <v>80</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
+      </c>
+      <c r="J80" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>237</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
         <v>238</v>
       </c>
-      <c r="E80">
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81">
+        <v>90</v>
+      </c>
+      <c r="E81">
+        <v>65</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" s="11">
+        <f>D81*0.25+E81*0.5+F81*0.25</f>
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <v>45</v>
+      </c>
+      <c r="J81" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82">
+        <v>85</v>
+      </c>
+      <c r="E82">
+        <v>75</v>
+      </c>
+      <c r="F82">
+        <v>95</v>
+      </c>
+      <c r="G82" s="11">
+        <f>D82*0.25+E82*0.5+F82*0.25</f>
+        <v>82.5</v>
+      </c>
+      <c r="H82">
+        <v>45</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" s="11">
+        <f>D83*0.25+E83*0.5+F83*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84">
+        <v>70</v>
+      </c>
+      <c r="E84">
+        <v>95</v>
+      </c>
+      <c r="F84">
+        <v>70</v>
+      </c>
+      <c r="G84" s="11">
+        <f>D84*0.25+E84*0.5+F84*0.25</f>
+        <v>82.5</v>
+      </c>
+      <c r="H84">
+        <v>45</v>
+      </c>
+      <c r="I84">
+        <v>33</v>
+      </c>
+      <c r="J84" s="15">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="3"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85">
+        <v>90</v>
+      </c>
+      <c r="E85">
+        <v>65</v>
+      </c>
+      <c r="F85">
+        <v>85</v>
+      </c>
+      <c r="G85" s="11">
+        <f>D85*0.25+E85*0.5+F85*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H85">
+        <v>42.5</v>
+      </c>
+      <c r="J85" s="15">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>55</v>
+      </c>
+      <c r="F86">
+        <v>45</v>
+      </c>
+      <c r="G86" s="11">
+        <f>D86*0.25+E86*0.5+F86*0.25</f>
+        <v>38.75</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87">
+        <v>60</v>
+      </c>
+      <c r="G87" s="11">
+        <f>D87*0.25+E87*0.5+F87*0.25</f>
+        <v>30</v>
+      </c>
+      <c r="H87">
+        <v>35</v>
+      </c>
+      <c r="I87">
+        <v>42</v>
+      </c>
+      <c r="J87" s="15">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="3"/>
+        <v>58.199999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>80</v>
+      </c>
+      <c r="F88">
+        <v>95</v>
+      </c>
+      <c r="G88" s="11">
+        <f>D88*0.25+E88*0.5+F88*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>75</v>
+      </c>
+      <c r="F89">
+        <v>75</v>
+      </c>
+      <c r="G89" s="11">
+        <f>D89*0.25+E89*0.5+F89*0.25</f>
+        <v>63.75</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90">
+        <v>55</v>
+      </c>
+      <c r="E90">
+        <v>55</v>
+      </c>
+      <c r="F90">
+        <v>85</v>
+      </c>
+      <c r="G90" s="11">
+        <f>D90*0.25+E90*0.5+F90*0.25</f>
+        <v>62.5</v>
+      </c>
+      <c r="H90">
         <v>40</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K80">
+      <c r="J90" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+      <c r="E91">
+        <v>35</v>
+      </c>
+      <c r="G91" s="11">
+        <f>D91*0.25+E91*0.5+F91*0.25</f>
+        <v>17.5</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92">
+        <v>65</v>
+      </c>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92" s="11">
+        <f>D92*0.25+E92*0.5+F92*0.25</f>
+        <v>80</v>
+      </c>
+      <c r="H92">
+        <v>42.5</v>
+      </c>
+      <c r="J92" s="15">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
+      <c r="G93" s="11">
+        <f>D93*0.25+E93*0.5+F93*0.25</f>
+        <v>92.5</v>
+      </c>
+      <c r="H93">
+        <v>50</v>
+      </c>
+      <c r="I93">
+        <v>24</v>
+      </c>
+      <c r="J93" s="15">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="3"/>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+      <c r="E94">
+        <v>75</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94" s="11">
+        <f>D94*0.25+E94*0.5+F94*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="H94">
+        <v>45</v>
+      </c>
+      <c r="J94" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+      <c r="G95" s="11">
+        <f>D95*0.25+E95*0.5+F95*0.25</f>
+        <v>25</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <v>75</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+      <c r="G96" s="11">
+        <f>D96*0.25+E96*0.5+F96*0.25</f>
+        <v>87.5</v>
+      </c>
+      <c r="H96">
+        <v>50</v>
+      </c>
+      <c r="J96" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>60</v>
+      </c>
+      <c r="F97">
+        <v>85</v>
+      </c>
+      <c r="G97" s="11">
+        <f>D97*0.25+E97*0.5+F97*0.25</f>
+        <v>51.25</v>
+      </c>
+      <c r="H97">
+        <v>42.5</v>
+      </c>
+      <c r="J97" s="15">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98" s="11">
+        <f>D98*0.25+E98*0.5+F98*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99">
+        <v>55</v>
+      </c>
+      <c r="E99">
+        <v>95</v>
+      </c>
+      <c r="F99">
+        <v>55</v>
+      </c>
+      <c r="G99" s="11">
+        <f>D99*0.25+E99*0.5+F99*0.25</f>
+        <v>75</v>
+      </c>
+      <c r="H99">
+        <v>42.5</v>
+      </c>
+      <c r="I99">
+        <v>16</v>
+      </c>
+      <c r="J99" s="15">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="3"/>
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100">
+        <v>30</v>
+      </c>
+      <c r="E100">
+        <v>85</v>
+      </c>
+      <c r="F100">
+        <v>55</v>
+      </c>
+      <c r="G100" s="11">
+        <f>D100*0.25+E100*0.5+F100*0.25</f>
+        <v>63.75</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" t="s">
+        <v>299</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="G101" s="11">
+        <f>D101*0.25+E101*0.5+F101*0.25</f>
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>239</v>
-      </c>
-      <c r="B81" t="s">
-        <v>240</v>
-      </c>
-      <c r="C81" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81">
-        <v>100</v>
-      </c>
-      <c r="E81">
-        <v>70</v>
-      </c>
-      <c r="F81">
-        <v>80</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>242</v>
-      </c>
-      <c r="B82" t="s">
-        <v>243</v>
-      </c>
-      <c r="C82" t="s">
-        <v>244</v>
-      </c>
-      <c r="D82">
-        <v>90</v>
-      </c>
-      <c r="E82">
-        <v>65</v>
-      </c>
-      <c r="F82">
-        <v>100</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>245</v>
-      </c>
-      <c r="B83" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83">
-        <v>85</v>
-      </c>
-      <c r="E83">
-        <v>75</v>
-      </c>
-      <c r="F83">
-        <v>95</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" t="s">
-        <v>250</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85">
-        <v>70</v>
-      </c>
-      <c r="E85">
-        <v>95</v>
-      </c>
-      <c r="F85">
-        <v>70</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="3"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>254</v>
-      </c>
-      <c r="B86" t="s">
-        <v>255</v>
-      </c>
-      <c r="C86" t="s">
-        <v>256</v>
-      </c>
-      <c r="D86">
-        <v>90</v>
-      </c>
-      <c r="E86">
-        <v>65</v>
-      </c>
-      <c r="F86">
-        <v>85</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="3"/>
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>55</v>
-      </c>
-      <c r="F87">
-        <v>45</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="3"/>
-        <v>38.75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E88">
-        <v>60</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>263</v>
-      </c>
-      <c r="B89" t="s">
-        <v>264</v>
-      </c>
-      <c r="C89" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89">
-        <v>50</v>
-      </c>
-      <c r="E89">
-        <v>80</v>
-      </c>
-      <c r="F89">
-        <v>95</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="3"/>
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90">
-        <v>30</v>
-      </c>
-      <c r="E90">
-        <v>75</v>
-      </c>
-      <c r="F90">
-        <v>75</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="2"/>
-        <v>25.5</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="3"/>
-        <v>63.749999999999993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>269</v>
-      </c>
-      <c r="B91" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91">
-        <v>55</v>
-      </c>
-      <c r="E91">
-        <v>55</v>
-      </c>
-      <c r="F91">
-        <v>85</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>272</v>
-      </c>
-      <c r="B92" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" t="s">
-        <v>274</v>
-      </c>
-      <c r="E92">
-        <v>35</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93">
-        <v>100</v>
-      </c>
-      <c r="E93">
-        <v>65</v>
-      </c>
-      <c r="F93">
-        <v>90</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" t="s">
-        <v>279</v>
-      </c>
-      <c r="C94" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94">
-        <v>100</v>
-      </c>
-      <c r="E94">
-        <v>90</v>
-      </c>
-      <c r="F94">
-        <v>90</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="3"/>
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>281</v>
-      </c>
-      <c r="B95" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" t="s">
-        <v>283</v>
-      </c>
-      <c r="D95">
-        <v>100</v>
-      </c>
-      <c r="E95">
-        <v>75</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>284</v>
-      </c>
-      <c r="B96" t="s">
-        <v>285</v>
-      </c>
-      <c r="C96" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96">
-        <v>50</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>287</v>
-      </c>
-      <c r="B97" t="s">
-        <v>288</v>
-      </c>
-      <c r="C97" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97">
-        <v>100</v>
-      </c>
-      <c r="E97">
-        <v>75</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>290</v>
-      </c>
-      <c r="B98" t="s">
-        <v>291</v>
-      </c>
-      <c r="C98" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>60</v>
-      </c>
-      <c r="F98">
-        <v>85</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="2"/>
-        <v>20.5</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="3"/>
-        <v>51.249999999999993</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>293</v>
-      </c>
-      <c r="B99" t="s">
-        <v>294</v>
-      </c>
-      <c r="C99" t="s">
-        <v>295</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>296</v>
-      </c>
-      <c r="B100" t="s">
-        <v>297</v>
-      </c>
-      <c r="C100" t="s">
-        <v>298</v>
-      </c>
-      <c r="D100">
-        <v>55</v>
-      </c>
-      <c r="E100">
-        <v>95</v>
-      </c>
-      <c r="F100">
-        <v>55</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>299</v>
-      </c>
-      <c r="B101" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" t="s">
-        <v>301</v>
-      </c>
-      <c r="D101">
-        <v>30</v>
-      </c>
-      <c r="E101">
-        <v>85</v>
-      </c>
-      <c r="F101">
-        <v>55</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="2"/>
-        <v>25.5</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="3"/>
-        <v>63.749999999999993</v>
-      </c>
-    </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" t="s">
         <v>302</v>
       </c>
-      <c r="B102" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" t="s">
-        <v>304</v>
+      <c r="D102">
+        <v>30</v>
       </c>
       <c r="E102">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="F102">
+        <v>85</v>
+      </c>
+      <c r="G102" s="11">
+        <f>D102*0.25+E102*0.5+F102*0.25</f>
+        <v>71.25</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="J102" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K102" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" t="s">
         <v>305</v>
       </c>
-      <c r="B103" t="s">
-        <v>306</v>
-      </c>
-      <c r="C103" t="s">
-        <v>307</v>
-      </c>
       <c r="D103">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E103">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F103">
         <v>85</v>
       </c>
-      <c r="I103">
-        <f t="shared" si="2"/>
-        <v>28.5</v>
-      </c>
-      <c r="K103">
+      <c r="G103" s="11">
+        <f>D103*0.25+E103*0.5+F103*0.25</f>
+        <v>83.75</v>
+      </c>
+      <c r="H103">
+        <v>42.5</v>
+      </c>
+      <c r="J103" s="15">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="K103" s="4">
         <f t="shared" si="3"/>
-        <v>71.25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" t="s">
         <v>308</v>
       </c>
-      <c r="B104" t="s">
-        <v>309</v>
-      </c>
-      <c r="C104" t="s">
-        <v>310</v>
-      </c>
-      <c r="D104">
-        <v>100</v>
-      </c>
       <c r="E104">
-        <v>75</v>
-      </c>
-      <c r="F104">
-        <v>85</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="2"/>
-        <v>33.5</v>
-      </c>
-      <c r="K104">
+        <v>65</v>
+      </c>
+      <c r="G104" s="11">
+        <f>D104*0.25+E104*0.5+F104*0.25</f>
+        <v>32.5</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
         <f t="shared" si="3"/>
-        <v>83.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" t="s">
         <v>311</v>
       </c>
-      <c r="B105" t="s">
-        <v>312</v>
-      </c>
-      <c r="C105" t="s">
-        <v>313</v>
+      <c r="D105">
+        <v>50</v>
       </c>
       <c r="E105">
-        <v>65</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K105">
+        <v>70</v>
+      </c>
+      <c r="F105">
+        <v>85</v>
+      </c>
+      <c r="G105" s="11">
+        <f>D105*0.25+E105*0.5+F105*0.25</f>
+        <v>68.75</v>
+      </c>
+      <c r="H105">
+        <v>40</v>
+      </c>
+      <c r="J105" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K105" s="4">
         <f t="shared" si="3"/>
-        <v>32.5</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
         <v>314</v>
       </c>
-      <c r="B106" t="s">
-        <v>315</v>
-      </c>
-      <c r="C106" t="s">
-        <v>316</v>
-      </c>
-      <c r="D106">
-        <v>50</v>
-      </c>
       <c r="E106">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F106">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="G106" s="11">
+        <f>D106*0.25+E106*0.5+F106*0.25</f>
+        <v>61.25</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="K106">
+        <v>28</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K106" s="4">
         <f t="shared" si="3"/>
-        <v>68.75</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
       </c>
       <c r="E107">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107" s="11">
+        <f>D107*0.25+E107*0.5+F107*0.25</f>
         <v>75</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="2"/>
-        <v>24.5</v>
-      </c>
-      <c r="K107">
+      <c r="H107">
+        <v>45</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K107" s="4">
         <f t="shared" si="3"/>
-        <v>61.250000000000007</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D108">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F108">
-        <v>100</v>
-      </c>
-      <c r="I108">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K108">
+        <v>95</v>
+      </c>
+      <c r="G108" s="11">
+        <f>D108*0.25+E108*0.5+F108*0.25</f>
+        <v>73.75</v>
+      </c>
+      <c r="H108">
+        <v>40</v>
+      </c>
+      <c r="J108" s="15">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K108" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" t="s">
         <v>322</v>
       </c>
-      <c r="B109" t="s">
-        <v>323</v>
-      </c>
-      <c r="C109" t="s">
-        <v>324</v>
-      </c>
       <c r="D109">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E109">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F109">
-        <v>95</v>
-      </c>
-      <c r="I109">
-        <f t="shared" si="2"/>
-        <v>29.5</v>
-      </c>
-      <c r="K109">
+        <v>85</v>
+      </c>
+      <c r="G109" s="11">
+        <f>D109*0.25+E109*0.5+F109*0.25</f>
+        <v>81.25</v>
+      </c>
+      <c r="H109">
+        <v>37.5</v>
+      </c>
+      <c r="J109" s="15">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="K109" s="4">
         <f t="shared" si="3"/>
-        <v>73.75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" t="s">
         <v>325</v>
       </c>
-      <c r="B110" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" t="s">
-        <v>327</v>
-      </c>
-      <c r="D110">
-        <v>90</v>
-      </c>
       <c r="E110">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F110">
-        <v>85</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="K110">
+        <v>100</v>
+      </c>
+      <c r="G110" s="11">
+        <f>D110*0.25+E110*0.5+F110*0.25</f>
+        <v>55</v>
+      </c>
+      <c r="H110">
+        <v>22.5</v>
+      </c>
+      <c r="J110" s="15">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="K110" s="4">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" t="s">
         <v>328</v>
       </c>
-      <c r="B111" t="s">
-        <v>329</v>
-      </c>
-      <c r="C111" t="s">
-        <v>330</v>
+      <c r="D111">
+        <v>90</v>
       </c>
       <c r="E111">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F111">
-        <v>100</v>
-      </c>
-      <c r="I111">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K111">
+        <v>85</v>
+      </c>
+      <c r="G111" s="11">
+        <f>D111*0.25+E111*0.5+F111*0.25</f>
+        <v>78.75</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="J111" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K111" s="4">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" t="s">
         <v>331</v>
       </c>
-      <c r="B112" t="s">
-        <v>332</v>
-      </c>
-      <c r="C112" t="s">
-        <v>333</v>
-      </c>
       <c r="D112">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E112">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F112">
-        <v>85</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="2"/>
-        <v>31.5</v>
-      </c>
-      <c r="K112">
+        <v>100</v>
+      </c>
+      <c r="G112" s="11">
+        <f>D112*0.25+E112*0.5+F112*0.25</f>
+        <v>90</v>
+      </c>
+      <c r="H112">
+        <v>47.5</v>
+      </c>
+      <c r="J112" s="15">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="K112" s="4">
         <f t="shared" si="3"/>
-        <v>78.75</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" t="s">
         <v>334</v>
       </c>
-      <c r="B113" t="s">
-        <v>335</v>
-      </c>
-      <c r="C113" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
       <c r="E113">
-        <v>80</v>
-      </c>
-      <c r="F113">
-        <v>100</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="K113">
+        <v>45</v>
+      </c>
+      <c r="G113" s="11">
+        <f>D113*0.25+E113*0.5+F113*0.25</f>
+        <v>22.5</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="J113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" t="s">
         <v>337</v>
       </c>
-      <c r="B114" t="s">
-        <v>338</v>
-      </c>
-      <c r="C114" t="s">
-        <v>339</v>
-      </c>
       <c r="E114">
-        <v>45</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K114">
+        <v>70</v>
+      </c>
+      <c r="F114">
+        <v>80</v>
+      </c>
+      <c r="G114" s="11">
+        <f>D114*0.25+E114*0.5+F114*0.25</f>
+        <v>55</v>
+      </c>
+      <c r="H114">
+        <v>42.5</v>
+      </c>
+      <c r="J114" s="15">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="K114" s="4">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
         <v>340</v>
       </c>
-      <c r="B115" t="s">
-        <v>341</v>
-      </c>
-      <c r="C115" t="s">
-        <v>342</v>
-      </c>
       <c r="E115">
-        <v>70</v>
-      </c>
-      <c r="F115">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="G115" s="11">
+        <f>D115*0.25+E115*0.5+F115*0.25</f>
+        <v>45</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
       </c>
       <c r="I115">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K115">
+        <v>14</v>
+      </c>
+      <c r="J115" s="15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K115" s="4">
         <f t="shared" si="3"/>
-        <v>55.000000000000007</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" t="s">
         <v>343</v>
       </c>
-      <c r="B116" t="s">
-        <v>344</v>
-      </c>
-      <c r="C116" t="s">
-        <v>345</v>
+      <c r="D116">
+        <v>75</v>
       </c>
       <c r="E116">
-        <v>90</v>
-      </c>
-      <c r="I116">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K116">
+        <v>70</v>
+      </c>
+      <c r="F116">
+        <v>90</v>
+      </c>
+      <c r="G116" s="11">
+        <f>D116*0.25+E116*0.5+F116*0.25</f>
+        <v>76.25</v>
+      </c>
+      <c r="H116">
+        <v>45</v>
+      </c>
+      <c r="J116" s="15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K116" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" t="s">
         <v>346</v>
       </c>
-      <c r="B117" t="s">
-        <v>347</v>
-      </c>
-      <c r="C117" t="s">
-        <v>348</v>
-      </c>
       <c r="D117">
+        <v>100</v>
+      </c>
+      <c r="E117">
+        <v>95</v>
+      </c>
+      <c r="F117">
+        <v>90</v>
+      </c>
+      <c r="G117" s="11">
+        <f>D117*0.25+E117*0.5+F117*0.25</f>
+        <v>95</v>
+      </c>
+      <c r="H117">
+        <v>50</v>
+      </c>
+      <c r="J117" s="15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73A96A-AB8B-FD43-99CF-548E96F1351F}">
+  <dimension ref="A1:B208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <f>A2/2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <f>A3/2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">A4/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>75</v>
       </c>
-      <c r="E117">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>70</v>
       </c>
-      <c r="F117">
-        <v>90</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="2"/>
-        <v>30.5</v>
-      </c>
-      <c r="K117">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>90</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>85</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>90</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>85</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>88</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>90</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>85</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>90</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>90</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B131" si="1">A68/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>45</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>90</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>90</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>90</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>90</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>80</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>85</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>85</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>85</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>80</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>90</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>100</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>95</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>85</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>100</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <f t="shared" ref="B132:B195" si="2">A132/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <f t="shared" ref="B196:B208" si="3">A196/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197">
         <f t="shared" si="3"/>
-        <v>76.25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>349</v>
-      </c>
-      <c r="B118" t="s">
-        <v>350</v>
-      </c>
-      <c r="C118" t="s">
-        <v>351</v>
-      </c>
-      <c r="D118">
-        <v>100</v>
-      </c>
-      <c r="E118">
-        <v>95</v>
-      </c>
-      <c r="F118">
-        <v>90</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DB2D0D-2955-BA4F-A9C8-09E70872ED6D}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E31:E35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEFA3BD-99F1-8343-900A-B110446770A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA921D-1E8B-0B45-BA52-4C596D496A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$117</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$A$1:$A$117</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentManualCount="12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="383">
   <si>
     <t>Ad</t>
   </si>
@@ -1085,9 +1089,6 @@
   </si>
   <si>
     <t>Ödev 2 (% 10 )</t>
-  </si>
-  <si>
-    <t>Proje (% 30 )</t>
   </si>
   <si>
     <t>RESULT</t>
@@ -1305,13 +1306,7 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1325,11 +1320,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,7 +1349,718 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Uygulamalı Doğal Dil İşleme Ders notları dağılımı</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Uygulamalı Doğal Dil İşleme Ders notları dağılımı</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B787E53C-6172-4E48-B3B6-3CCAF748A8DA}" formatIdx="0">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DD7D40-585E-96BA-9ADE-71E225023412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8540750" y="3911600"/>
+              <a:ext cx="6648450" cy="2857500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1687,40 +2399,42 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="34" style="15" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="13" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="H1" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1742,20 +2456,20 @@
       <c r="F2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>377</v>
+      <c r="J2" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,23 +2491,23 @@
       <c r="F3">
         <v>95</v>
       </c>
-      <c r="G3" s="11">
-        <f>D3*0.25+E3*0.5+F3*0.25</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G34" si="0">D3*0.25+E3*0.5+F3*0.25</f>
         <v>76.25</v>
       </c>
       <c r="H3">
         <v>45</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <f>H3+I3</f>
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J34" si="1">H3+I3</f>
+        <v>52</v>
       </c>
       <c r="K3" s="4">
-        <f>(G3*0.4)+(J3*0.6)</f>
-        <v>57.5</v>
+        <f t="shared" ref="K3:K34" si="2">(G3*0.4)+(J3*0.6)</f>
+        <v>61.7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,20 +2529,23 @@
       <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="11">
-        <f>D4*0.25+E4*0.5+F4*0.25</f>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="H4">
         <v>45</v>
       </c>
-      <c r="J4" s="15">
-        <f t="shared" ref="J4:J67" si="0">H4+I4</f>
-        <v>45</v>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K67" si="1">(G4*0.4)+(J4*0.6)</f>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,19 +2561,19 @@
       <c r="E5">
         <v>75</v>
       </c>
-      <c r="G5" s="11">
-        <f>D5*0.25+E5*0.5+F5*0.25</f>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" si="0"/>
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -1879,20 +2596,23 @@
       <c r="F6">
         <v>95</v>
       </c>
-      <c r="G6" s="11">
-        <f>D6*0.25+E6*0.5+F6*0.25</f>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
       <c r="H6">
         <v>45</v>
       </c>
-      <c r="J6" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f t="shared" si="2"/>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,20 +2634,23 @@
       <c r="F7">
         <v>95</v>
       </c>
-      <c r="G7" s="11">
-        <f>D7*0.25+E7*0.5+F7*0.25</f>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="H7">
         <v>47.5</v>
       </c>
-      <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
+      <c r="I7">
+        <v>47</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>94.5</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>94.199999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1940,19 +2663,19 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="11">
-        <f>D8*0.25+E8*0.5+F8*0.25</f>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1969,20 +2692,23 @@
       <c r="E9">
         <v>70</v>
       </c>
-      <c r="G9" s="11">
-        <f>D9*0.25+E9*0.5+F9*0.25</f>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="H9">
         <v>22.5</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>36.5</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>27.5</v>
+        <f t="shared" si="2"/>
+        <v>35.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2004,8 +2730,8 @@
       <c r="F10">
         <v>55</v>
       </c>
-      <c r="G10" s="11">
-        <f>D10*0.25+E10*0.5+F10*0.25</f>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H10">
@@ -2014,12 +2740,12 @@
       <c r="I10">
         <v>23</v>
       </c>
-      <c r="J10" s="15">
-        <f t="shared" si="0"/>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.3</v>
       </c>
     </row>
@@ -2042,20 +2768,23 @@
       <c r="F11">
         <v>90</v>
       </c>
-      <c r="G11" s="11">
-        <f>D11*0.25+E11*0.5+F11*0.25</f>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
       <c r="H11">
         <v>45</v>
       </c>
-      <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I11">
+        <v>24</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>63.5</v>
+        <f t="shared" si="2"/>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2077,20 +2806,23 @@
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="11">
-        <f>D12*0.25+E12*0.5+F12*0.25</f>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
-      <c r="J12" s="15">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>88.4</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2112,20 +2844,23 @@
       <c r="F13">
         <v>80</v>
       </c>
-      <c r="G13" s="11">
-        <f>D13*0.25+E13*0.5+F13*0.25</f>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
       <c r="H13">
         <v>37.5</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>60.5</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>53.5</v>
+        <f t="shared" si="2"/>
+        <v>67.3</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,8 +2882,8 @@
       <c r="F14">
         <v>55</v>
       </c>
-      <c r="G14" s="11">
-        <f>D14*0.25+E14*0.5+F14*0.25</f>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H14">
@@ -2157,12 +2892,12 @@
       <c r="I14">
         <v>48</v>
       </c>
-      <c r="J14" s="15">
-        <f t="shared" si="0"/>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.8</v>
       </c>
     </row>
@@ -2185,20 +2920,23 @@
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="11">
-        <f>D15*0.25+E15*0.5+F15*0.25</f>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
       <c r="H15">
-        <v>45</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f t="shared" si="2"/>
+        <v>93.3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,20 +2958,23 @@
       <c r="F16">
         <v>55</v>
       </c>
-      <c r="G16" s="11">
-        <f>D16*0.25+E16*0.5+F16*0.25</f>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
       <c r="H16">
         <v>42.5</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>73.8</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,20 +2996,23 @@
       <c r="F17">
         <v>95</v>
       </c>
-      <c r="G17" s="11">
-        <f>D17*0.25+E17*0.5+F17*0.25</f>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="H17">
         <v>45</v>
       </c>
-      <c r="J17" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I17">
+        <v>48</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>59.5</v>
+        <f t="shared" si="2"/>
+        <v>88.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,20 +3034,23 @@
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18" s="11">
-        <f>D18*0.25+E18*0.5+F18*0.25</f>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
       <c r="H18">
         <v>50</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="I18">
+        <v>48</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>65.5</v>
+        <f t="shared" si="2"/>
+        <v>94.3</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2325,20 +3072,23 @@
       <c r="F19">
         <v>95</v>
       </c>
-      <c r="G19" s="11">
-        <f>D19*0.25+E19*0.5+F19*0.25</f>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
       <c r="H19">
         <v>45</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="0"/>
+      <c r="I19">
         <v>45</v>
       </c>
+      <c r="J19" s="13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>89.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,20 +3110,23 @@
       <c r="F20">
         <v>95</v>
       </c>
-      <c r="G20" s="11">
-        <f>D20*0.25+E20*0.5+F20*0.25</f>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
       <c r="H20">
         <v>45</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I20">
+        <v>27</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>72.199999999999989</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,20 +3148,23 @@
       <c r="F21">
         <v>95</v>
       </c>
-      <c r="G21" s="11">
-        <f>D21*0.25+E21*0.5+F21*0.25</f>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
       <c r="H21">
         <v>45</v>
       </c>
-      <c r="J21" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>54.5</v>
+        <f t="shared" si="2"/>
+        <v>70.699999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2430,23 +3186,23 @@
       <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22" s="11">
-        <f>D22*0.25+E22*0.5+F22*0.25</f>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
         <v>66.25</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="J22" s="13">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
-        <v>31.3</v>
+        <f t="shared" si="2"/>
+        <v>50.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2459,19 +3215,19 @@
       <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="11">
-        <f>D23*0.25+E23*0.5+F23*0.25</f>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23" s="15">
-        <f t="shared" si="0"/>
+      <c r="J23" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2485,19 +3241,19 @@
       <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="11">
-        <f>D24*0.25+E24*0.5+F24*0.25</f>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" si="0"/>
+      <c r="J24" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2517,20 +3273,23 @@
       <c r="F25">
         <v>80</v>
       </c>
-      <c r="G25" s="11">
-        <f>D25*0.25+E25*0.5+F25*0.25</f>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2552,20 +3311,23 @@
       <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26" s="11">
-        <f>D26*0.25+E26*0.5+F26*0.25</f>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
       <c r="H26">
         <v>42.5</v>
       </c>
-      <c r="J26" s="15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="1"/>
+        <v>80.5</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="1"/>
-        <v>60.5</v>
+        <f t="shared" si="2"/>
+        <v>83.3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2587,23 +3349,23 @@
       <c r="F27">
         <v>85</v>
       </c>
-      <c r="G27" s="11">
-        <f>D27*0.25+E27*0.5+F27*0.25</f>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
       <c r="H27">
         <v>37.5</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
-        <f>H27+I27</f>
-        <v>37.5</v>
+        <v>34</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="1"/>
+        <v>71.5</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2625,20 +3387,23 @@
       <c r="F28">
         <v>95</v>
       </c>
-      <c r="G28" s="11">
-        <f>D28*0.25+E28*0.5+F28*0.25</f>
+      <c r="G28" s="9">
+        <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
       <c r="H28">
         <v>45</v>
       </c>
-      <c r="J28" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I28">
+        <v>39</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f t="shared" si="2"/>
+        <v>84.9</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2660,20 +3425,23 @@
       <c r="F29">
         <v>85</v>
       </c>
-      <c r="G29" s="11">
-        <f>D29*0.25+E29*0.5+F29*0.25</f>
+      <c r="G29" s="9">
+        <f t="shared" si="0"/>
         <v>76.25</v>
       </c>
       <c r="H29">
         <v>45</v>
       </c>
-      <c r="J29" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I29">
+        <v>22</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
+        <f t="shared" si="2"/>
+        <v>70.699999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2695,20 +3463,23 @@
       <c r="F30">
         <v>95</v>
       </c>
-      <c r="G30" s="11">
-        <f>D30*0.25+E30*0.5+F30*0.25</f>
+      <c r="G30" s="9">
+        <f t="shared" si="0"/>
         <v>76.25</v>
       </c>
       <c r="H30">
         <v>45</v>
       </c>
-      <c r="J30" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
+        <f t="shared" si="2"/>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2730,20 +3501,23 @@
       <c r="F31">
         <v>95</v>
       </c>
-      <c r="G31" s="11">
-        <f>D31*0.25+E31*0.5+F31*0.25</f>
+      <c r="G31" s="9">
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="H31">
         <v>50</v>
       </c>
-      <c r="J31" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="I31">
+        <v>31</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2765,20 +3539,23 @@
       <c r="F32">
         <v>90</v>
       </c>
-      <c r="G32" s="11">
-        <f>D32*0.25+E32*0.5+F32*0.25</f>
+      <c r="G32" s="9">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H32">
         <v>42.5</v>
       </c>
-      <c r="J32" s="15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+      <c r="I32">
+        <v>45</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
+        <f t="shared" si="2"/>
+        <v>88.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -2800,20 +3577,23 @@
       <c r="F33">
         <v>80</v>
       </c>
-      <c r="G33" s="11">
-        <f>D33*0.25+E33*0.5+F33*0.25</f>
+      <c r="G33" s="9">
+        <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="1"/>
-        <v>28.5</v>
+        <f t="shared" si="2"/>
+        <v>61.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -2835,8 +3615,8 @@
       <c r="F34">
         <v>85</v>
       </c>
-      <c r="G34" s="11">
-        <f>D34*0.25+E34*0.5+F34*0.25</f>
+      <c r="G34" s="9">
+        <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
       <c r="H34">
@@ -2845,12 +3625,12 @@
       <c r="I34">
         <v>39</v>
       </c>
-      <c r="J34" s="15">
-        <f t="shared" si="0"/>
+      <c r="J34" s="13">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.900000000000006</v>
       </c>
     </row>
@@ -2873,20 +3653,23 @@
       <c r="F35">
         <v>80</v>
       </c>
-      <c r="G35" s="11">
-        <f>D35*0.25+E35*0.5+F35*0.25</f>
+      <c r="G35" s="9">
+        <f t="shared" ref="G35:G66" si="3">D35*0.25+E35*0.5+F35*0.25</f>
         <v>73.75</v>
       </c>
       <c r="H35">
         <v>37.5</v>
       </c>
-      <c r="J35" s="15">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" ref="J35:J66" si="4">H35+I35</f>
+        <v>67.5</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" ref="K35:K66" si="5">(G35*0.4)+(J35*0.6)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2908,20 +3691,23 @@
       <c r="F36">
         <v>100</v>
       </c>
-      <c r="G36" s="11">
-        <f>D36*0.25+E36*0.5+F36*0.25</f>
+      <c r="G36" s="9">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H36">
         <v>45</v>
       </c>
-      <c r="J36" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I36">
+        <v>29</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -2940,8 +3726,8 @@
       <c r="F37">
         <v>60</v>
       </c>
-      <c r="G37" s="11">
-        <f>D37*0.25+E37*0.5+F37*0.25</f>
+      <c r="G37" s="9">
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="H37">
@@ -2950,12 +3736,12 @@
       <c r="I37">
         <v>5</v>
       </c>
-      <c r="J37" s="15">
-        <f t="shared" si="0"/>
+      <c r="J37" s="13">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
     </row>
@@ -2978,8 +3764,8 @@
       <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="11">
-        <f>D38*0.25+E38*0.5+F38*0.25</f>
+      <c r="G38" s="9">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="H38">
@@ -2988,12 +3774,12 @@
       <c r="I38">
         <v>29</v>
       </c>
-      <c r="J38" s="15">
-        <f t="shared" si="0"/>
+      <c r="J38" s="13">
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69.900000000000006</v>
       </c>
     </row>
@@ -3016,20 +3802,23 @@
       <c r="F39">
         <v>100</v>
       </c>
-      <c r="G39" s="11">
-        <f>D39*0.25+E39*0.5+F39*0.25</f>
+      <c r="G39" s="9">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="H39">
         <v>50</v>
       </c>
-      <c r="J39" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="I39">
+        <v>45</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="5"/>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3045,23 +3834,23 @@
       <c r="E40">
         <v>95</v>
       </c>
-      <c r="G40" s="11">
-        <f>D40*0.25+E40*0.5+F40*0.25</f>
+      <c r="G40" s="9">
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="H40">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="I40">
         <v>30</v>
       </c>
-      <c r="J40" s="15">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>59.5</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3083,8 +3872,8 @@
       <c r="F41">
         <v>90</v>
       </c>
-      <c r="G41" s="11">
-        <f>D41*0.25+E41*0.5+F41*0.25</f>
+      <c r="G41" s="9">
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H41">
@@ -3093,12 +3882,12 @@
       <c r="I41">
         <v>25</v>
       </c>
-      <c r="J41" s="15">
-        <f t="shared" si="0"/>
+      <c r="J41" s="13">
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
     </row>
@@ -3115,23 +3904,26 @@
       <c r="E42">
         <v>75</v>
       </c>
-      <c r="G42" s="11">
-        <f>D42*0.25+E42*0.5+F42*0.25</f>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3153,20 +3945,23 @@
       <c r="F43">
         <v>90</v>
       </c>
-      <c r="G43" s="11">
-        <f>D43*0.25+E43*0.5+F43*0.25</f>
+      <c r="G43" s="9">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H43">
         <v>45</v>
       </c>
-      <c r="J43" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I43">
+        <v>44</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="5"/>
+        <v>89.4</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -3188,8 +3983,8 @@
       <c r="F44">
         <v>85</v>
       </c>
-      <c r="G44" s="11">
-        <f>D44*0.25+E44*0.5+F44*0.25</f>
+      <c r="G44" s="9">
+        <f t="shared" si="3"/>
         <v>88.75</v>
       </c>
       <c r="H44">
@@ -3198,12 +3993,12 @@
       <c r="I44">
         <v>22</v>
       </c>
-      <c r="J44" s="15">
-        <f t="shared" si="0"/>
+      <c r="J44" s="13">
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>75.699999999999989</v>
       </c>
     </row>
@@ -3226,20 +4021,23 @@
       <c r="F45">
         <v>100</v>
       </c>
-      <c r="G45" s="11">
-        <f>D45*0.25+E45*0.5+F45*0.25</f>
+      <c r="G45" s="9">
+        <f t="shared" si="3"/>
         <v>86.25</v>
       </c>
       <c r="H45">
         <v>37.5</v>
       </c>
-      <c r="J45" s="15">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+      <c r="I45">
+        <v>12</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="4"/>
+        <v>49.5</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>64.2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,20 +4059,23 @@
       <c r="F46">
         <v>95</v>
       </c>
-      <c r="G46" s="11">
-        <f>D46*0.25+E46*0.5+F46*0.25</f>
+      <c r="G46" s="9">
+        <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
       <c r="H46">
         <v>37.5</v>
       </c>
-      <c r="J46" s="15">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46" s="13">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3296,8 +4097,8 @@
       <c r="F47">
         <v>60</v>
       </c>
-      <c r="G47" s="11">
-        <f>D47*0.25+E47*0.5+F47*0.25</f>
+      <c r="G47" s="9">
+        <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
       <c r="H47">
@@ -3306,12 +4107,12 @@
       <c r="I47">
         <v>15</v>
       </c>
-      <c r="J47" s="15">
-        <f t="shared" si="0"/>
+      <c r="J47" s="13">
+        <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
     </row>
@@ -3334,8 +4135,8 @@
       <c r="F48">
         <v>55</v>
       </c>
-      <c r="G48" s="11">
-        <f>D48*0.25+E48*0.5+F48*0.25</f>
+      <c r="G48" s="9">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="H48">
@@ -3344,12 +4145,12 @@
       <c r="I48">
         <v>31</v>
       </c>
-      <c r="J48" s="15">
-        <f t="shared" si="0"/>
+      <c r="J48" s="13">
+        <f t="shared" si="4"/>
         <v>73.5</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>74.099999999999994</v>
       </c>
     </row>
@@ -3372,20 +4173,23 @@
       <c r="F49">
         <v>90</v>
       </c>
-      <c r="G49" s="11">
-        <f>D49*0.25+E49*0.5+F49*0.25</f>
+      <c r="G49" s="9">
+        <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
       <c r="H49">
         <v>50</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="I49">
+        <v>36</v>
+      </c>
+      <c r="J49" s="13">
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="K49" s="4">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <f t="shared" si="5"/>
+        <v>84.1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -3407,8 +4211,8 @@
       <c r="F50">
         <v>80</v>
       </c>
-      <c r="G50" s="11">
-        <f>D50*0.25+E50*0.5+F50*0.25</f>
+      <c r="G50" s="9">
+        <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
       <c r="H50">
@@ -3417,12 +4221,12 @@
       <c r="I50">
         <v>19</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="0"/>
+      <c r="J50" s="13">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="K50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70.900000000000006</v>
       </c>
     </row>
@@ -3445,8 +4249,8 @@
       <c r="F51">
         <v>85</v>
       </c>
-      <c r="G51" s="11">
-        <f>D51*0.25+E51*0.5+F51*0.25</f>
+      <c r="G51" s="9">
+        <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
       <c r="H51">
@@ -3455,12 +4259,12 @@
       <c r="I51">
         <v>43</v>
       </c>
-      <c r="J51" s="15">
-        <f t="shared" si="0"/>
+      <c r="J51" s="13">
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="K51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>66.3</v>
       </c>
     </row>
@@ -3483,8 +4287,8 @@
       <c r="F52">
         <v>55</v>
       </c>
-      <c r="G52" s="11">
-        <f>D52*0.25+E52*0.5+F52*0.25</f>
+      <c r="G52" s="9">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H52">
@@ -3493,12 +4297,12 @@
       <c r="I52">
         <v>29</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="0"/>
+      <c r="J52" s="13">
+        <f t="shared" si="4"/>
         <v>71.5</v>
       </c>
       <c r="K52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -3521,8 +4325,8 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="G53" s="11">
-        <f>D53*0.25+E53*0.5+F53*0.25</f>
+      <c r="G53" s="9">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="H53">
@@ -3531,12 +4335,12 @@
       <c r="I53">
         <v>17</v>
       </c>
-      <c r="J53" s="15">
-        <f t="shared" si="0"/>
+      <c r="J53" s="13">
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="K53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>62.199999999999996</v>
       </c>
     </row>
@@ -3556,20 +4360,23 @@
       <c r="F54">
         <v>55</v>
       </c>
-      <c r="G54" s="11">
-        <f>D54*0.25+E54*0.5+F54*0.25</f>
+      <c r="G54" s="9">
+        <f t="shared" si="3"/>
         <v>48.75</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+      <c r="J54" s="13">
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="K54" s="4">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
+        <f t="shared" si="5"/>
+        <v>47.7</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -3591,20 +4398,23 @@
       <c r="F55">
         <v>100</v>
       </c>
-      <c r="G55" s="11">
-        <f>D55*0.25+E55*0.5+F55*0.25</f>
+      <c r="G55" s="9">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H55">
         <v>44</v>
       </c>
-      <c r="J55" s="15">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55" s="13">
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="K55" s="4">
-        <f t="shared" si="1"/>
-        <v>58.4</v>
+        <f t="shared" si="5"/>
+        <v>88.4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -3626,20 +4436,23 @@
       <c r="F56">
         <v>100</v>
       </c>
-      <c r="G56" s="11">
-        <f>D56*0.25+E56*0.5+F56*0.25</f>
+      <c r="G56" s="9">
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="H56">
         <v>45</v>
       </c>
-      <c r="J56" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I56">
+        <v>47</v>
+      </c>
+      <c r="J56" s="13">
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>89.199999999999989</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -3652,19 +4465,19 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="11">
-        <f>D57*0.25+E57*0.5+F57*0.25</f>
+      <c r="G57" s="9">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="J57" s="15">
-        <f t="shared" si="0"/>
+      <c r="J57" s="13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3687,8 +4500,8 @@
       <c r="F58">
         <v>85</v>
       </c>
-      <c r="G58" s="11">
-        <f>D58*0.25+E58*0.5+F58*0.25</f>
+      <c r="G58" s="9">
+        <f t="shared" si="3"/>
         <v>91.25</v>
       </c>
       <c r="H58">
@@ -3697,12 +4510,12 @@
       <c r="I58">
         <v>25</v>
       </c>
-      <c r="J58" s="15">
-        <f t="shared" si="0"/>
+      <c r="J58" s="13">
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78.5</v>
       </c>
     </row>
@@ -3725,20 +4538,23 @@
       <c r="F59">
         <v>55</v>
       </c>
-      <c r="G59" s="11">
-        <f>D59*0.25+E59*0.5+F59*0.25</f>
+      <c r="G59" s="9">
+        <f t="shared" si="3"/>
         <v>71.25</v>
       </c>
       <c r="H59">
         <v>42.5</v>
       </c>
-      <c r="J59" s="15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59" s="13">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -3760,20 +4576,23 @@
       <c r="F60">
         <v>55</v>
       </c>
-      <c r="G60" s="11">
-        <f>D60*0.25+E60*0.5+F60*0.25</f>
+      <c r="G60" s="9">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="H60">
         <v>40</v>
       </c>
-      <c r="J60" s="15">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60" s="13">
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
       <c r="K60" s="4">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>49.2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -3792,20 +4611,23 @@
       <c r="F61">
         <v>85</v>
       </c>
-      <c r="G61" s="11">
-        <f>D61*0.25+E61*0.5+F61*0.25</f>
+      <c r="G61" s="9">
+        <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
       <c r="H61">
         <v>22.5</v>
       </c>
-      <c r="J61" s="15">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+      <c r="I61">
+        <v>31</v>
+      </c>
+      <c r="J61" s="13">
+        <f t="shared" si="4"/>
+        <v>53.5</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>53.6</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3827,20 +4649,23 @@
       <c r="F62">
         <v>95</v>
       </c>
-      <c r="G62" s="11">
-        <f>D62*0.25+E62*0.5+F62*0.25</f>
+      <c r="G62" s="9">
+        <f t="shared" si="3"/>
         <v>83.75</v>
       </c>
       <c r="H62">
         <v>45</v>
       </c>
-      <c r="J62" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I62">
+        <v>47</v>
+      </c>
+      <c r="J62" s="13">
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="1"/>
-        <v>60.5</v>
+        <f t="shared" si="5"/>
+        <v>88.699999999999989</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -3862,20 +4687,23 @@
       <c r="F63">
         <v>85</v>
       </c>
-      <c r="G63" s="11">
-        <f>D63*0.25+E63*0.5+F63*0.25</f>
+      <c r="G63" s="9">
+        <f t="shared" si="3"/>
         <v>61.25</v>
       </c>
       <c r="H63">
         <v>42.5</v>
       </c>
-      <c r="J63" s="15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
+      <c r="I63">
+        <v>23</v>
+      </c>
+      <c r="J63" s="13">
+        <f t="shared" si="4"/>
+        <v>65.5</v>
       </c>
       <c r="K63" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>63.8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -3897,23 +4725,23 @@
       <c r="F64">
         <v>55</v>
       </c>
-      <c r="G64" s="11">
-        <f>D64*0.25+E64*0.5+F64*0.25</f>
+      <c r="G64" s="9">
+        <f t="shared" si="3"/>
         <v>66.25</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I64">
         <v>11</v>
       </c>
-      <c r="J64" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="J64" s="13">
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="1"/>
-        <v>33.1</v>
+        <f t="shared" si="5"/>
+        <v>48.7</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3935,8 +4763,8 @@
       <c r="F65">
         <v>100</v>
       </c>
-      <c r="G65" s="11">
-        <f>D65*0.25+E65*0.5+F65*0.25</f>
+      <c r="G65" s="9">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="H65">
@@ -3945,12 +4773,12 @@
       <c r="I65">
         <v>34</v>
       </c>
-      <c r="J65" s="15">
-        <f t="shared" si="0"/>
+      <c r="J65" s="13">
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>83.4</v>
       </c>
     </row>
@@ -3973,20 +4801,23 @@
       <c r="F66">
         <v>90</v>
       </c>
-      <c r="G66" s="11">
-        <f>D66*0.25+E66*0.5+F66*0.25</f>
+      <c r="G66" s="9">
+        <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
       <c r="H66">
         <v>45</v>
       </c>
-      <c r="J66" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="I66">
+        <v>33</v>
+      </c>
+      <c r="J66" s="13">
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>79.8</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4008,20 +4839,23 @@
       <c r="F67">
         <v>90</v>
       </c>
-      <c r="G67" s="11">
-        <f>D67*0.25+E67*0.5+F67*0.25</f>
+      <c r="G67" s="9">
+        <f t="shared" ref="G67:G98" si="6">D67*0.25+E67*0.5+F67*0.25</f>
         <v>76.25</v>
       </c>
       <c r="H67">
         <v>37.5</v>
       </c>
-      <c r="J67" s="15">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
+      <c r="I67">
+        <v>32</v>
+      </c>
+      <c r="J67" s="13">
+        <f t="shared" ref="J67:J98" si="7">H67+I67</f>
+        <v>69.5</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" ref="K67:K98" si="8">(G67*0.4)+(J67*0.6)</f>
+        <v>72.199999999999989</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4040,19 +4874,19 @@
       <c r="F68">
         <v>95</v>
       </c>
-      <c r="G68" s="11">
-        <f>D68*0.25+E68*0.5+F68*0.25</f>
+      <c r="G68" s="9">
+        <f t="shared" si="6"/>
         <v>53.75</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="J68" s="15">
-        <f t="shared" ref="J68:J117" si="2">H68+I68</f>
+      <c r="J68" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" ref="K68:K117" si="3">(G68*0.4)+(J68*0.6)</f>
+        <f t="shared" si="8"/>
         <v>21.5</v>
       </c>
     </row>
@@ -4075,20 +4909,23 @@
       <c r="F69">
         <v>100</v>
       </c>
-      <c r="G69" s="11">
-        <f>D69*0.25+E69*0.5+F69*0.25</f>
+      <c r="G69" s="9">
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="H69">
         <v>50</v>
       </c>
-      <c r="J69" s="15">
-        <f t="shared" si="2"/>
-        <v>50</v>
+      <c r="I69">
+        <v>42</v>
+      </c>
+      <c r="J69" s="13">
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" si="3"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>89.199999999999989</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4110,20 +4947,23 @@
       <c r="F70">
         <v>90</v>
       </c>
-      <c r="G70" s="11">
-        <f>D70*0.25+E70*0.5+F70*0.25</f>
+      <c r="G70" s="9">
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
       <c r="H70">
         <v>22.5</v>
       </c>
-      <c r="J70" s="15">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
+      <c r="I70">
+        <v>37</v>
+      </c>
+      <c r="J70" s="13">
+        <f t="shared" si="7"/>
+        <v>59.5</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" si="3"/>
-        <v>46.5</v>
+        <f t="shared" si="8"/>
+        <v>68.699999999999989</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4136,15 +4976,18 @@
       <c r="C71" t="s">
         <v>209</v>
       </c>
+      <c r="D71">
+        <v>85</v>
+      </c>
       <c r="E71">
         <v>90</v>
       </c>
       <c r="F71">
         <v>85</v>
       </c>
-      <c r="G71" s="11">
-        <f>D71*0.25+E71*0.5+F71*0.25</f>
-        <v>66.25</v>
+      <c r="G71" s="9">
+        <f t="shared" si="6"/>
+        <v>87.5</v>
       </c>
       <c r="H71">
         <v>42.5</v>
@@ -4152,13 +4995,13 @@
       <c r="I71">
         <v>9</v>
       </c>
-      <c r="J71" s="15">
-        <f t="shared" si="2"/>
+      <c r="J71" s="13">
+        <f t="shared" si="7"/>
         <v>51.5</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" si="3"/>
-        <v>57.4</v>
+        <f t="shared" si="8"/>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -4180,20 +5023,23 @@
       <c r="F72">
         <v>95</v>
       </c>
-      <c r="G72" s="11">
-        <f>D72*0.25+E72*0.5+F72*0.25</f>
+      <c r="G72" s="9">
+        <f t="shared" si="6"/>
         <v>83.75</v>
       </c>
       <c r="H72">
         <v>45</v>
       </c>
-      <c r="J72" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I72">
+        <v>29</v>
+      </c>
+      <c r="J72" s="13">
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" si="3"/>
-        <v>60.5</v>
+        <f t="shared" si="8"/>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -4215,8 +5061,8 @@
       <c r="F73">
         <v>80</v>
       </c>
-      <c r="G73" s="11">
-        <f>D73*0.25+E73*0.5+F73*0.25</f>
+      <c r="G73" s="9">
+        <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
       <c r="H73">
@@ -4225,12 +5071,12 @@
       <c r="I73">
         <v>29</v>
       </c>
-      <c r="J73" s="15">
-        <f t="shared" si="2"/>
+      <c r="J73" s="13">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>82.4</v>
       </c>
     </row>
@@ -4253,20 +5099,23 @@
       <c r="F74">
         <v>100</v>
       </c>
-      <c r="G74" s="11">
-        <f>D74*0.25+E74*0.5+F74*0.25</f>
+      <c r="G74" s="9">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="H74">
         <v>45</v>
       </c>
-      <c r="J74" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I74">
+        <v>34</v>
+      </c>
+      <c r="J74" s="13">
+        <f t="shared" si="7"/>
+        <v>79</v>
       </c>
       <c r="K74" s="4">
-        <f t="shared" si="3"/>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>83.4</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4288,8 +5137,8 @@
       <c r="F75">
         <v>90</v>
       </c>
-      <c r="G75" s="11">
-        <f>D75*0.25+E75*0.5+F75*0.25</f>
+      <c r="G75" s="9">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="H75">
@@ -4298,12 +5147,12 @@
       <c r="I75">
         <v>21</v>
       </c>
-      <c r="J75" s="15">
-        <f t="shared" si="2"/>
+      <c r="J75" s="13">
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="K75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>71.599999999999994</v>
       </c>
     </row>
@@ -4317,19 +5166,19 @@
       <c r="C76" t="s">
         <v>224</v>
       </c>
-      <c r="G76" s="11">
-        <f>D76*0.25+E76*0.5+F76*0.25</f>
+      <c r="G76" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="J76" s="15">
-        <f t="shared" si="2"/>
+      <c r="J76" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4346,20 +5195,23 @@
       <c r="E77">
         <v>60</v>
       </c>
-      <c r="G77" s="11">
-        <f>D77*0.25+E77*0.5+F77*0.25</f>
+      <c r="G77" s="9">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H77">
         <v>70</v>
       </c>
-      <c r="J77" s="15">
-        <f t="shared" si="2"/>
-        <v>70</v>
+      <c r="I77">
+        <v>24</v>
+      </c>
+      <c r="J77" s="13">
+        <f t="shared" si="7"/>
+        <v>94</v>
       </c>
       <c r="K77" s="4">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f t="shared" si="8"/>
+        <v>68.400000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -4381,20 +5233,23 @@
       <c r="F78">
         <v>100</v>
       </c>
-      <c r="G78" s="11">
-        <f>D78*0.25+E78*0.5+F78*0.25</f>
+      <c r="G78" s="9">
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="H78">
         <v>45</v>
       </c>
-      <c r="J78" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I78">
+        <v>26</v>
+      </c>
+      <c r="J78" s="13">
+        <f t="shared" si="7"/>
+        <v>71</v>
       </c>
       <c r="K78" s="4">
-        <f t="shared" si="3"/>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -4410,19 +5265,19 @@
       <c r="E79">
         <v>40</v>
       </c>
-      <c r="G79" s="11">
-        <f>D79*0.25+E79*0.5+F79*0.25</f>
+      <c r="G79" s="9">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="J79" s="15">
-        <f t="shared" si="2"/>
+      <c r="J79" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -4445,20 +5300,23 @@
       <c r="F80">
         <v>80</v>
       </c>
-      <c r="G80" s="11">
-        <f>D80*0.25+E80*0.5+F80*0.25</f>
+      <c r="G80" s="9">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="H80">
         <v>40</v>
       </c>
-      <c r="J80" s="15">
-        <f t="shared" si="2"/>
-        <v>40</v>
+      <c r="I80">
+        <v>25</v>
+      </c>
+      <c r="J80" s="13">
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="K80" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -4480,20 +5338,23 @@
       <c r="F81">
         <v>100</v>
       </c>
-      <c r="G81" s="11">
-        <f>D81*0.25+E81*0.5+F81*0.25</f>
+      <c r="G81" s="9">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="H81">
         <v>45</v>
       </c>
-      <c r="J81" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I81">
+        <v>40</v>
+      </c>
+      <c r="J81" s="13">
+        <f t="shared" si="7"/>
+        <v>85</v>
       </c>
       <c r="K81" s="4">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f t="shared" si="8"/>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -4515,20 +5376,23 @@
       <c r="F82">
         <v>95</v>
       </c>
-      <c r="G82" s="11">
-        <f>D82*0.25+E82*0.5+F82*0.25</f>
+      <c r="G82" s="9">
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
       <c r="H82">
         <v>45</v>
       </c>
-      <c r="J82" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I82">
+        <v>47</v>
+      </c>
+      <c r="J82" s="13">
+        <f t="shared" si="7"/>
+        <v>92</v>
       </c>
       <c r="K82" s="4">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>88.199999999999989</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -4541,19 +5405,19 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="11">
-        <f>D83*0.25+E83*0.5+F83*0.25</f>
+      <c r="G83" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="J83" s="15">
-        <f t="shared" si="2"/>
+      <c r="J83" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4576,8 +5440,8 @@
       <c r="F84">
         <v>70</v>
       </c>
-      <c r="G84" s="11">
-        <f>D84*0.25+E84*0.5+F84*0.25</f>
+      <c r="G84" s="9">
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
       <c r="H84">
@@ -4586,12 +5450,12 @@
       <c r="I84">
         <v>33</v>
       </c>
-      <c r="J84" s="15">
-        <f t="shared" si="2"/>
+      <c r="J84" s="13">
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="K84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.8</v>
       </c>
     </row>
@@ -4614,20 +5478,23 @@
       <c r="F85">
         <v>85</v>
       </c>
-      <c r="G85" s="11">
-        <f>D85*0.25+E85*0.5+F85*0.25</f>
+      <c r="G85" s="9">
+        <f t="shared" si="6"/>
         <v>76.25</v>
       </c>
       <c r="H85">
         <v>42.5</v>
       </c>
-      <c r="J85" s="15">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+      <c r="I85">
+        <v>24</v>
+      </c>
+      <c r="J85" s="13">
+        <f t="shared" si="7"/>
+        <v>66.5</v>
       </c>
       <c r="K85" s="4">
-        <f t="shared" si="3"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -4649,23 +5516,23 @@
       <c r="F86">
         <v>45</v>
       </c>
-      <c r="G86" s="11">
-        <f>D86*0.25+E86*0.5+F86*0.25</f>
+      <c r="G86" s="9">
+        <f t="shared" si="6"/>
         <v>38.75</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J86" s="13">
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="K86" s="4">
-        <f t="shared" si="3"/>
-        <v>15.5</v>
+        <f t="shared" si="8"/>
+        <v>33.5</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -4681,23 +5548,23 @@
       <c r="E87">
         <v>60</v>
       </c>
-      <c r="G87" s="11">
-        <f>D87*0.25+E87*0.5+F87*0.25</f>
+      <c r="G87" s="9">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H87">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I87">
         <v>42</v>
       </c>
-      <c r="J87" s="15">
-        <f t="shared" si="2"/>
-        <v>77</v>
+      <c r="J87" s="13">
+        <f t="shared" si="7"/>
+        <v>82</v>
       </c>
       <c r="K87" s="4">
-        <f t="shared" si="3"/>
-        <v>58.199999999999996</v>
+        <f t="shared" si="8"/>
+        <v>61.199999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -4719,20 +5586,23 @@
       <c r="F88">
         <v>95</v>
       </c>
-      <c r="G88" s="11">
-        <f>D88*0.25+E88*0.5+F88*0.25</f>
+      <c r="G88" s="9">
+        <f t="shared" si="6"/>
         <v>76.25</v>
       </c>
       <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+      <c r="J88" s="13">
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="K88" s="4">
-        <f t="shared" si="3"/>
-        <v>30.5</v>
+        <f t="shared" si="8"/>
+        <v>60.5</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4754,8 +5624,8 @@
       <c r="F89">
         <v>75</v>
       </c>
-      <c r="G89" s="11">
-        <f>D89*0.25+E89*0.5+F89*0.25</f>
+      <c r="G89" s="9">
+        <f t="shared" si="6"/>
         <v>63.75</v>
       </c>
       <c r="H89">
@@ -4764,12 +5634,12 @@
       <c r="I89">
         <v>3</v>
       </c>
-      <c r="J89" s="15">
-        <f t="shared" si="2"/>
+      <c r="J89" s="13">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>27.3</v>
       </c>
     </row>
@@ -4792,20 +5662,23 @@
       <c r="F90">
         <v>85</v>
       </c>
-      <c r="G90" s="11">
-        <f>D90*0.25+E90*0.5+F90*0.25</f>
+      <c r="G90" s="9">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="H90">
         <v>40</v>
       </c>
-      <c r="J90" s="15">
-        <f t="shared" si="2"/>
-        <v>40</v>
+      <c r="I90">
+        <v>26</v>
+      </c>
+      <c r="J90" s="13">
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="K90" s="4">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>64.599999999999994</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4821,19 +5694,19 @@
       <c r="E91">
         <v>35</v>
       </c>
-      <c r="G91" s="11">
-        <f>D91*0.25+E91*0.5+F91*0.25</f>
+      <c r="G91" s="9">
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="J91" s="15">
-        <f t="shared" si="2"/>
+      <c r="J91" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -4856,20 +5729,23 @@
       <c r="F92">
         <v>90</v>
       </c>
-      <c r="G92" s="11">
-        <f>D92*0.25+E92*0.5+F92*0.25</f>
+      <c r="G92" s="9">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="H92">
         <v>42.5</v>
       </c>
-      <c r="J92" s="15">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+      <c r="I92">
+        <v>30</v>
+      </c>
+      <c r="J92" s="13">
+        <f t="shared" si="7"/>
+        <v>72.5</v>
       </c>
       <c r="K92" s="4">
-        <f t="shared" si="3"/>
-        <v>57.5</v>
+        <f t="shared" si="8"/>
+        <v>75.5</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4891,8 +5767,8 @@
       <c r="F93">
         <v>90</v>
       </c>
-      <c r="G93" s="11">
-        <f>D93*0.25+E93*0.5+F93*0.25</f>
+      <c r="G93" s="9">
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
       <c r="H93">
@@ -4901,12 +5777,12 @@
       <c r="I93">
         <v>24</v>
       </c>
-      <c r="J93" s="15">
-        <f t="shared" si="2"/>
+      <c r="J93" s="13">
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="K93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>81.400000000000006</v>
       </c>
     </row>
@@ -4929,20 +5805,23 @@
       <c r="F94">
         <v>100</v>
       </c>
-      <c r="G94" s="11">
-        <f>D94*0.25+E94*0.5+F94*0.25</f>
+      <c r="G94" s="9">
+        <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
       <c r="H94">
-        <v>45</v>
-      </c>
-      <c r="J94" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="I94">
+        <v>38</v>
+      </c>
+      <c r="J94" s="13">
+        <f t="shared" si="7"/>
+        <v>88</v>
       </c>
       <c r="K94" s="4">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>87.8</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -4958,19 +5837,19 @@
       <c r="E95">
         <v>50</v>
       </c>
-      <c r="G95" s="11">
-        <f>D95*0.25+E95*0.5+F95*0.25</f>
+      <c r="G95" s="9">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="J95" s="15">
-        <f t="shared" si="2"/>
+      <c r="J95" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -4993,20 +5872,23 @@
       <c r="F96">
         <v>100</v>
       </c>
-      <c r="G96" s="11">
-        <f>D96*0.25+E96*0.5+F96*0.25</f>
+      <c r="G96" s="9">
+        <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
       <c r="H96">
         <v>50</v>
       </c>
-      <c r="J96" s="15">
-        <f t="shared" si="2"/>
-        <v>50</v>
+      <c r="I96">
+        <v>48</v>
+      </c>
+      <c r="J96" s="13">
+        <f t="shared" si="7"/>
+        <v>98</v>
       </c>
       <c r="K96" s="4">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="8"/>
+        <v>93.8</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -5020,7 +5902,7 @@
         <v>287</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -5028,20 +5910,23 @@
       <c r="F97">
         <v>85</v>
       </c>
-      <c r="G97" s="11">
-        <f>D97*0.25+E97*0.5+F97*0.25</f>
-        <v>51.25</v>
+      <c r="G97" s="9">
+        <f t="shared" si="6"/>
+        <v>68.75</v>
       </c>
       <c r="H97">
         <v>42.5</v>
       </c>
-      <c r="J97" s="15">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+      <c r="I97">
+        <v>34</v>
+      </c>
+      <c r="J97" s="13">
+        <f t="shared" si="7"/>
+        <v>76.5</v>
       </c>
       <c r="K97" s="4">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>73.400000000000006</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5054,19 +5939,19 @@
       <c r="C98" t="s">
         <v>290</v>
       </c>
-      <c r="G98" s="11">
-        <f>D98*0.25+E98*0.5+F98*0.25</f>
+      <c r="G98" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="J98" s="15">
-        <f t="shared" si="2"/>
+      <c r="J98" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5089,8 +5974,8 @@
       <c r="F99">
         <v>55</v>
       </c>
-      <c r="G99" s="11">
-        <f>D99*0.25+E99*0.5+F99*0.25</f>
+      <c r="G99" s="9">
+        <f t="shared" ref="G99:G130" si="9">D99*0.25+E99*0.5+F99*0.25</f>
         <v>75</v>
       </c>
       <c r="H99">
@@ -5099,12 +5984,12 @@
       <c r="I99">
         <v>16</v>
       </c>
-      <c r="J99" s="15">
-        <f t="shared" si="2"/>
+      <c r="J99" s="13">
+        <f t="shared" ref="J99:J130" si="10">H99+I99</f>
         <v>58.5</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K99:K130" si="11">(G99*0.4)+(J99*0.6)</f>
         <v>65.099999999999994</v>
       </c>
     </row>
@@ -5127,19 +6012,19 @@
       <c r="F100">
         <v>55</v>
       </c>
-      <c r="G100" s="11">
-        <f>D100*0.25+E100*0.5+F100*0.25</f>
+      <c r="G100" s="9">
+        <f t="shared" si="9"/>
         <v>63.75</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="J100" s="15">
-        <f t="shared" si="2"/>
+      <c r="J100" s="13">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>25.5</v>
       </c>
     </row>
@@ -5156,20 +6041,20 @@
       <c r="E101">
         <v>100</v>
       </c>
-      <c r="G101" s="11">
-        <f>D101*0.25+E101*0.5+F101*0.25</f>
+      <c r="G101" s="9">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="J101" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="J101" s="13">
+        <f t="shared" si="10"/>
+        <v>40</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -5191,23 +6076,23 @@
       <c r="F102">
         <v>85</v>
       </c>
-      <c r="G102" s="11">
-        <f>D102*0.25+E102*0.5+F102*0.25</f>
+      <c r="G102" s="9">
+        <f t="shared" si="9"/>
         <v>71.25</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I102">
         <v>4</v>
       </c>
-      <c r="J102" s="15">
-        <f t="shared" si="2"/>
-        <v>4</v>
+      <c r="J102" s="13">
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="K102" s="4">
-        <f t="shared" si="3"/>
-        <v>30.9</v>
+        <f t="shared" si="11"/>
+        <v>45.9</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -5229,20 +6114,23 @@
       <c r="F103">
         <v>85</v>
       </c>
-      <c r="G103" s="11">
-        <f>D103*0.25+E103*0.5+F103*0.25</f>
+      <c r="G103" s="9">
+        <f t="shared" si="9"/>
         <v>83.75</v>
       </c>
       <c r="H103">
         <v>42.5</v>
       </c>
-      <c r="J103" s="15">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+      <c r="I103">
+        <v>37</v>
+      </c>
+      <c r="J103" s="13">
+        <f t="shared" si="10"/>
+        <v>79.5</v>
       </c>
       <c r="K103" s="4">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f t="shared" si="11"/>
+        <v>81.199999999999989</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -5258,20 +6146,26 @@
       <c r="E104">
         <v>65</v>
       </c>
-      <c r="G104" s="11">
-        <f>D104*0.25+E104*0.5+F104*0.25</f>
-        <v>32.5</v>
+      <c r="F104">
+        <v>60</v>
+      </c>
+      <c r="G104" s="9">
+        <f t="shared" si="9"/>
+        <v>47.5</v>
       </c>
       <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="J104" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I104">
+        <v>17</v>
+      </c>
+      <c r="J104" s="13">
+        <f t="shared" si="10"/>
+        <v>57</v>
       </c>
       <c r="K104" s="4">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>53.199999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -5293,20 +6187,23 @@
       <c r="F105">
         <v>85</v>
       </c>
-      <c r="G105" s="11">
-        <f>D105*0.25+E105*0.5+F105*0.25</f>
+      <c r="G105" s="9">
+        <f t="shared" si="9"/>
         <v>68.75</v>
       </c>
       <c r="H105">
         <v>40</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="2"/>
-        <v>40</v>
+      <c r="I105">
+        <v>35</v>
+      </c>
+      <c r="J105" s="13">
+        <f t="shared" si="10"/>
+        <v>75</v>
       </c>
       <c r="K105" s="4">
-        <f t="shared" si="3"/>
-        <v>51.5</v>
+        <f t="shared" si="11"/>
+        <v>72.5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -5319,34 +6216,37 @@
       <c r="C106" t="s">
         <v>314</v>
       </c>
+      <c r="D106">
+        <v>80</v>
+      </c>
       <c r="E106">
         <v>85</v>
       </c>
       <c r="F106">
         <v>75</v>
       </c>
-      <c r="G106" s="11">
-        <f>D106*0.25+E106*0.5+F106*0.25</f>
-        <v>61.25</v>
+      <c r="G106" s="9">
+        <f t="shared" si="9"/>
+        <v>81.25</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I106">
         <v>28</v>
       </c>
-      <c r="J106" s="15">
-        <f t="shared" si="2"/>
-        <v>28</v>
+      <c r="J106" s="13">
+        <f t="shared" si="10"/>
+        <v>58</v>
       </c>
       <c r="K106" s="4">
-        <f t="shared" si="3"/>
-        <v>41.3</v>
+        <f t="shared" si="11"/>
+        <v>67.3</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
         <v>315</v>
@@ -5363,20 +6263,23 @@
       <c r="F107">
         <v>100</v>
       </c>
-      <c r="G107" s="11">
-        <f>D107*0.25+E107*0.5+F107*0.25</f>
+      <c r="G107" s="9">
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="H107">
         <v>45</v>
       </c>
-      <c r="J107" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I107">
+        <v>36</v>
+      </c>
+      <c r="J107" s="13">
+        <f t="shared" si="10"/>
+        <v>81</v>
       </c>
       <c r="K107" s="4">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="11"/>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -5398,20 +6301,23 @@
       <c r="F108">
         <v>95</v>
       </c>
-      <c r="G108" s="11">
-        <f>D108*0.25+E108*0.5+F108*0.25</f>
+      <c r="G108" s="9">
+        <f t="shared" si="9"/>
         <v>73.75</v>
       </c>
       <c r="H108">
         <v>40</v>
       </c>
-      <c r="J108" s="15">
-        <f t="shared" si="2"/>
-        <v>40</v>
+      <c r="I108">
+        <v>32</v>
+      </c>
+      <c r="J108" s="13">
+        <f t="shared" si="10"/>
+        <v>72</v>
       </c>
       <c r="K108" s="4">
-        <f t="shared" si="3"/>
-        <v>53.5</v>
+        <f t="shared" si="11"/>
+        <v>72.699999999999989</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -5433,20 +6339,23 @@
       <c r="F109">
         <v>85</v>
       </c>
-      <c r="G109" s="11">
-        <f>D109*0.25+E109*0.5+F109*0.25</f>
+      <c r="G109" s="9">
+        <f t="shared" si="9"/>
         <v>81.25</v>
       </c>
       <c r="H109">
         <v>37.5</v>
       </c>
-      <c r="J109" s="15">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
+      <c r="I109">
+        <v>26</v>
+      </c>
+      <c r="J109" s="13">
+        <f t="shared" si="10"/>
+        <v>63.5</v>
       </c>
       <c r="K109" s="4">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="11"/>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -5465,20 +6374,23 @@
       <c r="F110">
         <v>100</v>
       </c>
-      <c r="G110" s="11">
-        <f>D110*0.25+E110*0.5+F110*0.25</f>
+      <c r="G110" s="9">
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="H110">
         <v>22.5</v>
       </c>
-      <c r="J110" s="15">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
+      <c r="I110">
+        <v>29</v>
+      </c>
+      <c r="J110" s="13">
+        <f t="shared" si="10"/>
+        <v>51.5</v>
       </c>
       <c r="K110" s="4">
-        <f t="shared" si="3"/>
-        <v>35.5</v>
+        <f t="shared" si="11"/>
+        <v>52.9</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -5500,20 +6412,23 @@
       <c r="F111">
         <v>85</v>
       </c>
-      <c r="G111" s="11">
-        <f>D111*0.25+E111*0.5+F111*0.25</f>
+      <c r="G111" s="9">
+        <f t="shared" si="9"/>
         <v>78.75</v>
       </c>
       <c r="H111">
         <v>50</v>
       </c>
-      <c r="J111" s="15">
-        <f t="shared" si="2"/>
-        <v>50</v>
+      <c r="I111">
+        <v>45</v>
+      </c>
+      <c r="J111" s="13">
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="K111" s="4">
-        <f t="shared" si="3"/>
-        <v>61.5</v>
+        <f t="shared" si="11"/>
+        <v>88.5</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -5535,20 +6450,23 @@
       <c r="F112">
         <v>100</v>
       </c>
-      <c r="G112" s="11">
-        <f>D112*0.25+E112*0.5+F112*0.25</f>
+      <c r="G112" s="9">
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="H112">
-        <v>47.5</v>
-      </c>
-      <c r="J112" s="15">
-        <f t="shared" si="2"/>
-        <v>47.5</v>
+        <v>50</v>
+      </c>
+      <c r="I112">
+        <v>45</v>
+      </c>
+      <c r="J112" s="13">
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" si="3"/>
-        <v>64.5</v>
+        <f t="shared" si="11"/>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -5564,20 +6482,23 @@
       <c r="E113">
         <v>45</v>
       </c>
-      <c r="G113" s="11">
-        <f>D113*0.25+E113*0.5+F113*0.25</f>
+      <c r="G113" s="9">
+        <f t="shared" si="9"/>
         <v>22.5</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="J113" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" s="13">
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="K113" s="4">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -5596,20 +6517,23 @@
       <c r="F114">
         <v>80</v>
       </c>
-      <c r="G114" s="11">
-        <f>D114*0.25+E114*0.5+F114*0.25</f>
+      <c r="G114" s="9">
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="H114">
-        <v>42.5</v>
-      </c>
-      <c r="J114" s="15">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+        <v>50</v>
+      </c>
+      <c r="I114">
+        <v>14</v>
+      </c>
+      <c r="J114" s="13">
+        <f t="shared" si="10"/>
+        <v>64</v>
       </c>
       <c r="K114" s="4">
-        <f t="shared" si="3"/>
-        <v>47.5</v>
+        <f t="shared" si="11"/>
+        <v>60.4</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -5625,8 +6549,8 @@
       <c r="E115">
         <v>90</v>
       </c>
-      <c r="G115" s="11">
-        <f>D115*0.25+E115*0.5+F115*0.25</f>
+      <c r="G115" s="9">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="H115">
@@ -5635,12 +6559,12 @@
       <c r="I115">
         <v>14</v>
       </c>
-      <c r="J115" s="15">
-        <f t="shared" si="2"/>
+      <c r="J115" s="13">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>26.4</v>
       </c>
     </row>
@@ -5663,20 +6587,23 @@
       <c r="F116">
         <v>90</v>
       </c>
-      <c r="G116" s="11">
-        <f>D116*0.25+E116*0.5+F116*0.25</f>
+      <c r="G116" s="9">
+        <f t="shared" si="9"/>
         <v>76.25</v>
       </c>
       <c r="H116">
         <v>45</v>
       </c>
-      <c r="J116" s="15">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="I116">
+        <v>50</v>
+      </c>
+      <c r="J116" s="13">
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="K116" s="4">
-        <f t="shared" si="3"/>
-        <v>57.5</v>
+        <f t="shared" si="11"/>
+        <v>87.5</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -5698,23 +6625,27 @@
       <c r="F117">
         <v>90</v>
       </c>
-      <c r="G117" s="11">
-        <f>D117*0.25+E117*0.5+F117*0.25</f>
+      <c r="G117" s="9">
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="H117">
         <v>50</v>
       </c>
-      <c r="J117" s="15">
-        <f t="shared" si="2"/>
+      <c r="I117">
         <v>50</v>
       </c>
+      <c r="J117" s="13">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
       <c r="K117" s="4">
-        <f t="shared" si="3"/>
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:I1"/>
@@ -5724,1481 +6655,596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73A96A-AB8B-FD43-99CF-548E96F1351F}">
-  <dimension ref="A1:B208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1D592F-937B-D149-BB0B-8ED9164C109C}">
+  <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>90</v>
-      </c>
-      <c r="B2">
-        <f>A2/2</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <f>A3/2</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">A4/2</f>
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>94.199999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>89.199999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>89.199999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>88.699999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>88.199999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>81.199999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>75.699999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>72.699999999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>72.199999999999989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>72.199999999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>68.699999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>62.199999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>61.199999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>53.199999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>90</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>95</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f t="shared" si="0"/>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f t="shared" si="0"/>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>90</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>90</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>90</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" si="0"/>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f t="shared" si="0"/>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f t="shared" si="0"/>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f t="shared" si="0"/>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>90</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>90</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>100</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>85</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>70</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>90</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>75</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>75</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>80</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>90</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>90</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>75</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>85</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>100</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>90</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>85</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>80</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>88</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>90</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>90</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>85</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>80</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>45</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>90</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>85</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>90</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>90</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>100</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68:B131" si="1">A68/2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>45</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>90</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>100</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>90</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>90</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>90</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>80</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>90</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>90</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>80</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>85</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>100</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>90</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>85</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>85</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>80</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>90</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>100</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>95</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>85</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>100</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132">
-        <f t="shared" ref="B132:B195" si="2">A132/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196">
-        <f t="shared" ref="B196:B208" si="3">A196/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A117">
+    <sortCondition descending="1" ref="A1:A117"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7207,7 +7253,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7223,7 +7269,7 @@
         <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
         <v>81</v>
@@ -7235,12 +7281,12 @@
         <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2">
         <v>45</v>
@@ -7262,7 +7308,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -7279,16 +7325,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
         <v>357</v>
-      </c>
-      <c r="B5" t="s">
-        <v>358</v>
       </c>
       <c r="E5">
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7302,24 +7348,24 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" t="s">
         <v>360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>361</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -7351,7 +7397,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -7359,7 +7405,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
         <v>240</v>
@@ -7397,7 +7443,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -7433,7 +7479,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -7463,7 +7509,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E22">
         <v>90</v>
@@ -7516,7 +7562,7 @@
         <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7532,7 +7578,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E28">
         <v>90</v>
@@ -7543,7 +7589,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C29" t="s">
         <v>174</v>
@@ -7554,7 +7600,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E30">
         <v>75</v>
@@ -7562,23 +7608,23 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>372</v>
-      </c>
-      <c r="E31" s="8">
+        <v>371</v>
+      </c>
+      <c r="E31" s="17">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E32" s="8"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="8"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="8"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="8"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -7601,7 +7647,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E39">
         <v>45</v>
@@ -7615,7 +7661,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -7630,7 +7676,7 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7646,7 +7692,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E43">
         <v>90</v>
@@ -7668,7 +7714,7 @@
         <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA921D-1E8B-0B45-BA52-4C596D496A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF86BED-83BE-9044-BEEC-192F7E4A31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$117</definedName>
@@ -1169,18 +1170,12 @@
     <t>dikran 70 - furkan 40</t>
   </si>
   <si>
-    <t>Final + Proje (% 60)</t>
-  </si>
-  <si>
     <t>Vize Toplam Notunuzun %40</t>
   </si>
   <si>
     <t>Ders Başarı Notunuz</t>
   </si>
   <si>
-    <t>Final Toplam Notunuzun %60</t>
-  </si>
-  <si>
     <t>alttaki ikisi de 50 puan üstünden hesaplanır toplamı final sınavı yerine geçer</t>
   </si>
   <si>
@@ -1188,6 +1183,12 @@
   </si>
   <si>
     <t>Final : 50 üstünden</t>
+  </si>
+  <si>
+    <t>Final + Proje Toplam Notunuzun %60</t>
+  </si>
+  <si>
+    <t>Total Final</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1281,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1293,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1332,6 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2399,10 +2407,10 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I110" sqref="I110"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2416,25 +2424,25 @@
     <col min="7" max="7" width="11.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" style="13" customWidth="1"/>
     <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="H1" s="16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I1" s="16"/>
       <c r="J1" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2460,13 +2468,13 @@
         <v>351</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I2" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>350</v>
@@ -2603,16 +2611,16 @@
       <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6">
-        <v>26</v>
+      <c r="I6" s="18">
+        <v>29</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>73.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,16 +2745,16 @@
       <c r="H10">
         <v>42.5</v>
       </c>
-      <c r="I10">
-        <v>23</v>
+      <c r="I10" s="18">
+        <v>28</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>70.5</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>67.3</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,16 +2821,16 @@
       <c r="H12">
         <v>40</v>
       </c>
-      <c r="I12">
-        <v>44</v>
+      <c r="I12" s="18">
+        <v>48</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>88.4</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2965,16 +2973,16 @@
       <c r="H16">
         <v>42.5</v>
       </c>
-      <c r="I16">
-        <v>28</v>
+      <c r="I16" s="18">
+        <v>30</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" si="1"/>
-        <v>70.5</v>
+        <v>72.5</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>73.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,19 +3008,19 @@
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="H17">
-        <v>45</v>
+      <c r="H17" s="18">
+        <v>48</v>
       </c>
       <c r="I17">
         <v>48</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="2"/>
-        <v>88.3</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,19 +3084,19 @@
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
-      <c r="H19">
-        <v>45</v>
+      <c r="H19" s="18">
+        <v>46</v>
       </c>
       <c r="I19">
         <v>45</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>89.5</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,7 +3175,7 @@
         <v>70.699999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3191,18 +3199,18 @@
         <v>66.25</v>
       </c>
       <c r="H22">
-        <v>32</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="I22" s="18">
+        <v>16</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>50.5</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3315,19 +3323,19 @@
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="H26">
-        <v>42.5</v>
-      </c>
-      <c r="I26">
-        <v>38</v>
+      <c r="H26" s="18">
+        <v>44</v>
+      </c>
+      <c r="I26" s="18">
+        <v>40</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" si="1"/>
-        <v>80.5</v>
+        <v>84</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>83.3</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3353,19 +3361,19 @@
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="H27">
-        <v>37.5</v>
+      <c r="H27" s="18">
+        <v>40</v>
       </c>
       <c r="I27">
         <v>34</v>
       </c>
       <c r="J27" s="13">
         <f t="shared" si="1"/>
-        <v>71.5</v>
+        <v>74</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>74.400000000000006</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3391,19 +3399,19 @@
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H28">
-        <v>45</v>
+      <c r="H28" s="18">
+        <v>46</v>
       </c>
       <c r="I28">
         <v>39</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>84.9</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3543,19 +3551,19 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H32">
-        <v>42.5</v>
+      <c r="H32" s="18">
+        <v>45</v>
       </c>
       <c r="I32">
         <v>45</v>
       </c>
       <c r="J32" s="13">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>88.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3619,19 +3627,19 @@
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H34">
-        <v>35</v>
+      <c r="H34" s="18">
+        <v>37</v>
       </c>
       <c r="I34">
         <v>39</v>
       </c>
       <c r="J34" s="13">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>78.900000000000006</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -3771,16 +3779,16 @@
       <c r="H38">
         <v>37.5</v>
       </c>
-      <c r="I38">
-        <v>29</v>
+      <c r="I38" s="18">
+        <v>30</v>
       </c>
       <c r="J38" s="13">
         <f t="shared" si="4"/>
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="5"/>
-        <v>69.900000000000006</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3914,16 +3922,16 @@
       <c r="H42">
         <v>50</v>
       </c>
-      <c r="I42">
-        <v>30</v>
+      <c r="I42" s="18">
+        <v>34</v>
       </c>
       <c r="J42" s="13">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3949,19 +3957,19 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="H43">
-        <v>45</v>
+      <c r="H43" s="18">
+        <v>46</v>
       </c>
       <c r="I43">
         <v>44</v>
       </c>
       <c r="J43" s="13">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="5"/>
-        <v>89.4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4028,16 +4036,16 @@
       <c r="H45">
         <v>37.5</v>
       </c>
-      <c r="I45">
-        <v>12</v>
+      <c r="I45" s="18">
+        <v>14</v>
       </c>
       <c r="J45" s="13">
         <f t="shared" si="4"/>
-        <v>49.5</v>
+        <v>51.5</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="5"/>
-        <v>64.2</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4101,19 +4109,19 @@
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="H47">
-        <v>22.5</v>
-      </c>
-      <c r="I47">
-        <v>15</v>
+      <c r="H47" s="18">
+        <v>30</v>
+      </c>
+      <c r="I47" s="18">
+        <v>20</v>
       </c>
       <c r="J47" s="13">
         <f t="shared" si="4"/>
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="5"/>
-        <v>53.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -4139,19 +4147,19 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H48">
-        <v>42.5</v>
+      <c r="H48" s="18">
+        <v>44</v>
       </c>
       <c r="I48">
         <v>31</v>
       </c>
       <c r="J48" s="13">
         <f t="shared" si="4"/>
-        <v>73.5</v>
+        <v>75</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="5"/>
-        <v>74.099999999999994</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4180,16 +4188,16 @@
       <c r="H49">
         <v>50</v>
       </c>
-      <c r="I49">
-        <v>36</v>
+      <c r="I49" s="18">
+        <v>38</v>
       </c>
       <c r="J49" s="13">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" si="5"/>
-        <v>84.1</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4364,19 +4372,19 @@
         <f t="shared" si="3"/>
         <v>48.75</v>
       </c>
-      <c r="H54">
-        <v>35</v>
-      </c>
-      <c r="I54">
-        <v>12</v>
+      <c r="H54" s="18">
+        <v>45</v>
+      </c>
+      <c r="I54" s="18">
+        <v>23</v>
       </c>
       <c r="J54" s="13">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" si="5"/>
-        <v>47.7</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4402,19 +4410,19 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H55">
-        <v>44</v>
+      <c r="H55" s="18">
+        <v>47</v>
       </c>
       <c r="I55">
         <v>50</v>
       </c>
       <c r="J55" s="13">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="5"/>
-        <v>88.4</v>
+        <v>90.199999999999989</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4440,19 +4448,19 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="H56">
-        <v>45</v>
+      <c r="H56" s="18">
+        <v>47</v>
       </c>
       <c r="I56">
         <v>47</v>
       </c>
       <c r="J56" s="13">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="5"/>
-        <v>89.199999999999989</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4580,19 +4588,19 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H60">
-        <v>40</v>
-      </c>
-      <c r="I60">
-        <v>12</v>
+      <c r="H60" s="18">
+        <v>45</v>
+      </c>
+      <c r="I60" s="18">
+        <v>25</v>
       </c>
       <c r="J60" s="13">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="5"/>
-        <v>49.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4615,19 +4623,19 @@
         <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
-      <c r="H61">
-        <v>22.5</v>
-      </c>
-      <c r="I61">
-        <v>31</v>
+      <c r="H61" s="18">
+        <v>30</v>
+      </c>
+      <c r="I61" s="18">
+        <v>35</v>
       </c>
       <c r="J61" s="13">
         <f t="shared" si="4"/>
-        <v>53.5</v>
+        <v>65</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="5"/>
-        <v>53.6</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4729,19 +4737,19 @@
         <f t="shared" si="3"/>
         <v>66.25</v>
       </c>
-      <c r="H64">
-        <v>26</v>
-      </c>
-      <c r="I64">
-        <v>11</v>
+      <c r="H64" s="18">
+        <v>34</v>
+      </c>
+      <c r="I64" s="18">
+        <v>22</v>
       </c>
       <c r="J64" s="13">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="5"/>
-        <v>48.7</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -4808,16 +4816,16 @@
       <c r="H66">
         <v>45</v>
       </c>
-      <c r="I66">
-        <v>33</v>
+      <c r="I66" s="18">
+        <v>34</v>
       </c>
       <c r="J66" s="13">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="5"/>
-        <v>79.8</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -4843,19 +4851,19 @@
         <f t="shared" ref="G67:G98" si="6">D67*0.25+E67*0.5+F67*0.25</f>
         <v>76.25</v>
       </c>
-      <c r="H67">
-        <v>37.5</v>
-      </c>
-      <c r="I67">
-        <v>32</v>
+      <c r="H67" s="18">
+        <v>40</v>
+      </c>
+      <c r="I67" s="18">
+        <v>35</v>
       </c>
       <c r="J67" s="13">
         <f t="shared" ref="J67:J98" si="7">H67+I67</f>
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" ref="K67:K98" si="8">(G67*0.4)+(J67*0.6)</f>
-        <v>72.199999999999989</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4916,16 +4924,16 @@
       <c r="H69">
         <v>50</v>
       </c>
-      <c r="I69">
-        <v>42</v>
+      <c r="I69" s="18">
+        <v>44</v>
       </c>
       <c r="J69" s="13">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="8"/>
-        <v>89.199999999999989</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4951,19 +4959,19 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H70">
-        <v>22.5</v>
+      <c r="H70" s="18">
+        <v>25</v>
       </c>
       <c r="I70">
         <v>37</v>
       </c>
       <c r="J70" s="13">
         <f t="shared" si="7"/>
-        <v>59.5</v>
+        <v>62</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="8"/>
-        <v>68.699999999999989</v>
+        <v>70.199999999999989</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5030,16 +5038,16 @@
       <c r="H72">
         <v>45</v>
       </c>
-      <c r="I72">
-        <v>29</v>
+      <c r="I72" s="18">
+        <v>33</v>
       </c>
       <c r="J72" s="13">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" si="8"/>
-        <v>77.900000000000006</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -5068,16 +5076,16 @@
       <c r="H73">
         <v>50</v>
       </c>
-      <c r="I73">
-        <v>29</v>
+      <c r="I73" s="18">
+        <v>34</v>
       </c>
       <c r="J73" s="13">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="8"/>
-        <v>82.4</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5106,16 +5114,16 @@
       <c r="H74">
         <v>45</v>
       </c>
-      <c r="I74">
-        <v>34</v>
+      <c r="I74" s="18">
+        <v>37</v>
       </c>
       <c r="J74" s="13">
         <f t="shared" si="7"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K74" s="4">
         <f t="shared" si="8"/>
-        <v>83.4</v>
+        <v>85.199999999999989</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -5199,19 +5207,19 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H77">
-        <v>70</v>
-      </c>
-      <c r="I77">
-        <v>24</v>
+      <c r="H77" s="18">
+        <v>45</v>
+      </c>
+      <c r="I77" s="18">
+        <v>35</v>
       </c>
       <c r="J77" s="13">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="K77" s="4">
         <f t="shared" si="8"/>
-        <v>68.400000000000006</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -5240,16 +5248,16 @@
       <c r="H78">
         <v>45</v>
       </c>
-      <c r="I78">
-        <v>26</v>
+      <c r="I78" s="18">
+        <v>29</v>
       </c>
       <c r="J78" s="13">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K78" s="4">
         <f t="shared" si="8"/>
-        <v>78.599999999999994</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -5345,16 +5353,16 @@
       <c r="H81">
         <v>45</v>
       </c>
-      <c r="I81">
-        <v>40</v>
+      <c r="I81" s="18">
+        <v>44</v>
       </c>
       <c r="J81" s="13">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K81" s="4">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -5380,19 +5388,19 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H82">
-        <v>45</v>
+      <c r="H82" s="18">
+        <v>48</v>
       </c>
       <c r="I82">
         <v>47</v>
       </c>
       <c r="J82" s="13">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K82" s="4">
         <f t="shared" si="8"/>
-        <v>88.199999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -5444,19 +5452,19 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H84">
-        <v>45</v>
+      <c r="H84" s="18">
+        <v>46</v>
       </c>
       <c r="I84">
         <v>33</v>
       </c>
       <c r="J84" s="13">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K84" s="4">
         <f t="shared" si="8"/>
-        <v>79.8</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -5669,16 +5677,16 @@
       <c r="H90">
         <v>40</v>
       </c>
-      <c r="I90">
-        <v>26</v>
+      <c r="I90" s="18">
+        <v>28</v>
       </c>
       <c r="J90" s="13">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K90" s="4">
         <f t="shared" si="8"/>
-        <v>64.599999999999994</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -5812,16 +5820,16 @@
       <c r="H94">
         <v>50</v>
       </c>
-      <c r="I94">
-        <v>38</v>
+      <c r="I94" s="18">
+        <v>42</v>
       </c>
       <c r="J94" s="13">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K94" s="4">
         <f t="shared" si="8"/>
-        <v>87.8</v>
+        <v>90.199999999999989</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -5915,18 +5923,18 @@
         <v>68.75</v>
       </c>
       <c r="H97">
-        <v>42.5</v>
+        <v>46</v>
       </c>
       <c r="I97">
         <v>34</v>
       </c>
       <c r="J97" s="13">
         <f t="shared" si="7"/>
-        <v>76.5</v>
+        <v>80</v>
       </c>
       <c r="K97" s="4">
         <f t="shared" si="8"/>
-        <v>73.400000000000006</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -5975,7 +5983,7 @@
         <v>55</v>
       </c>
       <c r="G99" s="9">
-        <f t="shared" ref="G99:G130" si="9">D99*0.25+E99*0.5+F99*0.25</f>
+        <f t="shared" ref="G99:G117" si="9">D99*0.25+E99*0.5+F99*0.25</f>
         <v>75</v>
       </c>
       <c r="H99">
@@ -5985,11 +5993,11 @@
         <v>16</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" ref="J99:J130" si="10">H99+I99</f>
+        <f t="shared" ref="J99:J117" si="10">H99+I99</f>
         <v>58.5</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" ref="K99:K130" si="11">(G99*0.4)+(J99*0.6)</f>
+        <f t="shared" ref="K99:K117" si="11">(G99*0.4)+(J99*0.6)</f>
         <v>65.099999999999994</v>
       </c>
     </row>
@@ -6080,19 +6088,19 @@
         <f t="shared" si="9"/>
         <v>71.25</v>
       </c>
-      <c r="H102">
-        <v>25</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
+      <c r="H102" s="18">
+        <v>33</v>
+      </c>
+      <c r="I102" s="18">
+        <v>20</v>
       </c>
       <c r="J102" s="13">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K102" s="4">
         <f t="shared" si="11"/>
-        <v>45.9</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -6153,19 +6161,19 @@
         <f t="shared" si="9"/>
         <v>47.5</v>
       </c>
-      <c r="H104">
-        <v>40</v>
-      </c>
-      <c r="I104">
-        <v>17</v>
+      <c r="H104" s="18">
+        <v>43</v>
+      </c>
+      <c r="I104" s="18">
+        <v>26</v>
       </c>
       <c r="J104" s="13">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K104" s="4">
         <f t="shared" si="11"/>
-        <v>53.199999999999996</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6191,19 +6199,19 @@
         <f t="shared" si="9"/>
         <v>68.75</v>
       </c>
-      <c r="H105">
-        <v>40</v>
-      </c>
-      <c r="I105">
-        <v>35</v>
+      <c r="H105" s="18">
+        <v>42</v>
+      </c>
+      <c r="I105" s="18">
+        <v>38</v>
       </c>
       <c r="J105" s="13">
         <f t="shared" si="10"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K105" s="4">
         <f t="shared" si="11"/>
-        <v>72.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -6267,19 +6275,19 @@
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="H107">
-        <v>45</v>
+      <c r="H107" s="18">
+        <v>48</v>
       </c>
       <c r="I107">
         <v>36</v>
       </c>
       <c r="J107" s="13">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K107" s="4">
         <f t="shared" si="11"/>
-        <v>78.599999999999994</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -6305,19 +6313,19 @@
         <f t="shared" si="9"/>
         <v>73.75</v>
       </c>
-      <c r="H108">
-        <v>40</v>
+      <c r="H108" s="18">
+        <v>44</v>
       </c>
       <c r="I108">
         <v>32</v>
       </c>
       <c r="J108" s="13">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K108" s="4">
         <f t="shared" si="11"/>
-        <v>72.699999999999989</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6378,19 +6386,19 @@
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="H110">
-        <v>22.5</v>
-      </c>
-      <c r="I110">
-        <v>29</v>
+      <c r="H110" s="18">
+        <v>30</v>
+      </c>
+      <c r="I110" s="18">
+        <v>34</v>
       </c>
       <c r="J110" s="13">
         <f t="shared" si="10"/>
-        <v>51.5</v>
+        <v>64</v>
       </c>
       <c r="K110" s="4">
         <f t="shared" si="11"/>
-        <v>52.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -6419,16 +6427,16 @@
       <c r="H111">
         <v>50</v>
       </c>
-      <c r="I111">
-        <v>45</v>
+      <c r="I111" s="18">
+        <v>48</v>
       </c>
       <c r="J111" s="13">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K111" s="4">
         <f t="shared" si="11"/>
-        <v>88.5</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -6591,19 +6599,19 @@
         <f t="shared" si="9"/>
         <v>76.25</v>
       </c>
-      <c r="H116">
-        <v>45</v>
+      <c r="H116" s="18">
+        <v>50</v>
       </c>
       <c r="I116">
         <v>50</v>
       </c>
       <c r="J116" s="13">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K116" s="4">
         <f t="shared" si="11"/>
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -6658,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1D592F-937B-D149-BB0B-8ED9164C109C}">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -7249,11 +7257,604 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAB4FD3-C627-EE4A-87DC-E610ACDA7C75}">
+  <dimension ref="A1:A115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>61.199999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>62.199999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>68.699999999999989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>72.199999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>72.199999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>72.699999999999989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>75.699999999999989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>81.199999999999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>88.699999999999989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>90.199999999999989</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>94.199999999999989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A115">
+    <sortCondition ref="A1:A115"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DB2D0D-2955-BA4F-A9C8-09E70872ED6D}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF86BED-83BE-9044-BEEC-192F7E4A31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399C154-A7DC-B247-BD42-E6AEA6687DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1330,6 +1330,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,7 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,10 +2407,10 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2429,15 +2429,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="8" t="s">
         <v>381</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>29</v>
       </c>
       <c r="J6" s="13">
@@ -2745,7 +2745,7 @@
       <c r="H10">
         <v>42.5</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>28</v>
       </c>
       <c r="J10" s="13">
@@ -2821,7 +2821,7 @@
       <c r="H12">
         <v>40</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>48</v>
       </c>
       <c r="J12" s="13">
@@ -2973,7 +2973,7 @@
       <c r="H16">
         <v>42.5</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>30</v>
       </c>
       <c r="J16" s="13">
@@ -3008,7 +3008,7 @@
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>48</v>
       </c>
       <c r="I17">
@@ -3084,7 +3084,7 @@
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>46</v>
       </c>
       <c r="I19">
@@ -3201,7 +3201,7 @@
       <c r="H22">
         <v>40</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="15">
         <v>16</v>
       </c>
       <c r="J22" s="13">
@@ -3286,18 +3286,18 @@
         <v>57.5</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>25</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>60.199999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3323,10 +3323,10 @@
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <v>44</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="15">
         <v>40</v>
       </c>
       <c r="J26" s="13">
@@ -3361,7 +3361,7 @@
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="15">
         <v>40</v>
       </c>
       <c r="I27">
@@ -3399,7 +3399,7 @@
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>46</v>
       </c>
       <c r="I28">
@@ -3551,7 +3551,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="15">
         <v>45</v>
       </c>
       <c r="I32">
@@ -3627,7 +3627,7 @@
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>37</v>
       </c>
       <c r="I34">
@@ -3779,7 +3779,7 @@
       <c r="H38">
         <v>37.5</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="15">
         <v>30</v>
       </c>
       <c r="J38" s="13">
@@ -3922,7 +3922,7 @@
       <c r="H42">
         <v>50</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="15">
         <v>34</v>
       </c>
       <c r="J42" s="13">
@@ -3957,7 +3957,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="15">
         <v>46</v>
       </c>
       <c r="I43">
@@ -4036,7 +4036,7 @@
       <c r="H45">
         <v>37.5</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="15">
         <v>14</v>
       </c>
       <c r="J45" s="13">
@@ -4109,10 +4109,10 @@
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="15">
         <v>30</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="15">
         <v>20</v>
       </c>
       <c r="J47" s="13">
@@ -4147,7 +4147,7 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="15">
         <v>44</v>
       </c>
       <c r="I48">
@@ -4188,7 +4188,7 @@
       <c r="H49">
         <v>50</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="15">
         <v>38</v>
       </c>
       <c r="J49" s="13">
@@ -4372,10 +4372,10 @@
         <f t="shared" si="3"/>
         <v>48.75</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="15">
         <v>45</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="15">
         <v>23</v>
       </c>
       <c r="J54" s="13">
@@ -4410,7 +4410,7 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="15">
         <v>47</v>
       </c>
       <c r="I55">
@@ -4448,7 +4448,7 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="15">
         <v>47</v>
       </c>
       <c r="I56">
@@ -4588,10 +4588,10 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="15">
         <v>45</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="15">
         <v>25</v>
       </c>
       <c r="J60" s="13">
@@ -4623,10 +4623,10 @@
         <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="15">
         <v>30</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="15">
         <v>35</v>
       </c>
       <c r="J61" s="13">
@@ -4737,10 +4737,10 @@
         <f t="shared" si="3"/>
         <v>66.25</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="15">
         <v>34</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="15">
         <v>22</v>
       </c>
       <c r="J64" s="13">
@@ -4816,7 +4816,7 @@
       <c r="H66">
         <v>45</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="15">
         <v>34</v>
       </c>
       <c r="J66" s="13">
@@ -4851,10 +4851,10 @@
         <f t="shared" ref="G67:G98" si="6">D67*0.25+E67*0.5+F67*0.25</f>
         <v>76.25</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="15">
         <v>40</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="15">
         <v>35</v>
       </c>
       <c r="J67" s="13">
@@ -4924,7 +4924,7 @@
       <c r="H69">
         <v>50</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="15">
         <v>44</v>
       </c>
       <c r="J69" s="13">
@@ -4959,7 +4959,7 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="15">
         <v>25</v>
       </c>
       <c r="I70">
@@ -5038,7 +5038,7 @@
       <c r="H72">
         <v>45</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="15">
         <v>33</v>
       </c>
       <c r="J72" s="13">
@@ -5076,7 +5076,7 @@
       <c r="H73">
         <v>50</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="15">
         <v>34</v>
       </c>
       <c r="J73" s="13">
@@ -5114,7 +5114,7 @@
       <c r="H74">
         <v>45</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="15">
         <v>37</v>
       </c>
       <c r="J74" s="13">
@@ -5207,10 +5207,10 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H77" s="15">
         <v>45</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I77" s="15">
         <v>35</v>
       </c>
       <c r="J77" s="13">
@@ -5248,7 +5248,7 @@
       <c r="H78">
         <v>45</v>
       </c>
-      <c r="I78" s="18">
+      <c r="I78" s="15">
         <v>29</v>
       </c>
       <c r="J78" s="13">
@@ -5353,7 +5353,7 @@
       <c r="H81">
         <v>45</v>
       </c>
-      <c r="I81" s="18">
+      <c r="I81" s="15">
         <v>44</v>
       </c>
       <c r="J81" s="13">
@@ -5388,7 +5388,7 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H82" s="18">
+      <c r="H82" s="15">
         <v>48</v>
       </c>
       <c r="I82">
@@ -5452,7 +5452,7 @@
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H84" s="18">
+      <c r="H84" s="15">
         <v>46</v>
       </c>
       <c r="I84">
@@ -5677,7 +5677,7 @@
       <c r="H90">
         <v>40</v>
       </c>
-      <c r="I90" s="18">
+      <c r="I90" s="15">
         <v>28</v>
       </c>
       <c r="J90" s="13">
@@ -5820,7 +5820,7 @@
       <c r="H94">
         <v>50</v>
       </c>
-      <c r="I94" s="18">
+      <c r="I94" s="15">
         <v>42</v>
       </c>
       <c r="J94" s="13">
@@ -6088,10 +6088,10 @@
         <f t="shared" si="9"/>
         <v>71.25</v>
       </c>
-      <c r="H102" s="18">
+      <c r="H102" s="15">
         <v>33</v>
       </c>
-      <c r="I102" s="18">
+      <c r="I102" s="15">
         <v>20</v>
       </c>
       <c r="J102" s="13">
@@ -6161,10 +6161,10 @@
         <f t="shared" si="9"/>
         <v>47.5</v>
       </c>
-      <c r="H104" s="18">
+      <c r="H104" s="15">
         <v>43</v>
       </c>
-      <c r="I104" s="18">
+      <c r="I104" s="15">
         <v>26</v>
       </c>
       <c r="J104" s="13">
@@ -6199,10 +6199,10 @@
         <f t="shared" si="9"/>
         <v>68.75</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="15">
         <v>42</v>
       </c>
-      <c r="I105" s="18">
+      <c r="I105" s="15">
         <v>38</v>
       </c>
       <c r="J105" s="13">
@@ -6275,7 +6275,7 @@
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="15">
         <v>48</v>
       </c>
       <c r="I107">
@@ -6313,7 +6313,7 @@
         <f t="shared" si="9"/>
         <v>73.75</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="15">
         <v>44</v>
       </c>
       <c r="I108">
@@ -6386,10 +6386,10 @@
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="15">
         <v>30</v>
       </c>
-      <c r="I110" s="18">
+      <c r="I110" s="15">
         <v>34</v>
       </c>
       <c r="J110" s="13">
@@ -6427,7 +6427,7 @@
       <c r="H111">
         <v>50</v>
       </c>
-      <c r="I111" s="18">
+      <c r="I111" s="15">
         <v>48</v>
       </c>
       <c r="J111" s="13">
@@ -6599,7 +6599,7 @@
         <f t="shared" si="9"/>
         <v>76.25</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="15">
         <v>50</v>
       </c>
       <c r="I116">
@@ -7258,592 +7258,943 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAB4FD3-C627-EE4A-87DC-E610ACDA7C75}">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="B1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>94.5</v>
+      </c>
+      <c r="B4">
+        <v>94.199999999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>90.199999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>90.199999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>96</v>
+      </c>
+      <c r="B15">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>88.699999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>85.199999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>79.5</v>
+      </c>
+      <c r="B30">
+        <v>81.199999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>84</v>
+      </c>
+      <c r="B36">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>74</v>
+      </c>
+      <c r="B41">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>75.699999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>72.5</v>
+      </c>
+      <c r="B44">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>80</v>
+      </c>
+      <c r="B46">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>72.5</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>75</v>
+      </c>
+      <c r="B50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>67.5</v>
+      </c>
+      <c r="B52">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>72.199999999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>70.699999999999989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>63.5</v>
+      </c>
+      <c r="B60">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>67.5</v>
+      </c>
+      <c r="B61">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>66.5</v>
+      </c>
+      <c r="B62">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>70.5</v>
+      </c>
+      <c r="B63">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>70.199999999999989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>67.5</v>
+      </c>
+      <c r="B65">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>60.5</v>
+      </c>
+      <c r="B66">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>71.5</v>
+      </c>
+      <c r="B68">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>62.5</v>
+      </c>
+      <c r="B70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>51.5</v>
+      </c>
+      <c r="B71">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>51.5</v>
+      </c>
+      <c r="B74">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>58.5</v>
+      </c>
+      <c r="B75">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>65.5</v>
+      </c>
+      <c r="B76">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>62.199999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>52</v>
+      </c>
+      <c r="B78">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>55</v>
+      </c>
+      <c r="B80">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>61.199999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>50</v>
+      </c>
+      <c r="B83">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>65</v>
+      </c>
+      <c r="B84">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>69</v>
+      </c>
+      <c r="B86">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>64</v>
+      </c>
+      <c r="B88">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>68</v>
+      </c>
+      <c r="B89">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>56</v>
+      </c>
+      <c r="B91">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>56</v>
+      </c>
+      <c r="B92">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>50</v>
+      </c>
+      <c r="B93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>70</v>
+      </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>80</v>
+      </c>
+      <c r="B95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>40</v>
+      </c>
+      <c r="B96">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>25</v>
+      </c>
+      <c r="B97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>36.5</v>
+      </c>
+      <c r="B98">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>30</v>
+      </c>
+      <c r="B99">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B103">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B104">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>61.199999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>62.199999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>68.699999999999989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>70.699999999999989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>70.699999999999989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>72.199999999999989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>72.199999999999989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>72.699999999999989</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>73.599999999999994</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>74.099999999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75.699999999999989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>78.900000000000006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>81.199999999999989</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>82.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>84.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>84.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>88.699999999999989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>89.4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>90.199999999999989</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>94.199999999999989</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A115">
-    <sortCondition ref="A1:A115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B138">
+    <sortCondition descending="1" ref="B23:B138"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8211,21 +8562,21 @@
       <c r="A31" t="s">
         <v>371</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E32" s="17"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="17"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="17"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="17"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">

--- a/exam_results/Participants_2.xlsx
+++ b/exam_results/Participants_2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can.kara/Desktop/2024_anlp/anlp2024_fall/exam_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399C154-A7DC-B247-BD42-E6AEA6687DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4419444-9694-C248-B0E0-87F937AF089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$117</definedName>
@@ -1277,13 +1276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,32 +1305,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2407,10 +2406,10 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2418,14 +2417,14 @@
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="14" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="40.83203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -2464,19 +2463,19 @@
       <c r="F2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="12" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2499,7 +2498,7 @@
       <c r="F3">
         <v>95</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="14">
         <f t="shared" ref="G3:G34" si="0">D3*0.25+E3*0.5+F3*0.25</f>
         <v>76.25</v>
       </c>
@@ -2509,11 +2508,11 @@
       <c r="I3">
         <v>7</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <f t="shared" ref="J3:J34" si="1">H3+I3</f>
         <v>52</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K34" si="2">(G3*0.4)+(J3*0.6)</f>
         <v>61.7</v>
       </c>
@@ -2537,7 +2536,7 @@
       <c r="F4">
         <v>95</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -2547,11 +2546,11 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="13">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -2569,18 +2568,18 @@
       <c r="E5">
         <v>75</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="13">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -2604,21 +2603,21 @@
       <c r="F6">
         <v>95</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
       <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="7">
         <v>29</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="13">
         <f t="shared" si="2"/>
         <v>75.400000000000006</v>
       </c>
@@ -2642,23 +2641,23 @@
       <c r="F7">
         <v>95</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="14">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="H7">
-        <v>47.5</v>
+        <v>49</v>
       </c>
       <c r="I7">
-        <v>47</v>
-      </c>
-      <c r="J7" s="13">
+        <v>48</v>
+      </c>
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>94.5</v>
-      </c>
-      <c r="K7" s="4">
+        <v>97</v>
+      </c>
+      <c r="K7" s="13">
         <f t="shared" si="2"/>
-        <v>94.199999999999989</v>
+        <v>95.699999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2671,18 +2670,18 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="E9">
         <v>70</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2710,11 +2709,11 @@
       <c r="I9">
         <v>14</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="13">
         <f t="shared" si="2"/>
         <v>35.9</v>
       </c>
@@ -2738,21 +2737,21 @@
       <c r="F10">
         <v>55</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="H10">
         <v>42.5</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="7">
         <v>28</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
         <v>70.5</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="13">
         <f t="shared" si="2"/>
         <v>70.3</v>
       </c>
@@ -2776,7 +2775,7 @@
       <c r="F11">
         <v>90</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
@@ -2786,11 +2785,11 @@
       <c r="I11">
         <v>24</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="13">
         <f t="shared" si="2"/>
         <v>77.900000000000006</v>
       </c>
@@ -2814,21 +2813,21 @@
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="7">
         <v>48</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="13">
         <f t="shared" si="2"/>
         <v>90.8</v>
       </c>
@@ -2852,7 +2851,7 @@
       <c r="F13">
         <v>80</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
@@ -2862,11 +2861,11 @@
       <c r="I13">
         <v>23</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="13">
         <f t="shared" si="2"/>
         <v>67.3</v>
       </c>
@@ -2890,7 +2889,7 @@
       <c r="F14">
         <v>55</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2900,11 +2899,11 @@
       <c r="I14">
         <v>48</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="13">
         <f t="shared" si="2"/>
         <v>83.8</v>
       </c>
@@ -2928,7 +2927,7 @@
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
@@ -2938,11 +2937,11 @@
       <c r="I15">
         <v>50</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="13">
         <f t="shared" si="2"/>
         <v>93.3</v>
       </c>
@@ -2966,21 +2965,21 @@
       <c r="F16">
         <v>55</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
       <c r="H16">
         <v>42.5</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="7">
         <v>30</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="13">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -3004,21 +3003,21 @@
       <c r="F17">
         <v>95</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="7">
         <v>48</v>
       </c>
       <c r="I17">
         <v>48</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="13">
         <f t="shared" si="2"/>
         <v>90.1</v>
       </c>
@@ -3042,7 +3041,7 @@
       <c r="F18">
         <v>100</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
@@ -3052,11 +3051,11 @@
       <c r="I18">
         <v>48</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="13">
         <f t="shared" si="2"/>
         <v>94.3</v>
       </c>
@@ -3080,21 +3079,21 @@
       <c r="F19">
         <v>95</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="7">
         <v>46</v>
       </c>
       <c r="I19">
         <v>45</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="13">
         <f t="shared" si="2"/>
         <v>90.1</v>
       </c>
@@ -3118,7 +3117,7 @@
       <c r="F20">
         <v>95</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
@@ -3128,11 +3127,11 @@
       <c r="I20">
         <v>27</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="13">
         <f t="shared" si="2"/>
         <v>72.199999999999989</v>
       </c>
@@ -3156,7 +3155,7 @@
       <c r="F21">
         <v>95</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
@@ -3166,11 +3165,11 @@
       <c r="I21">
         <v>27</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="13">
         <f t="shared" si="2"/>
         <v>70.699999999999989</v>
       </c>
@@ -3194,21 +3193,21 @@
       <c r="F22">
         <v>50</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="14">
         <f t="shared" si="0"/>
         <v>66.25</v>
       </c>
       <c r="H22">
         <v>40</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="7">
         <v>16</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="13">
         <f t="shared" si="2"/>
         <v>60.1</v>
       </c>
@@ -3223,18 +3222,18 @@
       <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3249,18 +3248,18 @@
       <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="F25">
         <v>80</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="14">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
@@ -3291,11 +3290,11 @@
       <c r="I25">
         <v>25</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="10">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="13">
         <f t="shared" si="2"/>
         <v>60.199999999999996</v>
       </c>
@@ -3319,21 +3318,21 @@
       <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="14">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="7">
         <v>44</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="7">
         <v>40</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="13">
         <f t="shared" si="2"/>
         <v>85.4</v>
       </c>
@@ -3357,21 +3356,21 @@
       <c r="F27">
         <v>85</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="14">
         <f t="shared" si="0"/>
         <v>78.75</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="7">
         <v>40</v>
       </c>
       <c r="I27">
         <v>34</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="13">
         <f t="shared" si="2"/>
         <v>75.900000000000006</v>
       </c>
@@ -3395,21 +3394,21 @@
       <c r="F28">
         <v>95</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="14">
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="7">
         <v>46</v>
       </c>
       <c r="I28">
         <v>39</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="13">
         <f t="shared" si="2"/>
         <v>85.5</v>
       </c>
@@ -3433,7 +3432,7 @@
       <c r="F29">
         <v>85</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="14">
         <f t="shared" si="0"/>
         <v>76.25</v>
       </c>
@@ -3443,11 +3442,11 @@
       <c r="I29">
         <v>22</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="13">
         <f t="shared" si="2"/>
         <v>70.699999999999989</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="F30">
         <v>95</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="14">
         <f t="shared" si="0"/>
         <v>76.25</v>
       </c>
@@ -3481,11 +3480,11 @@
       <c r="I30">
         <v>24</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="13">
         <f t="shared" si="2"/>
         <v>71.900000000000006</v>
       </c>
@@ -3509,7 +3508,7 @@
       <c r="F31">
         <v>95</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="14">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
@@ -3519,11 +3518,11 @@
       <c r="I31">
         <v>31</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="13">
         <f t="shared" si="2"/>
         <v>81.099999999999994</v>
       </c>
@@ -3547,21 +3546,21 @@
       <c r="F32">
         <v>90</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="14">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="7">
         <v>45</v>
       </c>
       <c r="I32">
         <v>45</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="13">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="F33">
         <v>80</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="14">
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
@@ -3595,11 +3594,11 @@
       <c r="I33">
         <v>30</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="13">
         <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
@@ -3623,21 +3622,21 @@
       <c r="F34">
         <v>85</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="14">
         <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="7">
         <v>37</v>
       </c>
       <c r="I34">
         <v>39</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="13">
         <f t="shared" si="2"/>
         <v>80.099999999999994</v>
       </c>
@@ -3661,7 +3660,7 @@
       <c r="F35">
         <v>80</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="14">
         <f t="shared" ref="G35:G66" si="3">D35*0.25+E35*0.5+F35*0.25</f>
         <v>73.75</v>
       </c>
@@ -3671,11 +3670,11 @@
       <c r="I35">
         <v>30</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="10">
         <f t="shared" ref="J35:J66" si="4">H35+I35</f>
         <v>67.5</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="13">
         <f t="shared" ref="K35:K66" si="5">(G35*0.4)+(J35*0.6)</f>
         <v>70</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="F36">
         <v>100</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="14">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
@@ -3709,11 +3708,11 @@
       <c r="I36">
         <v>29</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="10">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="13">
         <f t="shared" si="5"/>
         <v>80.400000000000006</v>
       </c>
@@ -3734,7 +3733,7 @@
       <c r="F37">
         <v>60</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="14">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
@@ -3744,11 +3743,11 @@
       <c r="I37">
         <v>5</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="13">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -3772,21 +3771,21 @@
       <c r="F38">
         <v>100</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="14">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="H38">
         <v>37.5</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="7">
         <v>30</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="10">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="13">
         <f t="shared" si="5"/>
         <v>70.5</v>
       </c>
@@ -3810,7 +3809,7 @@
       <c r="F39">
         <v>100</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="14">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
@@ -3820,11 +3819,11 @@
       <c r="I39">
         <v>45</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="10">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="13">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
@@ -3842,7 +3841,7 @@
       <c r="E40">
         <v>95</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="14">
         <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
@@ -3852,11 +3851,11 @@
       <c r="I40">
         <v>30</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="10">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="13">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
@@ -3880,7 +3879,7 @@
       <c r="F41">
         <v>90</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="14">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
@@ -3890,11 +3889,11 @@
       <c r="I41">
         <v>25</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="10">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="13">
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
@@ -3915,21 +3914,21 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="14">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="H42">
         <v>50</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="7">
         <v>34</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="10">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="13">
         <f t="shared" si="5"/>
         <v>65.400000000000006</v>
       </c>
@@ -3953,21 +3952,21 @@
       <c r="F43">
         <v>90</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="14">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="7">
         <v>46</v>
       </c>
       <c r="I43">
         <v>44</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="10">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="13">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="F44">
         <v>85</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="14">
         <f t="shared" si="3"/>
         <v>88.75</v>
       </c>
@@ -4001,11 +4000,11 @@
       <c r="I44">
         <v>22</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="10">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="13">
         <f t="shared" si="5"/>
         <v>75.699999999999989</v>
       </c>
@@ -4029,21 +4028,21 @@
       <c r="F45">
         <v>100</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="14">
         <f t="shared" si="3"/>
         <v>86.25</v>
       </c>
       <c r="H45">
         <v>37.5</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="7">
         <v>14</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="10">
         <f t="shared" si="4"/>
         <v>51.5</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="13">
         <f t="shared" si="5"/>
         <v>65.400000000000006</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>134</v>
       </c>
       <c r="D46">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E46">
         <v>75</v>
@@ -4067,9 +4066,9 @@
       <c r="F46">
         <v>95</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="14">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="H46">
         <v>37.5</v>
@@ -4077,13 +4076,13 @@
       <c r="I46">
         <v>30</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="10">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="13">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -4105,21 +4104,21 @@
       <c r="F47">
         <v>60</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="14">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="7">
         <v>30</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="7">
         <v>20</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="10">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="13">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
@@ -4143,21 +4142,21 @@
       <c r="F48">
         <v>55</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="14">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="7">
         <v>44</v>
       </c>
       <c r="I48">
         <v>31</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="10">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="13">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
@@ -4181,21 +4180,21 @@
       <c r="F49">
         <v>90</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="14">
         <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
       <c r="H49">
         <v>50</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="7">
         <v>38</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="10">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="13">
         <f t="shared" si="5"/>
         <v>85.3</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="F50">
         <v>80</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="14">
         <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
@@ -4229,11 +4228,11 @@
       <c r="I50">
         <v>19</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="10">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="13">
         <f t="shared" si="5"/>
         <v>70.900000000000006</v>
       </c>
@@ -4257,7 +4256,7 @@
       <c r="F51">
         <v>85</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="14">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
@@ -4267,11 +4266,11 @@
       <c r="I51">
         <v>43</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="10">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="13">
         <f t="shared" si="5"/>
         <v>66.3</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="F52">
         <v>55</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="14">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
@@ -4305,11 +4304,11 @@
       <c r="I52">
         <v>29</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="10">
         <f t="shared" si="4"/>
         <v>71.5</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="13">
         <f t="shared" si="5"/>
         <v>66.900000000000006</v>
       </c>
@@ -4333,7 +4332,7 @@
       <c r="F53">
         <v>60</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="14">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -4343,11 +4342,11 @@
       <c r="I53">
         <v>17</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="10">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="13">
         <f t="shared" si="5"/>
         <v>62.199999999999996</v>
       </c>
@@ -4368,21 +4367,21 @@
       <c r="F54">
         <v>55</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="14">
         <f t="shared" si="3"/>
         <v>48.75</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="7">
         <v>45</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="7">
         <v>23</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="10">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="13">
         <f t="shared" si="5"/>
         <v>60.3</v>
       </c>
@@ -4406,21 +4405,21 @@
       <c r="F55">
         <v>100</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="14">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="7">
         <v>47</v>
       </c>
       <c r="I55">
         <v>50</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="10">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="13">
         <f t="shared" si="5"/>
         <v>90.199999999999989</v>
       </c>
@@ -4444,21 +4443,21 @@
       <c r="F56">
         <v>100</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="14">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="7">
         <v>47</v>
       </c>
       <c r="I56">
         <v>47</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="10">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="13">
         <f t="shared" si="5"/>
         <v>90.4</v>
       </c>
@@ -4473,18 +4472,18 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4508,7 +4507,7 @@
       <c r="F58">
         <v>85</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="14">
         <f t="shared" si="3"/>
         <v>91.25</v>
       </c>
@@ -4518,11 +4517,11 @@
       <c r="I58">
         <v>25</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="10">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="13">
         <f t="shared" si="5"/>
         <v>78.5</v>
       </c>
@@ -4546,7 +4545,7 @@
       <c r="F59">
         <v>55</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="14">
         <f t="shared" si="3"/>
         <v>71.25</v>
       </c>
@@ -4556,11 +4555,11 @@
       <c r="I59">
         <v>20</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="10">
         <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="13">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
@@ -4584,21 +4583,21 @@
       <c r="F60">
         <v>55</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="7">
         <v>45</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="7">
         <v>25</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="10">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="13">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
@@ -4619,21 +4618,21 @@
       <c r="F61">
         <v>85</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="14">
         <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="7">
         <v>30</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="7">
         <v>35</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="10">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="13">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="F62">
         <v>95</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="14">
         <f t="shared" si="3"/>
         <v>83.75</v>
       </c>
@@ -4667,11 +4666,11 @@
       <c r="I62">
         <v>47</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="10">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="13">
         <f t="shared" si="5"/>
         <v>88.699999999999989</v>
       </c>
@@ -4695,7 +4694,7 @@
       <c r="F63">
         <v>85</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="14">
         <f t="shared" si="3"/>
         <v>61.25</v>
       </c>
@@ -4705,11 +4704,11 @@
       <c r="I63">
         <v>23</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="10">
         <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="13">
         <f t="shared" si="5"/>
         <v>63.8</v>
       </c>
@@ -4733,21 +4732,21 @@
       <c r="F64">
         <v>55</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="14">
         <f t="shared" si="3"/>
         <v>66.25</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="7">
         <v>34</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="7">
         <v>22</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="10">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="13">
         <f t="shared" si="5"/>
         <v>60.1</v>
       </c>
@@ -4771,7 +4770,7 @@
       <c r="F65">
         <v>100</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="14">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
@@ -4781,11 +4780,11 @@
       <c r="I65">
         <v>34</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="10">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="13">
         <f t="shared" si="5"/>
         <v>83.4</v>
       </c>
@@ -4809,21 +4808,21 @@
       <c r="F66">
         <v>90</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="14">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
       <c r="H66">
         <v>45</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="7">
         <v>34</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="10">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="13">
         <f t="shared" si="5"/>
         <v>80.400000000000006</v>
       </c>
@@ -4847,21 +4846,21 @@
       <c r="F67">
         <v>90</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="14">
         <f t="shared" ref="G67:G98" si="6">D67*0.25+E67*0.5+F67*0.25</f>
         <v>76.25</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="7">
         <v>40</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="7">
         <v>35</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="10">
         <f t="shared" ref="J67:J98" si="7">H67+I67</f>
         <v>75</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="13">
         <f t="shared" ref="K67:K98" si="8">(G67*0.4)+(J67*0.6)</f>
         <v>75.5</v>
       </c>
@@ -4882,18 +4881,18 @@
       <c r="F68">
         <v>95</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="14">
         <f t="shared" si="6"/>
         <v>53.75</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="13">
         <f t="shared" si="8"/>
         <v>21.5</v>
       </c>
@@ -4917,21 +4916,21 @@
       <c r="F69">
         <v>100</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="14">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="H69">
         <v>50</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="7">
         <v>44</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="10">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="13">
         <f t="shared" si="8"/>
         <v>90.4</v>
       </c>
@@ -4955,21 +4954,21 @@
       <c r="F70">
         <v>90</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="14">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="7">
         <v>25</v>
       </c>
       <c r="I70">
         <v>37</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="10">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="13">
         <f t="shared" si="8"/>
         <v>70.199999999999989</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="F71">
         <v>85</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="14">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
@@ -5003,11 +5002,11 @@
       <c r="I71">
         <v>9</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="10">
         <f t="shared" si="7"/>
         <v>51.5</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="13">
         <f t="shared" si="8"/>
         <v>65.900000000000006</v>
       </c>
@@ -5031,21 +5030,21 @@
       <c r="F72">
         <v>95</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="14">
         <f t="shared" si="6"/>
         <v>83.75</v>
       </c>
       <c r="H72">
         <v>45</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="7">
         <v>33</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="10">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="13">
         <f t="shared" si="8"/>
         <v>80.3</v>
       </c>
@@ -5069,21 +5068,21 @@
       <c r="F73">
         <v>80</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="14">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
       <c r="H73">
         <v>50</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="7">
         <v>34</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="10">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="13">
         <f t="shared" si="8"/>
         <v>85.4</v>
       </c>
@@ -5107,21 +5106,21 @@
       <c r="F74">
         <v>100</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="H74">
         <v>45</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="7">
         <v>37</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="10">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="13">
         <f t="shared" si="8"/>
         <v>85.199999999999989</v>
       </c>
@@ -5145,7 +5144,7 @@
       <c r="F75">
         <v>90</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="14">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
@@ -5155,11 +5154,11 @@
       <c r="I75">
         <v>21</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="10">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="13">
         <f t="shared" si="8"/>
         <v>71.599999999999994</v>
       </c>
@@ -5174,18 +5173,18 @@
       <c r="C76" t="s">
         <v>224</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5203,21 +5202,21 @@
       <c r="E77">
         <v>60</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="14">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="7">
         <v>45</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="7">
         <v>35</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="10">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="13">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -5241,21 +5240,21 @@
       <c r="F78">
         <v>100</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="14">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="H78">
         <v>45</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="7">
         <v>29</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="10">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="13">
         <f t="shared" si="8"/>
         <v>80.400000000000006</v>
       </c>
@@ -5273,18 +5272,18 @@
       <c r="E79">
         <v>40</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="14">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="13">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -5308,7 +5307,7 @@
       <c r="F80">
         <v>80</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="14">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
@@ -5318,11 +5317,11 @@
       <c r="I80">
         <v>25</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="10">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="13">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
@@ -5346,21 +5345,21 @@
       <c r="F81">
         <v>100</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="14">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="H81">
         <v>45</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="7">
         <v>44</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="10">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="13">
         <f t="shared" si="8"/>
         <v>85.4</v>
       </c>
@@ -5384,21 +5383,21 @@
       <c r="F82">
         <v>95</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="14">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="7">
         <v>48</v>
       </c>
       <c r="I82">
         <v>47</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="10">
         <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="13">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
@@ -5413,18 +5412,18 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5448,21 +5447,21 @@
       <c r="F84">
         <v>70</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="14">
         <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="7">
         <v>46</v>
       </c>
       <c r="I84">
         <v>33</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="10">
         <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="13">
         <f t="shared" si="8"/>
         <v>80.400000000000006</v>
       </c>
@@ -5486,7 +5485,7 @@
       <c r="F85">
         <v>85</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="14">
         <f t="shared" si="6"/>
         <v>76.25</v>
       </c>
@@ -5496,11 +5495,11 @@
       <c r="I85">
         <v>24</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="10">
         <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="13">
         <f t="shared" si="8"/>
         <v>70.400000000000006</v>
       </c>
@@ -5524,7 +5523,7 @@
       <c r="F86">
         <v>45</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="14">
         <f t="shared" si="6"/>
         <v>38.75</v>
       </c>
@@ -5534,11 +5533,11 @@
       <c r="I86">
         <v>20</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="10">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="13">
         <f t="shared" si="8"/>
         <v>33.5</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="E87">
         <v>60</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="14">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -5566,11 +5565,11 @@
       <c r="I87">
         <v>42</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="10">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="13">
         <f t="shared" si="8"/>
         <v>61.199999999999996</v>
       </c>
@@ -5594,7 +5593,7 @@
       <c r="F88">
         <v>95</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="14">
         <f t="shared" si="6"/>
         <v>76.25</v>
       </c>
@@ -5604,11 +5603,11 @@
       <c r="I88">
         <v>12</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="10">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="13">
         <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
@@ -5632,7 +5631,7 @@
       <c r="F89">
         <v>75</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="14">
         <f t="shared" si="6"/>
         <v>63.75</v>
       </c>
@@ -5642,11 +5641,11 @@
       <c r="I89">
         <v>3</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="10">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="13">
         <f t="shared" si="8"/>
         <v>27.3</v>
       </c>
@@ -5670,21 +5669,21 @@
       <c r="F90">
         <v>85</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="14">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="H90">
         <v>40</v>
       </c>
-      <c r="I90" s="15">
+      <c r="I90" s="7">
         <v>28</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="10">
         <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="13">
         <f t="shared" si="8"/>
         <v>65.8</v>
       </c>
@@ -5702,18 +5701,18 @@
       <c r="E91">
         <v>35</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="14">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="13">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -5737,7 +5736,7 @@
       <c r="F92">
         <v>90</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="14">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
@@ -5747,11 +5746,11 @@
       <c r="I92">
         <v>30</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="10">
         <f t="shared" si="7"/>
         <v>72.5</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="13">
         <f t="shared" si="8"/>
         <v>75.5</v>
       </c>
@@ -5775,7 +5774,7 @@
       <c r="F93">
         <v>90</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="14">
         <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
@@ -5785,11 +5784,11 @@
       <c r="I93">
         <v>24</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="10">
         <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="13">
         <f t="shared" si="8"/>
         <v>81.400000000000006</v>
       </c>
@@ -5813,21 +5812,21 @@
       <c r="F94">
         <v>100</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="14">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
       <c r="H94">
         <v>50</v>
       </c>
-      <c r="I94" s="15">
+      <c r="I94" s="7">
         <v>42</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="10">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="13">
         <f t="shared" si="8"/>
         <v>90.199999999999989</v>
       </c>
@@ -5845,18 +5844,18 @@
       <c r="E95">
         <v>50</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="14">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="13">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -5880,7 +5879,7 @@
       <c r="F96">
         <v>100</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="14">
         <f t="shared" si="6"/>
         <v>87.5</v>
       </c>
@@ -5890,11 +5889,11 @@
       <c r="I96">
         <v>48</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="10">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="13">
         <f t="shared" si="8"/>
         <v>93.8</v>
       </c>
@@ -5918,7 +5917,7 @@
       <c r="F97">
         <v>85</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="14">
         <f t="shared" si="6"/>
         <v>68.75</v>
       </c>
@@ -5928,11 +5927,11 @@
       <c r="I97">
         <v>34</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="10">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="K97" s="4">
+      <c r="K97" s="13">
         <f t="shared" si="8"/>
         <v>75.5</v>
       </c>
@@ -5947,18 +5946,18 @@
       <c r="C98" t="s">
         <v>290</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5982,7 +5981,7 @@
       <c r="F99">
         <v>55</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="14">
         <f t="shared" ref="G99:G117" si="9">D99*0.25+E99*0.5+F99*0.25</f>
         <v>75</v>
       </c>
@@ -5992,11 +5991,11 @@
       <c r="I99">
         <v>16</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="10">
         <f t="shared" ref="J99:J117" si="10">H99+I99</f>
         <v>58.5</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="13">
         <f t="shared" ref="K99:K117" si="11">(G99*0.4)+(J99*0.6)</f>
         <v>65.099999999999994</v>
       </c>
@@ -6020,18 +6019,18 @@
       <c r="F100">
         <v>55</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="14">
         <f t="shared" si="9"/>
         <v>63.75</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K100" s="13">
         <f t="shared" si="11"/>
         <v>25.5</v>
       </c>
@@ -6049,18 +6048,18 @@
       <c r="E101">
         <v>100</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="14">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="H101">
         <v>40</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="10">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K101" s="13">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
@@ -6084,21 +6083,21 @@
       <c r="F102">
         <v>85</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="14">
         <f t="shared" si="9"/>
         <v>71.25</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="7">
         <v>33</v>
       </c>
-      <c r="I102" s="15">
+      <c r="I102" s="7">
         <v>20</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="10">
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="K102" s="4">
+      <c r="K102" s="13">
         <f t="shared" si="11"/>
         <v>60.3</v>
       </c>
@@ -6122,7 +6121,7 @@
       <c r="F103">
         <v>85</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="14">
         <f t="shared" si="9"/>
         <v>83.75</v>
       </c>
@@ -6132,11 +6131,11 @@
       <c r="I103">
         <v>37</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="10">
         <f t="shared" si="10"/>
         <v>79.5</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K103" s="13">
         <f t="shared" si="11"/>
         <v>81.199999999999989</v>
       </c>
@@ -6157,21 +6156,21 @@
       <c r="F104">
         <v>60</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="14">
         <f t="shared" si="9"/>
         <v>47.5</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="7">
         <v>43</v>
       </c>
-      <c r="I104" s="15">
+      <c r="I104" s="7">
         <v>26</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="10">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K104" s="13">
         <f t="shared" si="11"/>
         <v>60.4</v>
       </c>
@@ -6195,21 +6194,21 @@
       <c r="F105">
         <v>85</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="14">
         <f t="shared" si="9"/>
         <v>68.75</v>
       </c>
-      <c r="H105" s="15">
+      <c r="H105" s="7">
         <v>42</v>
       </c>
-      <c r="I105" s="15">
+      <c r="I105" s="7">
         <v>38</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="10">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K105" s="13">
         <f t="shared" si="11"/>
         <v>75.5</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="F106">
         <v>75</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="14">
         <f t="shared" si="9"/>
         <v>81.25</v>
       </c>
@@ -6243,11 +6242,11 @@
       <c r="I106">
         <v>28</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="10">
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K106" s="13">
         <f t="shared" si="11"/>
         <v>67.3</v>
       </c>
@@ -6271,21 +6270,21 @@
       <c r="F107">
         <v>100</v>
       </c>
-      <c r="G107" s="9">
+      <c r="G107" s="14">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="H107" s="15">
+      <c r="H107" s="7">
         <v>48</v>
       </c>
       <c r="I107">
         <v>36</v>
       </c>
-      <c r="J107" s="13">
+      <c r="J107" s="10">
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K107" s="13">
         <f t="shared" si="11"/>
         <v>80.400000000000006</v>
       </c>
@@ -6309,21 +6308,21 @@
       <c r="F108">
         <v>95</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="14">
         <f t="shared" si="9"/>
         <v>73.75</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H108" s="7">
         <v>44</v>
       </c>
       <c r="I108">
         <v>32</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="10">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K108" s="13">
         <f t="shared" si="11"/>
         <v>75.099999999999994</v>
       </c>
@@ -6347,7 +6346,7 @@
       <c r="F109">
         <v>85</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G109" s="14">
         <f t="shared" si="9"/>
         <v>81.25</v>
       </c>
@@ -6357,11 +6356,11 @@
       <c r="I109">
         <v>26</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="10">
         <f t="shared" si="10"/>
         <v>63.5</v>
       </c>
-      <c r="K109" s="4">
+      <c r="K109" s="13">
         <f t="shared" si="11"/>
         <v>70.599999999999994</v>
       </c>
@@ -6382,21 +6381,21 @@
       <c r="F110">
         <v>100</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G110" s="14">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="H110" s="15">
+      <c r="H110" s="7">
         <v>30</v>
       </c>
-      <c r="I110" s="15">
+      <c r="I110" s="7">
         <v>34</v>
       </c>
-      <c r="J110" s="13">
+      <c r="J110" s="10">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="13">
         <f t="shared" si="11"/>
         <v>60.4</v>
       </c>
@@ -6420,21 +6419,21 @@
       <c r="F111">
         <v>85</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G111" s="14">
         <f t="shared" si="9"/>
         <v>78.75</v>
       </c>
       <c r="H111">
         <v>50</v>
       </c>
-      <c r="I111" s="15">
+      <c r="I111" s="7">
         <v>48</v>
       </c>
-      <c r="J111" s="13">
+      <c r="J111" s="10">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="K111" s="4">
+      <c r="K111" s="13">
         <f t="shared" si="11"/>
         <v>90.3</v>
       </c>
@@ -6458,7 +6457,7 @@
       <c r="F112">
         <v>100</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G112" s="14">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
@@ -6468,11 +6467,11 @@
       <c r="I112">
         <v>45</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="10">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="K112" s="4">
+      <c r="K112" s="13">
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
@@ -6490,7 +6489,7 @@
       <c r="E113">
         <v>45</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="14">
         <f t="shared" si="9"/>
         <v>22.5</v>
       </c>
@@ -6500,11 +6499,11 @@
       <c r="I113">
         <v>2</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="10">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K113" s="4">
+      <c r="K113" s="13">
         <f t="shared" si="11"/>
         <v>10.199999999999999</v>
       </c>
@@ -6525,7 +6524,7 @@
       <c r="F114">
         <v>80</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="14">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
@@ -6535,11 +6534,11 @@
       <c r="I114">
         <v>14</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="10">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="K114" s="4">
+      <c r="K114" s="13">
         <f t="shared" si="11"/>
         <v>60.4</v>
       </c>
@@ -6557,7 +6556,7 @@
       <c r="E115">
         <v>90</v>
       </c>
-      <c r="G115" s="9">
+      <c r="G115" s="14">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
@@ -6567,11 +6566,11 @@
       <c r="I115">
         <v>14</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="10">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K115" s="13">
         <f t="shared" si="11"/>
         <v>26.4</v>
       </c>
@@ -6595,21 +6594,21 @@
       <c r="F116">
         <v>90</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G116" s="14">
         <f t="shared" si="9"/>
         <v>76.25</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H116" s="7">
         <v>50</v>
       </c>
       <c r="I116">
         <v>50</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="10">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K116" s="4">
+      <c r="K116" s="13">
         <f t="shared" si="11"/>
         <v>90.5</v>
       </c>
@@ -6633,7 +6632,7 @@
       <c r="F117">
         <v>90</v>
       </c>
-      <c r="G117" s="9">
+      <c r="G117" s="14">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
@@ -6643,11 +6642,11 @@
       <c r="I117">
         <v>50</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="10">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K117" s="13">
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
@@ -6666,585 +6665,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1D592F-937B-D149-BB0B-8ED9164C109C}">
   <dimension ref="A1:A115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>98</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>94.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>94.199999999999989</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>93.8</v>
+        <v>94.199999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>93.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>93</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>89.5</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>89.4</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>89.199999999999989</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>89.199999999999989</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>88.699999999999989</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>88.5</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>88.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>88.4</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>88.4</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>88.3</v>
+        <v>90.1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>88.199999999999989</v>
+        <v>72.199999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>87.8</v>
+        <v>70.699999999999989</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>87.5</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>84.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>84.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>83.8</v>
+        <v>60.199999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>83.4</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>83.4</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>83.3</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>83</v>
+        <v>70.699999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>82.4</v>
+        <v>71.900000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>81.400000000000006</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>81.199999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>81.099999999999994</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>80.400000000000006</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>79.8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>79.8</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>78.900000000000006</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>78.599999999999994</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>78.599999999999994</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>78.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>77.900000000000006</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>77.900000000000006</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>75.699999999999989</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>75.5</v>
+        <v>75.699999999999989</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>74.400000000000006</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>74.099999999999994</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>73.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>73.599999999999994</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>73.400000000000006</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>73</v>
+        <v>70.900000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>73</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>72.699999999999989</v>
+        <v>66.900000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>72.5</v>
+        <v>62.199999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>72.199999999999989</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>72.199999999999989</v>
+        <v>90.199999999999989</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>71.900000000000006</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>71.599999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>71</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>70.900000000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>70.699999999999989</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>70.699999999999989</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>70.599999999999994</v>
+        <v>88.699999999999989</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>70.400000000000006</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>70</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>69.900000000000006</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>68.699999999999989</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>68.400000000000006</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>67.3</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>67.3</v>
+        <v>90.4</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67.3</v>
+        <v>70.199999999999989</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>66.900000000000006</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>66.3</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>66</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>65.900000000000006</v>
+        <v>85.199999999999989</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>65.099999999999994</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>64.599999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>64.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>63.8</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>62.199999999999996</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>61.7</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>61.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>61.199999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>61</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>60.5</v>
+        <v>70.400000000000006</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>60</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>55.9</v>
+        <v>61.199999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>53.6</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>53.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>53.199999999999996</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>52.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>50.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>49.2</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>48.7</v>
+        <v>90.199999999999989</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>47.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>45.9</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>44</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>35.9</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>33.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>27.3</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>26.4</v>
+        <v>81.199999999999989</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>25.5</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>21.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>15</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>10.199999999999999</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>10</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>8</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>0</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>0</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7257,955 +7256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAB4FD3-C627-EE4A-87DC-E610ACDA7C75}">
-  <dimension ref="A1:B116"/>
-  <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>100</v>
-      </c>
-      <c r="B1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>95</v>
-      </c>
-      <c r="B2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>94.5</v>
-      </c>
-      <c r="B4">
-        <v>94.199999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <v>93.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>98</v>
-      </c>
-      <c r="B6">
-        <v>93.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>95</v>
-      </c>
-      <c r="B7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>88</v>
-      </c>
-      <c r="B8">
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>94</v>
-      </c>
-      <c r="B10">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>90.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>98</v>
-      </c>
-      <c r="B12">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>97</v>
-      </c>
-      <c r="B13">
-        <v>90.199999999999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>92</v>
-      </c>
-      <c r="B14">
-        <v>90.199999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>96</v>
-      </c>
-      <c r="B15">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>91</v>
-      </c>
-      <c r="B16">
-        <v>90.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>90</v>
-      </c>
-      <c r="B17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>95</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>92</v>
-      </c>
-      <c r="B20">
-        <v>88.699999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>85</v>
-      </c>
-      <c r="B21">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>84</v>
-      </c>
-      <c r="B23">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>89</v>
-      </c>
-      <c r="B24">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>88</v>
-      </c>
-      <c r="B25">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>82</v>
-      </c>
-      <c r="B26">
-        <v>85.199999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>93</v>
-      </c>
-      <c r="B27">
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>79</v>
-      </c>
-      <c r="B28">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>74</v>
-      </c>
-      <c r="B29">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>79.5</v>
-      </c>
-      <c r="B30">
-        <v>81.199999999999989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>81</v>
-      </c>
-      <c r="B31">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>74</v>
-      </c>
-      <c r="B32">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>79</v>
-      </c>
-      <c r="B33">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>74</v>
-      </c>
-      <c r="B34">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>79</v>
-      </c>
-      <c r="B35">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>84</v>
-      </c>
-      <c r="B36">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>78</v>
-      </c>
-      <c r="B37">
-        <v>80.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>76</v>
-      </c>
-      <c r="B38">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>70</v>
-      </c>
-      <c r="B39">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>69</v>
-      </c>
-      <c r="B40">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>74</v>
-      </c>
-      <c r="B41">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>67</v>
-      </c>
-      <c r="B42">
-        <v>75.699999999999989</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>75</v>
-      </c>
-      <c r="B43">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>72.5</v>
-      </c>
-      <c r="B44">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>80</v>
-      </c>
-      <c r="B45">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>80</v>
-      </c>
-      <c r="B46">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>74</v>
-      </c>
-      <c r="B47">
-        <v>75.400000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>76</v>
-      </c>
-      <c r="B48">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>72.5</v>
-      </c>
-      <c r="B49">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>75</v>
-      </c>
-      <c r="B50">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>65</v>
-      </c>
-      <c r="B51">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>67.5</v>
-      </c>
-      <c r="B52">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>72</v>
-      </c>
-      <c r="B53">
-        <v>72.199999999999989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>69</v>
-      </c>
-      <c r="B54">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>66</v>
-      </c>
-      <c r="B55">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>65</v>
-      </c>
-      <c r="B56">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>64</v>
-      </c>
-      <c r="B57">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>72</v>
-      </c>
-      <c r="B58">
-        <v>70.699999999999989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>67</v>
-      </c>
-      <c r="B59">
-        <v>70.699999999999989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>63.5</v>
-      </c>
-      <c r="B60">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>67.5</v>
-      </c>
-      <c r="B61">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>66.5</v>
-      </c>
-      <c r="B62">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>70.5</v>
-      </c>
-      <c r="B63">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>70.199999999999989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>67.5</v>
-      </c>
-      <c r="B65">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>60.5</v>
-      </c>
-      <c r="B66">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>58</v>
-      </c>
-      <c r="B67">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>71.5</v>
-      </c>
-      <c r="B68">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>62.5</v>
-      </c>
-      <c r="B70">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>51.5</v>
-      </c>
-      <c r="B71">
-        <v>65.900000000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>68</v>
-      </c>
-      <c r="B72">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>84</v>
-      </c>
-      <c r="B73">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>51.5</v>
-      </c>
-      <c r="B74">
-        <v>65.400000000000006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>58.5</v>
-      </c>
-      <c r="B75">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>65.5</v>
-      </c>
-      <c r="B76">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>57</v>
-      </c>
-      <c r="B77">
-        <v>62.199999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>52</v>
-      </c>
-      <c r="B78">
-        <v>61.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>55</v>
-      </c>
-      <c r="B80">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>82</v>
-      </c>
-      <c r="B81">
-        <v>61.199999999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>70</v>
-      </c>
-      <c r="B82">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>50</v>
-      </c>
-      <c r="B83">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>65</v>
-      </c>
-      <c r="B84">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>50</v>
-      </c>
-      <c r="B85">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>69</v>
-      </c>
-      <c r="B86">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>64</v>
-      </c>
-      <c r="B87">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>64</v>
-      </c>
-      <c r="B88">
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>68</v>
-      </c>
-      <c r="B89">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>53</v>
-      </c>
-      <c r="B90">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>56</v>
-      </c>
-      <c r="B91">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>56</v>
-      </c>
-      <c r="B92">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>50</v>
-      </c>
-      <c r="B93">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>70</v>
-      </c>
-      <c r="B94">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>80</v>
-      </c>
-      <c r="B95">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>40</v>
-      </c>
-      <c r="B96">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>25</v>
-      </c>
-      <c r="B97">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>36.5</v>
-      </c>
-      <c r="B98">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>30</v>
-      </c>
-      <c r="B99">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>3</v>
-      </c>
-      <c r="B101">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>14</v>
-      </c>
-      <c r="B102">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B138">
-    <sortCondition descending="1" ref="B23:B138"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DB2D0D-2955-BA4F-A9C8-09E70872ED6D}">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8612,7 +7667,7 @@
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E40">
@@ -8623,7 +7678,7 @@
       <c r="A41" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="3"/>
       <c r="E41">
         <v>100</v>
       </c>
@@ -8635,7 +7690,7 @@
       <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E42">
